--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificaciones Minera Linderos</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,16 +2354,16 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2372,12 +2372,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Modificaciones Minera Linderos</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,16 +2402,16 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2420,12 +2420,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -8124,7 +8124,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Modificaciones Minera Linderos</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,16 +2354,16 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2372,12 +2372,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificaciones Minera Linderos</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,16 +2402,16 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2420,12 +2420,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>LENERGIA CHILE SpA</t>
+          <t>FSI Solar SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificaciones Minera Linderos</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,16 +2354,16 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2372,12 +2372,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Modificaciones Minera Linderos</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,16 +2402,16 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2420,12 +2420,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -9551,7 +9551,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J210"/>
+  <dimension ref="A1:J211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Crecimiento Tranque de Relaves Panules</t>
+          <t>Mina Yeso Corral</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SOCIEDAD SERVICIOS A LA MINERIA OMINT SPA</t>
+          <t>Yesos Andinos SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/01/2022</t>
+          <t>11/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154614776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157197696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>28/12/2021</t>
+          <t>06/01/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154497249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154614776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Repotenciamiento PMGD Luna II</t>
+          <t>Crecimiento Tranque de Relaves Panules</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Parque Solar Luna del Norte SpA</t>
+          <t>SOCIEDAD SERVICIOS A LA MINERIA OMINT SPA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1900</v>
+        <v>250</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>23/07/2020</t>
+          <t>28/12/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147476824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154497249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Repotenciamiento PMGD SOL II</t>
+          <t>Repotenciamiento PMGD Luna II</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,11 +583,11 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Parque Solar Sol del Norte SpA</t>
+          <t>Parque Solar Luna del Norte SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3750</v>
+        <v>1900</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147482505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147476824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Proyecto Minero Arqueros</t>
+          <t>Repotenciamiento PMGD SOL II</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>COMPAÑÍA MINERA ARQUEROS S.A.</t>
+          <t>Parque Solar Sol del Norte SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>200000</v>
+        <v>3750</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>25/05/2020</t>
+          <t>23/07/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146624103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147482505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,12 +664,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Fundo San Isidro</t>
+          <t>Proyecto Minero Arqueros</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FSI Solar SpA</t>
+          <t>COMPAÑÍA MINERA ARQUEROS S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>15000</v>
+        <v>200000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>23/04/2020</t>
+          <t>25/05/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146361278&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146624103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>LENERGIA CHILE SpA</t>
+          <t>FSI Solar SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>23/03/2020</t>
+          <t>23/04/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146016174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146361278&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Planta Fotovoltaica Fundo San Isidro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>LENERGIA CHILE SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>23/03/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146016174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica Santa Francisca</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,20 +818,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CVE Proyecto Diecisiete SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>7600</v>
+        <v>25000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>22/11/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144992691&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nuevo sistema de tratamiento de aguas servidas de Vicuña, región de Coquimbo</t>
+          <t>Nueva Central Solar Fotovoltaica Santa Francisca</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Aguas del Valle S.A.</t>
+          <t>CVE Proyecto Diecisiete SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5200</v>
+        <v>7600</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>28/10/2019</t>
+          <t>22/11/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144513629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144992691&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Central GLP Talcuna</t>
+          <t>Nuevo sistema de tratamiento de aguas servidas de Vicuña, región de Coquimbo</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MARQUESA GLP SpA</t>
+          <t>Aguas del Valle S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3500</v>
+        <v>5200</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>23/07/2019</t>
+          <t>28/10/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143765092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144513629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Proyecto ?Faena Minera ?Mina San Antonio?, explotación a 40.000 ton/mes?</t>
+          <t>Central GLP Talcuna</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>MARQUESA GLP SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4200</v>
+        <v>3500</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>21/11/2018</t>
+          <t>23/07/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141692561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143765092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
+          <t>Proyecto ?Faena Minera ?Mina San Antonio?, explotación a 40.000 ton/mes?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,20 +1010,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>27/06/2018</t>
+          <t>21/11/2018</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141692561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Gabriela</t>
+          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Bronte SpA</t>
+          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>22/03/2018</t>
+          <t>27/06/2018</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138751214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parque solar Llanos de Potroso</t>
+          <t>Parque Fotovoltaico Gabriela</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Llanos de Potroso SpA</t>
+          <t>Bronte SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>23/11/2016</t>
+          <t>22/03/2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131950285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138751214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20/10/2016</t>
+          <t>23/11/2016</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131822429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131950285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Solar Llanos de Potroso</t>
+          <t>Parque solar Llanos de Potroso</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>16/09/2016</t>
+          <t>20/10/2016</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131726680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131822429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PARQUE SOLAR CASA DE PIEDRA</t>
+          <t>Parque Solar Llanos de Potroso</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1259,11 +1259,11 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>62000</v>
+        <v>12000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>22/04/2016</t>
+          <t>16/09/2016</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131323063&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131726680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Parque Solar Casa de Piedra</t>
+          <t>PARQUE SOLAR CASA DE PIEDRA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>24/03/2016</t>
+          <t>22/04/2016</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131266497&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131323063&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Parque Solar Casa de Piedra - Llanos de Potroso</t>
+          <t>Parque Solar Casa de Piedra</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1355,11 +1355,11 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>95130</v>
+        <v>62000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>19/02/2016</t>
+          <t>24/03/2016</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131156984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131266497&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas para Transporte Terrestre de Residuos y Sustancias Peligrosas a Granel desde la I a la X Región</t>
+          <t>Parque Solar Casa de Piedra - Llanos de Potroso</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,20 +1394,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Llanos de Potroso SpA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>95130</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>11/12/2015</t>
+          <t>19/02/2016</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130832601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131156984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>La Represa</t>
+          <t>Ampliación de Rutas para Transporte Terrestre de Residuos y Sustancias Peligrosas a Granel desde la I a la X Región</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Minera La Reserva Limitada</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>13/10/2015</t>
+          <t>11/12/2015</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130820333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130832601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1503,17 +1503,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>13/10/2015</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130803747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130820333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Proyecto La Represa</t>
+          <t>La Represa</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>26/08/2015</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130712151&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130803747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Prospección Minera Arqueros - Fase 2</t>
+          <t>Proyecto La Represa</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Compañía Minera Arqueros S.A.</t>
+          <t>Minera La Reserva Limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>22800</v>
+        <v>2500</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>09/07/2015</t>
+          <t>26/08/2015</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130595293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130712151&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Prospección Minera Alturas</t>
+          <t>Prospección Minera Arqueros - Fase 2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Compañía Minera Salitrales Limitada</t>
+          <t>Compañía Minera Arqueros S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>70000</v>
+        <v>22800</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>04/05/2015</t>
+          <t>09/07/2015</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130424679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130595293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1695,17 +1695,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>24/04/2015</t>
+          <t>04/05/2015</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130402498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130424679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Prospección Minera Alturas</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,20 +1730,20 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía Minera Salitrales Limitada</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5000</v>
+        <v>70000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>24/04/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130402498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Prospección Minera Alturas</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Compañía Minera Salitrales Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>70000</v>
+        <v>5000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>22/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130150788&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1839,17 +1839,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>30/12/2014</t>
+          <t>22/01/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130084416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130150788&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Prospección Minera Alturas</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,20 +1874,20 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía Minera Salitrales Limitada</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5000</v>
+        <v>70000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>30/12/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130084416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2223,17 +2223,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MINA SUBTERRÁNEA 21 DE MAYO DE CMSG EN TALCUNA, PRODUCCIÓN A 50 KTM</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>19/03/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129233665&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Modificaciones Minera Linderos</t>
+          <t>MINA SUBTERRÁNEA 21 DE MAYO DE CMSG EN TALCUNA, PRODUCCIÓN A 50 KTM</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3000</v>
+        <v>25000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>19/03/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129233665&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Regularizacion Ambiental del Proceso de Explotacion y Procesamiento de minerales, Yacimiento Talcuna</t>
+          <t>Modificaciones Minera Linderos</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SERVICIOS A LA MINERÍA OMINT SPA</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>18/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128943882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Compañia Minera Talcuna Limitada</t>
+          <t>SERVICIOS A LA MINERÍA OMINT SPA</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>12/12/2013</t>
+          <t>18/12/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916085&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128943882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Regularizacion Ambiental del proceso de Explotacion y Procesamiento de minerales, Yacimiento Talcuna</t>
+          <t>Regularizacion Ambiental del Proceso de Explotacion y Procesamiento de minerales, Yacimiento Talcuna</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2559,17 +2559,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>06/12/2013</t>
+          <t>12/12/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128894465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916085&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Regularizacion Ambiental del proceso de Explotacion y Procesamiento de minerales, Yacimiento Talcuna</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañia Minera Talcuna Limitada</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>06/12/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128894465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Aumento de Producción en Planta Condoriaco</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,20 +2978,20 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>16/11/2012</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7540103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3039,17 +3039,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>09/11/2012</t>
+          <t>16/11/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7510930&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7540103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Aumento de Producción en Planta Condoriaco</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>15000</v>
+        <v>500</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>09/11/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7510930&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ampliación Planta Talcuna Fase II, 120 KTM</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>11/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Proyecto Ampliación Planta Talcuna Fase II, 120KMT</t>
+          <t>Ampliación Planta Talcuna Fase II, 120 KTM</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3231,17 +3231,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>04/04/2012</t>
+          <t>11/04/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6768247&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Proyecto Ampliación Planta Talcuna Fase II, 120KMT</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>04/04/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6768247&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Regularización Embalse El Calvario</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Agrícola El Calvario S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>07/03/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6668178&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Regularización Embalse El Calvario</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Agrícola El Calvario S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>07/03/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6668178&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3659,21 +3659,21 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>75000</v>
+        <v>150</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>02/12/2010</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3707,21 +3707,21 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>150</v>
+        <v>75000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>27/10/2010</t>
+          <t>02/12/2010</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Tranque de Relaves Panules</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,30 +3746,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>SERVICIOS A LA MINERÍA OMINT SPA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>3500</v>
+        <v>150</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>19/10/2010</t>
+          <t>27/10/2010</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5011146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Compañia Minera Talcuna Limitada</t>
+          <t>SERVICIOS A LA MINERÍA OMINT SPA</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -3807,17 +3807,17 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>04/10/2010</t>
+          <t>19/10/2010</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4975616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5011146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>Tranque de Relaves Panules</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Compañia Minera Talcuna Limitada</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>563</v>
+        <v>3500</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>04/10/2010</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4975616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1750</v>
+        <v>563</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>85</v>
+        <v>1750</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>20/05/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>20/05/2010</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PROYECTO CONDORIACO (Planta de Cianuración para Minerales de Oro y Plata)</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>10/05/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4575438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>PROYECTO CONDORIACO (Planta de Cianuración para Minerales de Oro y Plata)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,20 +4082,20 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>4050</v>
+        <v>1000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>10/05/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4575438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PROYECTO CONDORIACO (Planta de Cianuración para Minerales de Oro y Plata)</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1000</v>
+        <v>4050</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>27/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4533719&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>PROYECTO CONDORIACO (Planta de Cianuración para Minerales de Oro y Plata)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>27/04/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4533719&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>San Bartolomé (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,30 +4466,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>D &amp; Q Mineral Compañía Limitada</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1313</v>
+        <v>350</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>27/11/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4197295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>San Bartolomé (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,30 +4514,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>D &amp; Q Mineral Compañía Limitada</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2000</v>
+        <v>1313</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>27/11/2009</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4197295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>377</v>
+        <v>2000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>07/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Alcantarillado, Tratamiento y Disposición Final de Aguas Servidas de Marquesa y Nueva Talcuna (e-seia)</t>
+          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,30 +4706,30 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Comite de Agua Potable Rural Marquesa-Nueva Talcuna</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>31/08/2009</t>
+          <t>07/09/2009</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4001865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Modificación Sistema de Alcantarillado, Tratamiento y Disposición Final de Aguas Servidas de Marquesa y Nueva Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,20 +4754,20 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Comite de Agua Potable Rural Marquesa-Nueva Talcuna</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>20/08/2009</t>
+          <t>31/08/2009</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983845&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4001865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Modificaciòn Sistema Alcantarillado y Tratamiento de Aguas Servidas de Marquesa y Nueva Talcuna (e-seia)</t>
+          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,30 +4802,30 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Comite de Agua Potable Rural Marquesa-Nueva Talcuna</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>17/08/2009</t>
+          <t>20/08/2009</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3951119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983845&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Modificaciòn Sistema Alcantarillado y Tratamiento de Aguas Servidas de Marquesa y Nueva Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,30 +4850,30 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Comite de Agua Potable Rural Marquesa-Nueva Talcuna</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>07/08/2009</t>
+          <t>17/08/2009</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3952839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3951119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>800</v>
+        <v>28</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>07/08/2009</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3952839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Sistema de Disposicion de RILes (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,30 +4946,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Alamo Ltda.</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>40</v>
+        <v>800</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>31/03/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3661633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SISTEMA DE DISPOSICION DE RILES (e-seia)</t>
+          <t>Sistema de Disposicion de RILes (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5007,17 +5007,17 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>10/03/2009</t>
+          <t>31/03/2009</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3661633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL SISTEMA DE TRATAMIENTO Y DISPOSICIÓN DE VINAZA, AGUAS DE LAVADO Y MANEJO DE ORUJO Y ESCOBAJO EN PLANTA AGROINDUSTRIAL VICUÑA (e-seia)</t>
+          <t>SISTEMA DE DISPOSICION DE RILES (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,25 +5047,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Sociedad Agrícola El Alamo Ltda.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>05/02/2009</t>
+          <t>10/03/2009</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3542766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5103,17 +5103,17 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>05/02/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3530200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3542766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>MEJORAMIENTO DEL SISTEMA DE TRATAMIENTO Y DISPOSICIÓN DE VINAZA, AGUAS DE LAVADO Y MANEJO DE ORUJO Y ESCOBAJO EN PLANTA AGROINDUSTRIAL VICUÑA (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3530200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,36 +5176,40 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TRANQUE DE RELAVES HUMO CORRAL</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr"/>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>07/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3475081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5239,17 +5243,17 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>30/12/2008</t>
+          <t>07/01/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3463284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3475081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5264,14 +5268,10 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Cultivo de la microalga Haematococcus pluvialis (e-seia)</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TRANQUE DE RELAVES HUMO CORRAL</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
           <t>Cuarta</t>
@@ -5279,25 +5279,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Alimtec S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>11/12/2008</t>
+          <t>30/12/2008</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3413969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3463284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5327,25 +5327,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Julio Ignacio Ilabaca Grez</t>
+          <t>Alimtec S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>11/12/2008</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3371390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3413969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5360,7 +5360,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>Cultivo de la microalga Haematococcus pluvialis (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5370,20 +5370,20 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Julio Ignacio Ilabaca Grez</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>25</v>
+        <v>5000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5393,7 +5393,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3371390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5408,7 +5408,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5423,25 +5423,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5471,25 +5471,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5504,7 +5504,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5519,25 +5519,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5552,7 +5552,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5567,11 +5567,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5580,12 +5580,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5633,7 +5633,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5648,7 +5648,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5663,25 +5663,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5719,7 +5719,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5729,7 +5729,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5744,7 +5744,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5759,15 +5759,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5777,7 +5777,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5792,7 +5792,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5807,25 +5807,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5855,25 +5855,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>20</v>
+        <v>3408</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5903,25 +5903,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5936,7 +5936,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Construccion y Operacion de Gran Telescopio de Rastreo Sinoptico (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5946,20 +5946,20 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Aura Inc</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>390000</v>
+        <v>80</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>25/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5969,7 +5969,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3073048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -6007,17 +6007,17 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>17/07/2008</t>
+          <t>25/07/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3040083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3073048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Construccion y Operacion de Gran Telescopio de Rastreo Sinoptico (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6042,20 +6042,20 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Aura Inc</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>250</v>
+        <v>390000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>17/07/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6065,7 +6065,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3040083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6080,7 +6080,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6095,15 +6095,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6113,7 +6113,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6143,11 +6143,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6156,12 +6156,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6176,7 +6176,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6191,25 +6191,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6224,7 +6224,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6239,25 +6239,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>30/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6287,15 +6287,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>30/06/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6305,7 +6305,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6320,7 +6320,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6335,25 +6335,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6383,25 +6383,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6416,7 +6416,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Sistema de Manejo de Riles de Planta Pisquera Río Elqui (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6426,30 +6426,30 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Pisquera Río Elqui Ltda</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>18/03/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2781615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TRANQUE DE RELAVES ANY (e-seia)</t>
+          <t>Sistema de Manejo de Riles de Planta Pisquera Río Elqui (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6479,15 +6479,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Pisquera Río Elqui Ltda</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>520</v>
+        <v>50</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>06/02/2008</t>
+          <t>18/03/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6497,7 +6497,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2693359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2781615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6512,7 +6512,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Sistema de manejo de riles de Planta Pisquera Río Elqui (e-seia)</t>
+          <t>TRANQUE DE RELAVES ANY (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6527,25 +6527,25 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Pisquera Río Elqui Ltda</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>50</v>
+        <v>520</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>30/01/2008</t>
+          <t>06/02/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2659042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2693359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6560,7 +6560,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Sistema de manejo de riles de planta Pisquera Río Elqui (e-seia)</t>
+          <t>Sistema de manejo de riles de Planta Pisquera Río Elqui (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>27/12/2007</t>
+          <t>30/01/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6593,7 +6593,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2595334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2659042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6608,7 +6608,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Proyecto Ampliación Planta Talcuna (e-seia)</t>
+          <t>Sistema de manejo de riles de planta Pisquera Río Elqui (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6623,25 +6623,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Pisquera Río Elqui Ltda</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>6000</v>
+        <v>50</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>10/12/2007</t>
+          <t>27/12/2007</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2570874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2595334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Proyecto Ampliación Planta Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6666,20 +6666,20 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>429</v>
+        <v>6000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>10/12/2007</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6689,7 +6689,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2570874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6704,7 +6704,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6719,25 +6719,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6752,7 +6752,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6767,25 +6767,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6815,25 +6815,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6863,25 +6863,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6911,25 +6911,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Sistema de disposicion de riles Viña Falernia S.A. (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6954,20 +6954,20 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>01/08/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6977,7 +6977,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2241447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Bodega De Insumos fundo Huancara, Empresa Guillermo Prohens SommellaS.A. (e-seia)</t>
+          <t>Sistema de disposicion de riles Viña Falernia S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7007,15 +7007,15 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Guillermo Prohens Sommella S.A.</t>
+          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>01/08/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2252698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2241447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Bodega de Insumos Fundo Sta. Bernardita, Empresa Guillermo Prohens Sommella S.A. (e-seia)</t>
+          <t>Bodega De Insumos fundo Huancara, Empresa Guillermo Prohens SommellaS.A. (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7073,7 +7073,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2257624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2252698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Bodega de Insumos Fundo Sta. Bernardita, Empresa Guillermo Prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7098,16 +7098,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Guillermo Prohens Sommella S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7116,12 +7116,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2257624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7151,15 +7151,15 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7169,7 +7169,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7199,25 +7199,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>DISPOSICION DE RILES VIÑA FALERNIA (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7242,30 +7242,30 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>31/05/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2176747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Sistema de disposicion de Riles Viña Falernia S.A. (e-seia)</t>
+          <t>DISPOSICION DE RILES VIÑA FALERNIA (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,7 +7303,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>02/04/2007</t>
+          <t>31/05/2007</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7313,7 +7313,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2078043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2176747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Sistema de disposicion de Riles Viña Falernia S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7338,20 +7338,20 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>02/04/2007</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2078043&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7391,15 +7391,15 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Bodega de Insumos, Fundo Huancara, Guillermo prohens Sommella S.A. (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7434,20 +7434,20 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Guillermo Prohens Sommella S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>22/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1934992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Bodega de Insumos Fundo Santa Bernardita, Guillermo Prohens Sommella S.A. (e-seia)</t>
+          <t>Bodega de Insumos, Fundo Huancara, Guillermo prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1935186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1934992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Bodega de Insumos Fundo Santa Bernardita, Guillermo Prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7530,30 +7530,30 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Guillermo Prohens Sommella S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>22/01/2007</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1935186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,17 +7591,17 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Bodega Insumos Fundo Huancara, Guillermo Prohens Sommella S.A. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7626,20 +7626,20 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Guillermo Prohens Sommella S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>21</v>
+        <v>200</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>27/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1884903&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Bodega Insumos Fundo Santa Bernardita, Guillermo Prohens Sommella S.A. (e-seia)</t>
+          <t>Bodega Insumos Fundo Huancara, Guillermo Prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1885130&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1884903&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Bodega Insumos Fundo Santa Bernardita, Guillermo Prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7722,30 +7722,30 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Guillermo Prohens Sommella S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>27/12/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1885130&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7775,15 +7775,15 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7793,7 +7793,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,17 +7831,17 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7871,25 +7871,25 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7919,25 +7919,25 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Central Hidroelectrica Balalita (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7962,30 +7962,30 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Hidrobalalita S.A</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>17752</v>
+        <v>0</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>30/10/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1771727&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Central Hidroelectrica Balalita (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8010,30 +8010,30 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Hidrobalalita S.A</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>250</v>
+        <v>17752</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>30/10/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1771727&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8063,25 +8063,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>IMPLEMENTACIÓN PLANTA DE SECADO DE JIBIA LEE, EN SECTOR VARILLAR, COMUNA DE VICUÑA (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8106,30 +8106,30 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Sang Baek Lee</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>850</v>
+        <v>20</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>21/06/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1510008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8144,7 +8144,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>IMPLEMENTACIÓN PLANTA DE SECADO DE JIBIA LEE, EN SECTOR VARILLAR, COMUNA DE VICUÑA (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8154,30 +8154,30 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Sang Baek Lee</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>72</v>
+        <v>850</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>21/06/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1510008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8192,7 +8192,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELECTRICA PUCLARO (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8202,20 +8202,20 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>HIDROELECTRICA PUCLARO S.A.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>4800</v>
+        <v>72</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8225,7 +8225,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1180412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>CENTRAL HIDROELECTRICA PUCLARO (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8250,30 +8250,30 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>HIDROELECTRICA PUCLARO S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>72</v>
+        <v>4800</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1180412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8288,7 +8288,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8303,25 +8303,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8336,7 +8336,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8351,15 +8351,15 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8369,7 +8369,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8384,7 +8384,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Implementacion de una planta de Riles (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8394,30 +8394,30 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>12/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1013416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8432,7 +8432,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Implementacion de una planta de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8442,30 +8442,30 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>12/09/2005</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1013416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8495,11 +8495,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8528,7 +8528,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8543,11 +8543,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Manejo de RILES de la Bodega de Vinos , Viña Falernia (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8586,30 +8586,30 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>29/08/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=951200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ACTUALIZACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE COQUIMBO (e-seia)</t>
+          <t>Manejo de RILES de la Bodega de Vinos , Viña Falernia (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8639,25 +8639,25 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Coquimbo</t>
+          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>05/08/2005</t>
+          <t>29/08/2005</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=951200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8672,7 +8672,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>ACTUALIZACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE COQUIMBO (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8682,20 +8682,20 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Coquimbo</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>05/08/2005</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8705,7 +8705,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8720,7 +8720,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8735,15 +8735,15 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8753,7 +8753,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8768,7 +8768,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Tranque de Relaves Socorro Nº 6, Planta Talcuna (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8778,20 +8778,20 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>11/05/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8801,7 +8801,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=348710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Tranque de Relaves Socorro N° 6, Planta Talcuna (e-seia)</t>
+          <t>Modificación Proyecto de Tranque de Relaves Socorro Nº 6, Planta Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8835,21 +8835,21 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>04/05/2004</t>
+          <t>11/05/2004</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=341485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=348710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8864,7 +8864,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Tranque de Relaves YENNY 1-2 (e-seia)</t>
+          <t>Modificación Proyecto de Tranque de Relaves Socorro N° 6, Planta Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8879,25 +8879,25 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Palo Negro</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>239</v>
+        <v>1</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>04/05/2004</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=218797&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=341485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8912,7 +8912,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Tranque de Relaves Yenny 1 - 2 (e-seia)</t>
+          <t>Tranque de Relaves YENNY 1-2 (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8931,21 +8931,21 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>27/11/2003</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=211049&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=218797&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8960,7 +8960,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Tranque de Relaves Las Mollacas (e-seia)</t>
+          <t>Tranque de Relaves Yenny 1 - 2 (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8979,21 +8979,21 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>09/10/2003</t>
+          <t>27/11/2003</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=172416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=211049&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9008,7 +9008,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Tranque de Relaves Las Mollacas (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9018,30 +9018,30 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Sociedad Contractual Minera Palo Negro</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>09/10/2003</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=172416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9056,7 +9056,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Reformulación Plan Regulador Comunal de Vicuña</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9066,20 +9066,20 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Vicuña</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>16/10/2002</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9089,7 +9089,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5922&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9104,7 +9104,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Bodega Viña Falernia (e-seia)</t>
+          <t>Reformulación Plan Regulador Comunal de Vicuña</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9119,25 +9119,25 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Alamo Ltda.</t>
+          <t>Ilustre Municipalidad de Vicuña</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>14/10/2002</t>
+          <t>16/10/2002</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5922&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9152,7 +9152,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Tranque (Depósito) de Relaves Mantos de Talcuna Nº4 Planta Don Arturo</t>
+          <t>Bodega Viña Falernia (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9167,25 +9167,25 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Compañía Minera Cobrex</t>
+          <t>Sociedad Agrícola El Alamo Ltda.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>2050</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>26/02/2002</t>
+          <t>14/10/2002</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9200,7 +9200,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Proyecto Tranque (Depósito) de Relaves Sector Los Infieles-Planta Talcuna</t>
+          <t>Tranque (Depósito) de Relaves Mantos de Talcuna Nº4 Planta Don Arturo</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9215,7 +9215,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Compañía Minera Cobrex</t>
         </is>
       </c>
       <c r="F185" t="n">
@@ -9223,7 +9223,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>03/12/2001</t>
+          <t>26/02/2002</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9233,7 +9233,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9248,7 +9248,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Proyecto Tranque (Depósito) de Relaves Sector Los Infieles-Planta Talcuna</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9258,30 +9258,30 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>03/12/2001</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9296,7 +9296,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Proyecto Tranque de Relaves Sector La Tococa - Planta Talcuna</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9306,30 +9306,30 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>08/06/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9344,30 +9344,30 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Proyecto Tranque de Relaves Sector La Tococa - Planta Talcuna</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>1230</v>
+        <v>0</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>08/06/2001</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9377,7 +9377,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9392,40 +9392,40 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Proyecto de Tranque de Relave Sector El Plomo-Planta Talcuna</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>19/02/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9440,7 +9440,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Proyecto Cabañas y Centro Recreacional Don Demetrio</t>
+          <t>Proyecto de Tranque de Relave Sector El Plomo-Planta Talcuna</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9455,25 +9455,25 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Gustavo Psijas Pizarro</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>01/02/2001</t>
+          <t>19/02/2001</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9488,7 +9488,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Proyecto Tranque de Relaves Sector La Higuera-Planta Talcuna</t>
+          <t>Proyecto Cabañas y Centro Recreacional Don Demetrio</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9503,15 +9503,15 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Gustavo Psijas Pizarro</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>15/01/2001</t>
+          <t>01/02/2001</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9536,7 +9536,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Subestación de Poder Eléctrica Sector La Compañía Vicuña IV Región</t>
+          <t>Proyecto Tranque de Relaves Sector La Higuera-Planta Talcuna</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9551,15 +9551,15 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>16/06/2000</t>
+          <t>15/01/2001</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9569,7 +9569,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9584,7 +9584,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Subestación de Poder Eléctrica Sector La Compañía Vicuña IV Región</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9594,20 +9594,20 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>110</v>
+        <v>700</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>16/06/2000</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9617,7 +9617,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9632,7 +9632,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento y Disposición Final de Residuos Industriales Líquidos CAPEL Planta Vicuña</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9642,20 +9642,20 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>270</v>
+        <v>110</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>07/02/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9665,7 +9665,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2662&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9680,7 +9680,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Proyecto de Tranque de Relaves Socorro Nº6 Planta Talcuna</t>
+          <t>Sistema de Tratamiento y Disposición Final de Residuos Industriales Líquidos CAPEL Planta Vicuña</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9695,15 +9695,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>17/12/1999</t>
+          <t>07/02/2000</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9713,7 +9713,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2662&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9728,7 +9728,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Sistema de Acumulación o Almacenaje de Residuos Sólidos Industriales Planta Minera San Gerónimo</t>
+          <t>Proyecto de Tranque de Relaves Socorro Nº6 Planta Talcuna</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,21 +9747,21 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>06/12/1999</t>
+          <t>17/12/1999</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9776,7 +9776,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento y Disposición Final de Aguas Servidas de la Localidad de Peralillo</t>
+          <t>Sistema de Acumulación o Almacenaje de Residuos Sólidos Industriales Planta Minera San Gerónimo</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9791,25 +9791,25 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Aguas del Valle S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>470</v>
+        <v>30</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>02/11/1999</t>
+          <t>06/12/1999</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2407&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9824,7 +9824,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Aguas Servidas de la Localidad de Gualliguaica</t>
+          <t>Planta de Tratamiento y Disposición Final de Aguas Servidas de la Localidad de Peralillo</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,11 +9843,11 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>190</v>
+        <v>470</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>13/09/1999</t>
+          <t>02/11/1999</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2407&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9872,7 +9872,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Aguas Servidas de la Localidad de Punta Azul</t>
+          <t>Sistema de Tratamiento de Aguas Servidas de la Localidad de Gualliguaica</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,7 +9891,7 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9920,7 +9920,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Complejo Agroturístico Valle de Elqui</t>
+          <t>Sistema de Tratamiento de Aguas Servidas de la Localidad de Punta Azul</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9935,15 +9935,15 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Tamblay Silva</t>
+          <t>Aguas del Valle S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>350</v>
+        <v>130</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>09/09/1999</t>
+          <t>13/09/1999</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9953,7 +9953,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9968,7 +9968,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Servicio de Agua Potable Rural Nueva Gualliguaica Comuna de Vicuña</t>
+          <t>Complejo Agroturístico Valle de Elqui</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9983,25 +9983,25 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Tamblay Silva</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>11/02/1999</t>
+          <t>09/09/1999</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10016,7 +10016,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Tranques de Relaves Transitorio Planta Don Arturo de Talcuna</t>
+          <t>Servicio de Agua Potable Rural Nueva Gualliguaica Comuna de Vicuña</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10031,15 +10031,15 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Compañía Minera Cobrex</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>15000</v>
+        <v>290</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>12/03/1998</t>
+          <t>11/02/1999</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10049,7 +10049,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=716&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10064,7 +10064,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Construcción Observatorio Astronómico Solar Telescopio</t>
+          <t>Tranques de Relaves Transitorio Planta Don Arturo de Talcuna</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10079,15 +10079,15 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Asociación de Universidades para Investigación en Astronomía (AURA, Inc)</t>
+          <t>Compañía Minera Cobrex</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>30/10/1997</t>
+          <t>12/03/1998</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10097,7 +10097,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=716&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10112,7 +10112,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Construcción Observatorio Astronómico Comunal II Etapa</t>
+          <t>Construcción Observatorio Astronómico Solar Telescopio</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10127,15 +10127,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Vicuña</t>
+          <t>Asociación de Universidades para Investigación en Astronomía (AURA, Inc)</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>260</v>
+        <v>28000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>24/07/1997</t>
+          <t>30/10/1997</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10145,7 +10145,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10160,7 +10160,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Reposición Escuela Nueva Talcuna</t>
+          <t>Construcción Observatorio Astronómico Comunal II Etapa</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10179,7 +10179,7 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Reposición Escuela Viñita Alta</t>
+          <t>Reposición Escuela Nueva Talcuna</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10227,7 +10227,7 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10241,7 +10241,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10256,12 +10256,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Estudio Integral Tranques Relaves Pastos Largos</t>
+          <t>Reposición Escuela Viñita Alta</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -10271,25 +10271,25 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>CIA. MINERA BARRICK CHILE LTDA.</t>
+          <t>Ilustre Municipalidad de Vicuña</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>2810</v>
+        <v>350</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>14/08/1996</t>
+          <t>24/07/1997</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=80&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10304,7 +10304,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Caminos de Acceso y Líneas de Alta Tensión a los Proyectos Nevada y El Indio</t>
+          <t>Estudio Integral Tranques Relaves Pastos Largos</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10314,20 +10314,20 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Compañia Minera Nevada SpA</t>
+          <t>CIA. MINERA BARRICK CHILE LTDA.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>46000</v>
+        <v>2810</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>19/03/1996</t>
+          <t>14/08/1996</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10337,7 +10337,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=80&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10352,7 +10352,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Planta JIGG Quebrada de Marquesa</t>
+          <t>Caminos de Acceso y Líneas de Alta Tensión a los Proyectos Nevada y El Indio</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10362,20 +10362,20 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Manganesos Atacama S.A. Ltda.</t>
+          <t>Compañia Minera Nevada SpA</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>200</v>
+        <v>46000</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>17/10/1995</t>
+          <t>19/03/1996</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10385,7 +10385,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10400,43 +10400,91 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
+          <t>Planta JIGG Quebrada de Marquesa</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Cuarta</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Manganesos Atacama S.A. Ltda.</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>200</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>17/10/1995</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>Vicuña</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
           <t>Proyecto Minero Tambo</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="C211" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr">
+      <c r="D211" t="inlineStr">
         <is>
           <t>Cuarta</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr">
+      <c r="E211" t="inlineStr">
         <is>
           <t>CIA. MINERA BARRICK CHILE LTDA.</t>
         </is>
       </c>
-      <c r="F210" t="n">
+      <c r="F211" t="n">
         <v>115000</v>
       </c>
-      <c r="G210" t="inlineStr">
+      <c r="G211" t="inlineStr">
         <is>
           <t>20/07/1994</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
+      <c r="H211" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I210" t="inlineStr">
+      <c r="I211" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=148&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J210" t="inlineStr">
+      <c r="J211" t="inlineStr">
         <is>
           <t>Vicuña</t>
         </is>

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificaciones Minera Linderos</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,16 +2402,16 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2420,12 +2420,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Modificaciones Minera Linderos</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,16 +2450,16 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2468,12 +2468,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Modificaciones Minera Linderos</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,16 +2402,16 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2420,12 +2420,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificaciones Minera Linderos</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,16 +2450,16 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2468,12 +2468,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11/10/2022</t>
+          <t>18/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J211"/>
+  <dimension ref="A1:J212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mina Yeso Corral</t>
+          <t>Parque Fotovoltaico Alto Solar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Yesos Andinos SPA</t>
+          <t>Alto Solar SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>161261</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2022</t>
+          <t>28/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157197696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158033795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Crecimiento Tranque de Relaves Panules</t>
+          <t>Mina Yeso Corral</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SOCIEDAD SERVICIOS A LA MINERIA OMINT SPA</t>
+          <t>Yesos Andinos SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>06/01/2022</t>
+          <t>18/10/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154614776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157197696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>28/12/2021</t>
+          <t>06/01/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154497249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154614776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Repotenciamiento PMGD Luna II</t>
+          <t>Crecimiento Tranque de Relaves Panules</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Parque Solar Luna del Norte SpA</t>
+          <t>SOCIEDAD SERVICIOS A LA MINERIA OMINT SPA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1900</v>
+        <v>250</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>23/07/2020</t>
+          <t>28/12/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147476824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154497249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Repotenciamiento PMGD SOL II</t>
+          <t>Repotenciamiento PMGD Luna II</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,11 +631,11 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Parque Solar Sol del Norte SpA</t>
+          <t>Parque Solar Luna del Norte SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3750</v>
+        <v>1900</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147482505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147476824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,12 +664,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Proyecto Minero Arqueros</t>
+          <t>Repotenciamiento PMGD SOL II</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>COMPAÑÍA MINERA ARQUEROS S.A.</t>
+          <t>Parque Solar Sol del Norte SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>200000</v>
+        <v>3750</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>25/05/2020</t>
+          <t>23/07/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146624103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147482505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,12 +712,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Fundo San Isidro</t>
+          <t>Proyecto Minero Arqueros</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FSI Solar SpA</t>
+          <t>COMPAÑÍA MINERA ARQUEROS S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>15000</v>
+        <v>200000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>23/04/2020</t>
+          <t>25/05/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146361278&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146624103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>LENERGIA CHILE SpA</t>
+          <t>FSI Solar SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/03/2020</t>
+          <t>23/04/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146016174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146361278&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Planta Fotovoltaica Fundo San Isidro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>LENERGIA CHILE SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>23/03/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146016174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica Santa Francisca</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,20 +866,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CVE Proyecto Diecisiete SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>7600</v>
+        <v>25000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22/11/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144992691&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nuevo sistema de tratamiento de aguas servidas de Vicuña, región de Coquimbo</t>
+          <t>Nueva Central Solar Fotovoltaica Santa Francisca</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Aguas del Valle S.A.</t>
+          <t>CVE Proyecto Diecisiete SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5200</v>
+        <v>7600</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>28/10/2019</t>
+          <t>22/11/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144513629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144992691&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Central GLP Talcuna</t>
+          <t>Nuevo sistema de tratamiento de aguas servidas de Vicuña, región de Coquimbo</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MARQUESA GLP SpA</t>
+          <t>Aguas del Valle S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3500</v>
+        <v>5200</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>23/07/2019</t>
+          <t>28/10/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143765092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144513629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Proyecto ?Faena Minera ?Mina San Antonio?, explotación a 40.000 ton/mes?</t>
+          <t>Central GLP Talcuna</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>MARQUESA GLP SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4200</v>
+        <v>3500</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>21/11/2018</t>
+          <t>23/07/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141692561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143765092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
+          <t>Proyecto ?Faena Minera ?Mina San Antonio?, explotación a 40.000 ton/mes?</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,20 +1058,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>27/06/2018</t>
+          <t>21/11/2018</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141692561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Gabriela</t>
+          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,30 +1106,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Bronte SpA</t>
+          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>22/03/2018</t>
+          <t>27/06/2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138751214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Parque solar Llanos de Potroso</t>
+          <t>Parque Fotovoltaico Gabriela</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Llanos de Potroso SpA</t>
+          <t>Bronte SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>23/11/2016</t>
+          <t>22/03/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131950285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138751214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20/10/2016</t>
+          <t>23/11/2016</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131822429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131950285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parque Solar Llanos de Potroso</t>
+          <t>Parque solar Llanos de Potroso</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>16/09/2016</t>
+          <t>20/10/2016</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131726680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131822429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PARQUE SOLAR CASA DE PIEDRA</t>
+          <t>Parque Solar Llanos de Potroso</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>62000</v>
+        <v>12000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>22/04/2016</t>
+          <t>16/09/2016</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131323063&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131726680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Parque Solar Casa de Piedra</t>
+          <t>PARQUE SOLAR CASA DE PIEDRA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>24/03/2016</t>
+          <t>22/04/2016</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131266497&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131323063&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Parque Solar Casa de Piedra - Llanos de Potroso</t>
+          <t>Parque Solar Casa de Piedra</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1403,11 +1403,11 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>95130</v>
+        <v>62000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>19/02/2016</t>
+          <t>24/03/2016</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131156984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131266497&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas para Transporte Terrestre de Residuos y Sustancias Peligrosas a Granel desde la I a la X Región</t>
+          <t>Parque Solar Casa de Piedra - Llanos de Potroso</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,20 +1442,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Llanos de Potroso SpA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>95130</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>11/12/2015</t>
+          <t>19/02/2016</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130832601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131156984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>La Represa</t>
+          <t>Ampliación de Rutas para Transporte Terrestre de Residuos y Sustancias Peligrosas a Granel desde la I a la X Región</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Minera La Reserva Limitada</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>13/10/2015</t>
+          <t>11/12/2015</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130820333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130832601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>13/10/2015</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130803747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130820333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Proyecto La Represa</t>
+          <t>La Represa</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>26/08/2015</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130712151&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130803747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Prospección Minera Arqueros - Fase 2</t>
+          <t>Proyecto La Represa</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Compañía Minera Arqueros S.A.</t>
+          <t>Minera La Reserva Limitada</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>22800</v>
+        <v>2500</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>09/07/2015</t>
+          <t>26/08/2015</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130595293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130712151&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Prospección Minera Alturas</t>
+          <t>Prospección Minera Arqueros - Fase 2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Compañía Minera Salitrales Limitada</t>
+          <t>Compañía Minera Arqueros S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>70000</v>
+        <v>22800</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>04/05/2015</t>
+          <t>09/07/2015</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130424679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130595293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>24/04/2015</t>
+          <t>04/05/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130402498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130424679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Prospección Minera Alturas</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,20 +1778,20 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía Minera Salitrales Limitada</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5000</v>
+        <v>70000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>24/04/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130402498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Prospección Minera Alturas</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Compañía Minera Salitrales Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>70000</v>
+        <v>5000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>22/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130150788&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>30/12/2014</t>
+          <t>22/01/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130084416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130150788&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Prospección Minera Alturas</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,20 +1922,20 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía Minera Salitrales Limitada</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>5000</v>
+        <v>70000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>30/12/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130084416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2271,17 +2271,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MINA SUBTERRÁNEA 21 DE MAYO DE CMSG EN TALCUNA, PRODUCCIÓN A 50 KTM</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>19/03/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129233665&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Modificaciones Minera Linderos</t>
+          <t>MINA SUBTERRÁNEA 21 DE MAYO DE CMSG EN TALCUNA, PRODUCCIÓN A 50 KTM</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3000</v>
+        <v>25000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>19/03/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129233665&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificaciones Minera Linderos</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,16 +2450,16 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2468,12 +2468,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Regularizacion Ambiental del Proceso de Explotacion y Procesamiento de minerales, Yacimiento Talcuna</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,20 +2498,20 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>SERVICIOS A LA MINERÍA OMINT SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>18/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128943882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2551,7 +2551,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Compañia Minera Talcuna Limitada</t>
+          <t>SERVICIOS A LA MINERÍA OMINT SPA</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -2559,17 +2559,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>12/12/2013</t>
+          <t>18/12/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916085&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128943882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Regularizacion Ambiental del proceso de Explotacion y Procesamiento de minerales, Yacimiento Talcuna</t>
+          <t>Regularizacion Ambiental del Proceso de Explotacion y Procesamiento de minerales, Yacimiento Talcuna</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2607,17 +2607,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>06/12/2013</t>
+          <t>12/12/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128894465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916085&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Regularizacion Ambiental del proceso de Explotacion y Procesamiento de minerales, Yacimiento Talcuna</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañia Minera Talcuna Limitada</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>06/12/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128894465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Aumento de Producción en Planta Condoriaco</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,20 +3026,20 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>16/11/2012</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7540103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3087,17 +3087,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>09/11/2012</t>
+          <t>16/11/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7510930&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7540103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Aumento de Producción en Planta Condoriaco</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,30 +3122,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>15000</v>
+        <v>500</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>09/11/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7510930&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ampliación Planta Talcuna Fase II, 120 KTM</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>11/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Proyecto Ampliación Planta Talcuna Fase II, 120KMT</t>
+          <t>Ampliación Planta Talcuna Fase II, 120 KTM</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3279,17 +3279,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>04/04/2012</t>
+          <t>11/04/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6768247&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Proyecto Ampliación Planta Talcuna Fase II, 120KMT</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>04/04/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6768247&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Regularización Embalse El Calvario</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Agrícola El Calvario S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>07/03/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6668178&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Regularización Embalse El Calvario</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Agrícola El Calvario S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>07/03/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6668178&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3615,7 +3615,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3707,21 +3707,21 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>75000</v>
+        <v>150</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>02/12/2010</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3755,21 +3755,21 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>150</v>
+        <v>75000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>27/10/2010</t>
+          <t>02/12/2010</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Tranque de Relaves Panules</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,30 +3794,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>SERVICIOS A LA MINERÍA OMINT SPA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3500</v>
+        <v>150</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>19/10/2010</t>
+          <t>27/10/2010</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5011146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3847,7 +3847,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Compañia Minera Talcuna Limitada</t>
+          <t>SERVICIOS A LA MINERÍA OMINT SPA</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -3855,17 +3855,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>04/10/2010</t>
+          <t>19/10/2010</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4975616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5011146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>Tranque de Relaves Panules</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Compañia Minera Talcuna Limitada</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>563</v>
+        <v>3500</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>04/10/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4975616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1750</v>
+        <v>563</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>85</v>
+        <v>1750</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>20/05/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>20/05/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PROYECTO CONDORIACO (Planta de Cianuración para Minerales de Oro y Plata)</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>10/05/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4575438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>PROYECTO CONDORIACO (Planta de Cianuración para Minerales de Oro y Plata)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,20 +4130,20 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>4050</v>
+        <v>1000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>10/05/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4575438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PROYECTO CONDORIACO (Planta de Cianuración para Minerales de Oro y Plata)</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1000</v>
+        <v>4050</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>27/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4533719&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>PROYECTO CONDORIACO (Planta de Cianuración para Minerales de Oro y Plata)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>27/04/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4533719&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>San Bartolomé (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,30 +4514,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>D &amp; Q Mineral Compañía Limitada</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1313</v>
+        <v>350</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>27/11/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4197295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>San Bartolomé (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,30 +4562,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>D &amp; Q Mineral Compañía Limitada</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2000</v>
+        <v>1313</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>27/11/2009</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4197295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>377</v>
+        <v>2000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,25 +4711,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>07/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Alcantarillado, Tratamiento y Disposición Final de Aguas Servidas de Marquesa y Nueva Talcuna (e-seia)</t>
+          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,30 +4754,30 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Comite de Agua Potable Rural Marquesa-Nueva Talcuna</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>31/08/2009</t>
+          <t>07/09/2009</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4001865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Modificación Sistema de Alcantarillado, Tratamiento y Disposición Final de Aguas Servidas de Marquesa y Nueva Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,20 +4802,20 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Comite de Agua Potable Rural Marquesa-Nueva Talcuna</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>20/08/2009</t>
+          <t>31/08/2009</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983845&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4001865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Modificaciòn Sistema Alcantarillado y Tratamiento de Aguas Servidas de Marquesa y Nueva Talcuna (e-seia)</t>
+          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,30 +4850,30 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Comite de Agua Potable Rural Marquesa-Nueva Talcuna</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>17/08/2009</t>
+          <t>20/08/2009</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3951119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983845&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Modificaciòn Sistema Alcantarillado y Tratamiento de Aguas Servidas de Marquesa y Nueva Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,30 +4898,30 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Comite de Agua Potable Rural Marquesa-Nueva Talcuna</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>07/08/2009</t>
+          <t>17/08/2009</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3952839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3951119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>800</v>
+        <v>28</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>07/08/2009</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3952839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Sistema de Disposicion de RILes (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,30 +4994,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Alamo Ltda.</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>40</v>
+        <v>800</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>31/03/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3661633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SISTEMA DE DISPOSICION DE RILES (e-seia)</t>
+          <t>Sistema de Disposicion de RILes (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5055,17 +5055,17 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>10/03/2009</t>
+          <t>31/03/2009</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3661633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL SISTEMA DE TRATAMIENTO Y DISPOSICIÓN DE VINAZA, AGUAS DE LAVADO Y MANEJO DE ORUJO Y ESCOBAJO EN PLANTA AGROINDUSTRIAL VICUÑA (e-seia)</t>
+          <t>SISTEMA DE DISPOSICION DE RILES (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Sociedad Agrícola El Alamo Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>05/02/2009</t>
+          <t>10/03/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3542766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5151,17 +5151,17 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>05/02/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3530200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3542766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>MEJORAMIENTO DEL SISTEMA DE TRATAMIENTO Y DISPOSICIÓN DE VINAZA, AGUAS DE LAVADO Y MANEJO DE ORUJO Y ESCOBAJO EN PLANTA AGROINDUSTRIAL VICUÑA (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3530200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,36 +5224,40 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>TRANQUE DE RELAVES HUMO CORRAL</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr"/>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>07/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3475081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5287,17 +5291,17 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>30/12/2008</t>
+          <t>07/01/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3463284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3475081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5312,14 +5316,10 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Cultivo de la microalga Haematococcus pluvialis (e-seia)</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TRANQUE DE RELAVES HUMO CORRAL</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
           <t>Cuarta</t>
@@ -5327,25 +5327,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Alimtec S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>11/12/2008</t>
+          <t>30/12/2008</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3413969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3463284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5375,25 +5375,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Julio Ignacio Ilabaca Grez</t>
+          <t>Alimtec S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>11/12/2008</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3371390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3413969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5408,7 +5408,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>Cultivo de la microalga Haematococcus pluvialis (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5418,20 +5418,20 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Julio Ignacio Ilabaca Grez</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>25</v>
+        <v>5000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5441,7 +5441,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3371390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5471,25 +5471,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5504,7 +5504,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5519,25 +5519,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5552,7 +5552,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5567,25 +5567,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5600,7 +5600,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5615,11 +5615,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5628,12 +5628,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5671,7 +5671,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5681,7 +5681,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5696,7 +5696,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5711,25 +5711,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5777,7 +5777,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5792,7 +5792,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5807,15 +5807,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5825,7 +5825,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5855,25 +5855,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5903,25 +5903,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>20</v>
+        <v>3408</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5951,25 +5951,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Construccion y Operacion de Gran Telescopio de Rastreo Sinoptico (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5994,20 +5994,20 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Aura Inc</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>390000</v>
+        <v>80</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>25/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6017,7 +6017,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3073048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6055,17 +6055,17 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>17/07/2008</t>
+          <t>25/07/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3040083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3073048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6080,7 +6080,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Construccion y Operacion de Gran Telescopio de Rastreo Sinoptico (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6090,20 +6090,20 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Aura Inc</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>250</v>
+        <v>390000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>17/07/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6113,7 +6113,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3040083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6143,15 +6143,15 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6176,7 +6176,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6191,11 +6191,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6204,12 +6204,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6224,7 +6224,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6239,25 +6239,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6287,25 +6287,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>30/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6320,7 +6320,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6335,15 +6335,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>30/06/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6353,7 +6353,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6383,25 +6383,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6416,7 +6416,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6431,25 +6431,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Sistema de Manejo de Riles de Planta Pisquera Río Elqui (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6474,30 +6474,30 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Pisquera Río Elqui Ltda</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>18/03/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2781615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6512,7 +6512,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>TRANQUE DE RELAVES ANY (e-seia)</t>
+          <t>Sistema de Manejo de Riles de Planta Pisquera Río Elqui (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6527,15 +6527,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Pisquera Río Elqui Ltda</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>520</v>
+        <v>50</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>06/02/2008</t>
+          <t>18/03/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2693359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2781615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6560,7 +6560,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Sistema de manejo de riles de Planta Pisquera Río Elqui (e-seia)</t>
+          <t>TRANQUE DE RELAVES ANY (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6575,25 +6575,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Pisquera Río Elqui Ltda</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>50</v>
+        <v>520</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>30/01/2008</t>
+          <t>06/02/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2659042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2693359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6608,7 +6608,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Sistema de manejo de riles de planta Pisquera Río Elqui (e-seia)</t>
+          <t>Sistema de manejo de riles de Planta Pisquera Río Elqui (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>27/12/2007</t>
+          <t>30/01/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6641,7 +6641,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2595334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2659042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Proyecto Ampliación Planta Talcuna (e-seia)</t>
+          <t>Sistema de manejo de riles de planta Pisquera Río Elqui (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6671,25 +6671,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Pisquera Río Elqui Ltda</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>6000</v>
+        <v>50</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>10/12/2007</t>
+          <t>27/12/2007</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2570874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2595334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6704,7 +6704,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Proyecto Ampliación Planta Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6714,20 +6714,20 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>429</v>
+        <v>6000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>10/12/2007</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2570874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6752,7 +6752,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6767,25 +6767,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6815,25 +6815,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6863,25 +6863,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6911,25 +6911,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6959,25 +6959,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Sistema de disposicion de riles Viña Falernia S.A. (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7002,20 +7002,20 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>01/08/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2241447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Bodega De Insumos fundo Huancara, Empresa Guillermo Prohens SommellaS.A. (e-seia)</t>
+          <t>Sistema de disposicion de riles Viña Falernia S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7055,15 +7055,15 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Guillermo Prohens Sommella S.A.</t>
+          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>01/08/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7073,7 +7073,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2252698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2241447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Bodega de Insumos Fundo Sta. Bernardita, Empresa Guillermo Prohens Sommella S.A. (e-seia)</t>
+          <t>Bodega De Insumos fundo Huancara, Empresa Guillermo Prohens SommellaS.A. (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7121,7 +7121,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2257624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2252698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Bodega de Insumos Fundo Sta. Bernardita, Empresa Guillermo Prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7146,16 +7146,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Guillermo Prohens Sommella S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7164,12 +7164,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2257624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7199,15 +7199,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7217,7 +7217,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7247,25 +7247,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>DISPOSICION DE RILES VIÑA FALERNIA (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7290,30 +7290,30 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>31/05/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2176747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Sistema de disposicion de Riles Viña Falernia S.A. (e-seia)</t>
+          <t>DISPOSICION DE RILES VIÑA FALERNIA (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,7 +7351,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>02/04/2007</t>
+          <t>31/05/2007</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2078043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2176747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Sistema de disposicion de Riles Viña Falernia S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7386,20 +7386,20 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>02/04/2007</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2078043&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7439,15 +7439,15 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Bodega de Insumos, Fundo Huancara, Guillermo prohens Sommella S.A. (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7482,20 +7482,20 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Guillermo Prohens Sommella S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>22/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1934992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Bodega de Insumos Fundo Santa Bernardita, Guillermo Prohens Sommella S.A. (e-seia)</t>
+          <t>Bodega de Insumos, Fundo Huancara, Guillermo prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1935186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1934992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Bodega de Insumos Fundo Santa Bernardita, Guillermo Prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7578,30 +7578,30 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Guillermo Prohens Sommella S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>22/01/2007</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1935186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,17 +7639,17 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Bodega Insumos Fundo Huancara, Guillermo Prohens Sommella S.A. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7674,20 +7674,20 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Guillermo Prohens Sommella S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>21</v>
+        <v>200</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>27/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1884903&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Bodega Insumos Fundo Santa Bernardita, Guillermo Prohens Sommella S.A. (e-seia)</t>
+          <t>Bodega Insumos Fundo Huancara, Guillermo Prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7745,7 +7745,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1885130&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1884903&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Bodega Insumos Fundo Santa Bernardita, Guillermo Prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7770,30 +7770,30 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Guillermo Prohens Sommella S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>27/12/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1885130&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7823,15 +7823,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,17 +7879,17 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7919,25 +7919,25 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7967,25 +7967,25 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Central Hidroelectrica Balalita (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8010,30 +8010,30 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Hidrobalalita S.A</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>17752</v>
+        <v>0</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>30/10/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1771727&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Central Hidroelectrica Balalita (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8058,30 +8058,30 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Hidrobalalita S.A</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>250</v>
+        <v>17752</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>30/10/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1771727&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8111,25 +8111,25 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8144,7 +8144,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>IMPLEMENTACIÓN PLANTA DE SECADO DE JIBIA LEE, EN SECTOR VARILLAR, COMUNA DE VICUÑA (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8154,30 +8154,30 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Sang Baek Lee</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>850</v>
+        <v>20</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>21/06/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1510008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8192,7 +8192,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>IMPLEMENTACIÓN PLANTA DE SECADO DE JIBIA LEE, EN SECTOR VARILLAR, COMUNA DE VICUÑA (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8202,30 +8202,30 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Sang Baek Lee</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>72</v>
+        <v>850</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>21/06/2006</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1510008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELECTRICA PUCLARO (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8250,20 +8250,20 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>HIDROELECTRICA PUCLARO S.A.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>4800</v>
+        <v>72</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8273,7 +8273,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1180412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8288,7 +8288,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>CENTRAL HIDROELECTRICA PUCLARO (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8298,30 +8298,30 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>HIDROELECTRICA PUCLARO S.A.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>72</v>
+        <v>4800</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1180412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8336,7 +8336,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8351,25 +8351,25 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8384,7 +8384,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8399,15 +8399,15 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8417,7 +8417,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8432,7 +8432,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Implementacion de una planta de Riles (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8442,30 +8442,30 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>12/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1013416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8480,7 +8480,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Implementacion de una planta de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8490,30 +8490,30 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>12/09/2005</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1013416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8543,11 +8543,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8591,11 +8591,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Manejo de RILES de la Bodega de Vinos , Viña Falernia (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8634,30 +8634,30 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>29/08/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=951200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8672,7 +8672,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ACTUALIZACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE COQUIMBO (e-seia)</t>
+          <t>Manejo de RILES de la Bodega de Vinos , Viña Falernia (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8687,25 +8687,25 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Coquimbo</t>
+          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>05/08/2005</t>
+          <t>29/08/2005</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=951200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8720,7 +8720,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>ACTUALIZACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE COQUIMBO (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8730,20 +8730,20 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Coquimbo</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>05/08/2005</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8753,7 +8753,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8768,7 +8768,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8783,15 +8783,15 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8801,7 +8801,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Tranque de Relaves Socorro Nº 6, Planta Talcuna (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8826,20 +8826,20 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>11/05/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8849,7 +8849,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=348710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8864,7 +8864,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Tranque de Relaves Socorro N° 6, Planta Talcuna (e-seia)</t>
+          <t>Modificación Proyecto de Tranque de Relaves Socorro Nº 6, Planta Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8883,21 +8883,21 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>04/05/2004</t>
+          <t>11/05/2004</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=341485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=348710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8912,7 +8912,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Tranque de Relaves YENNY 1-2 (e-seia)</t>
+          <t>Modificación Proyecto de Tranque de Relaves Socorro N° 6, Planta Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8927,25 +8927,25 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Palo Negro</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>239</v>
+        <v>1</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>04/05/2004</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=218797&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=341485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8960,7 +8960,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Tranque de Relaves Yenny 1 - 2 (e-seia)</t>
+          <t>Tranque de Relaves YENNY 1-2 (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8979,21 +8979,21 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>27/11/2003</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=211049&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=218797&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9008,7 +9008,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Tranque de Relaves Las Mollacas (e-seia)</t>
+          <t>Tranque de Relaves Yenny 1 - 2 (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9027,21 +9027,21 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>09/10/2003</t>
+          <t>27/11/2003</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=172416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=211049&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9056,7 +9056,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Tranque de Relaves Las Mollacas (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9066,30 +9066,30 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Sociedad Contractual Minera Palo Negro</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>09/10/2003</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=172416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9104,7 +9104,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Reformulación Plan Regulador Comunal de Vicuña</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9114,20 +9114,20 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Vicuña</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>16/10/2002</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9137,7 +9137,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5922&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9152,7 +9152,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Bodega Viña Falernia (e-seia)</t>
+          <t>Reformulación Plan Regulador Comunal de Vicuña</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9167,25 +9167,25 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Alamo Ltda.</t>
+          <t>Ilustre Municipalidad de Vicuña</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>14/10/2002</t>
+          <t>16/10/2002</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5922&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9200,7 +9200,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Tranque (Depósito) de Relaves Mantos de Talcuna Nº4 Planta Don Arturo</t>
+          <t>Bodega Viña Falernia (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9215,25 +9215,25 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Compañía Minera Cobrex</t>
+          <t>Sociedad Agrícola El Alamo Ltda.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>2050</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>26/02/2002</t>
+          <t>14/10/2002</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9248,7 +9248,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Proyecto Tranque (Depósito) de Relaves Sector Los Infieles-Planta Talcuna</t>
+          <t>Tranque (Depósito) de Relaves Mantos de Talcuna Nº4 Planta Don Arturo</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9263,7 +9263,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Compañía Minera Cobrex</t>
         </is>
       </c>
       <c r="F186" t="n">
@@ -9271,7 +9271,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>03/12/2001</t>
+          <t>26/02/2002</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9281,7 +9281,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9296,7 +9296,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Proyecto Tranque (Depósito) de Relaves Sector Los Infieles-Planta Talcuna</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9306,30 +9306,30 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>03/12/2001</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9344,7 +9344,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Proyecto Tranque de Relaves Sector La Tococa - Planta Talcuna</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9354,30 +9354,30 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>08/06/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9392,30 +9392,30 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Proyecto Tranque de Relaves Sector La Tococa - Planta Talcuna</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>1230</v>
+        <v>0</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>08/06/2001</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9425,7 +9425,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9440,40 +9440,40 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Proyecto de Tranque de Relave Sector El Plomo-Planta Talcuna</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>19/02/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9488,7 +9488,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Proyecto Cabañas y Centro Recreacional Don Demetrio</t>
+          <t>Proyecto de Tranque de Relave Sector El Plomo-Planta Talcuna</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9503,25 +9503,25 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Gustavo Psijas Pizarro</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>01/02/2001</t>
+          <t>19/02/2001</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9536,7 +9536,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Proyecto Tranque de Relaves Sector La Higuera-Planta Talcuna</t>
+          <t>Proyecto Cabañas y Centro Recreacional Don Demetrio</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9551,15 +9551,15 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Gustavo Psijas Pizarro</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>15/01/2001</t>
+          <t>01/02/2001</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9569,7 +9569,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9584,7 +9584,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Subestación de Poder Eléctrica Sector La Compañía Vicuña IV Región</t>
+          <t>Proyecto Tranque de Relaves Sector La Higuera-Planta Talcuna</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9599,15 +9599,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>16/06/2000</t>
+          <t>15/01/2001</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9617,7 +9617,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9632,7 +9632,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Subestación de Poder Eléctrica Sector La Compañía Vicuña IV Región</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9642,20 +9642,20 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>110</v>
+        <v>700</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>16/06/2000</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9665,7 +9665,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9680,7 +9680,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento y Disposición Final de Residuos Industriales Líquidos CAPEL Planta Vicuña</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9690,20 +9690,20 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>270</v>
+        <v>110</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>07/02/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9713,7 +9713,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2662&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9728,7 +9728,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Proyecto de Tranque de Relaves Socorro Nº6 Planta Talcuna</t>
+          <t>Sistema de Tratamiento y Disposición Final de Residuos Industriales Líquidos CAPEL Planta Vicuña</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9743,15 +9743,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>17/12/1999</t>
+          <t>07/02/2000</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9761,7 +9761,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2662&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9776,7 +9776,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Sistema de Acumulación o Almacenaje de Residuos Sólidos Industriales Planta Minera San Gerónimo</t>
+          <t>Proyecto de Tranque de Relaves Socorro Nº6 Planta Talcuna</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9795,21 +9795,21 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>06/12/1999</t>
+          <t>17/12/1999</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9824,7 +9824,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento y Disposición Final de Aguas Servidas de la Localidad de Peralillo</t>
+          <t>Sistema de Acumulación o Almacenaje de Residuos Sólidos Industriales Planta Minera San Gerónimo</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9839,25 +9839,25 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Aguas del Valle S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>470</v>
+        <v>30</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>02/11/1999</t>
+          <t>06/12/1999</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2407&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9872,7 +9872,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Aguas Servidas de la Localidad de Gualliguaica</t>
+          <t>Planta de Tratamiento y Disposición Final de Aguas Servidas de la Localidad de Peralillo</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,11 +9891,11 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>190</v>
+        <v>470</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>13/09/1999</t>
+          <t>02/11/1999</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9905,7 +9905,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2407&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9920,7 +9920,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Aguas Servidas de la Localidad de Punta Azul</t>
+          <t>Sistema de Tratamiento de Aguas Servidas de la Localidad de Gualliguaica</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9939,7 +9939,7 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9968,7 +9968,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Complejo Agroturístico Valle de Elqui</t>
+          <t>Sistema de Tratamiento de Aguas Servidas de la Localidad de Punta Azul</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9983,15 +9983,15 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Tamblay Silva</t>
+          <t>Aguas del Valle S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>350</v>
+        <v>130</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>09/09/1999</t>
+          <t>13/09/1999</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10001,7 +10001,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10016,7 +10016,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Servicio de Agua Potable Rural Nueva Gualliguaica Comuna de Vicuña</t>
+          <t>Complejo Agroturístico Valle de Elqui</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10031,25 +10031,25 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Tamblay Silva</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>11/02/1999</t>
+          <t>09/09/1999</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10064,7 +10064,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Tranques de Relaves Transitorio Planta Don Arturo de Talcuna</t>
+          <t>Servicio de Agua Potable Rural Nueva Gualliguaica Comuna de Vicuña</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10079,15 +10079,15 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Compañía Minera Cobrex</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>15000</v>
+        <v>290</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>12/03/1998</t>
+          <t>11/02/1999</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10097,7 +10097,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=716&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10112,7 +10112,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Construcción Observatorio Astronómico Solar Telescopio</t>
+          <t>Tranques de Relaves Transitorio Planta Don Arturo de Talcuna</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10127,15 +10127,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Asociación de Universidades para Investigación en Astronomía (AURA, Inc)</t>
+          <t>Compañía Minera Cobrex</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>30/10/1997</t>
+          <t>12/03/1998</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10145,7 +10145,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=716&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10160,7 +10160,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Construcción Observatorio Astronómico Comunal II Etapa</t>
+          <t>Construcción Observatorio Astronómico Solar Telescopio</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10175,15 +10175,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Vicuña</t>
+          <t>Asociación de Universidades para Investigación en Astronomía (AURA, Inc)</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>260</v>
+        <v>28000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>24/07/1997</t>
+          <t>30/10/1997</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10193,7 +10193,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Reposición Escuela Nueva Talcuna</t>
+          <t>Construcción Observatorio Astronómico Comunal II Etapa</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10227,7 +10227,7 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10241,7 +10241,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10256,7 +10256,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Reposición Escuela Viñita Alta</t>
+          <t>Reposición Escuela Nueva Talcuna</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10275,7 +10275,7 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10304,12 +10304,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Estudio Integral Tranques Relaves Pastos Largos</t>
+          <t>Reposición Escuela Viñita Alta</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -10319,25 +10319,25 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>CIA. MINERA BARRICK CHILE LTDA.</t>
+          <t>Ilustre Municipalidad de Vicuña</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>2810</v>
+        <v>350</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>14/08/1996</t>
+          <t>24/07/1997</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=80&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10352,7 +10352,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Caminos de Acceso y Líneas de Alta Tensión a los Proyectos Nevada y El Indio</t>
+          <t>Estudio Integral Tranques Relaves Pastos Largos</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10362,20 +10362,20 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Compañia Minera Nevada SpA</t>
+          <t>CIA. MINERA BARRICK CHILE LTDA.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>46000</v>
+        <v>2810</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>19/03/1996</t>
+          <t>14/08/1996</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10385,7 +10385,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=80&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10400,7 +10400,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Planta JIGG Quebrada de Marquesa</t>
+          <t>Caminos de Acceso y Líneas de Alta Tensión a los Proyectos Nevada y El Indio</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10410,20 +10410,20 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Manganesos Atacama S.A. Ltda.</t>
+          <t>Compañia Minera Nevada SpA</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>200</v>
+        <v>46000</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>17/10/1995</t>
+          <t>19/03/1996</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10433,7 +10433,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10448,43 +10448,91 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
+          <t>Planta JIGG Quebrada de Marquesa</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Cuarta</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Manganesos Atacama S.A. Ltda.</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>200</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>17/10/1995</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>Vicuña</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
           <t>Proyecto Minero Tambo</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr">
+      <c r="D212" t="inlineStr">
         <is>
           <t>Cuarta</t>
         </is>
       </c>
-      <c r="E211" t="inlineStr">
+      <c r="E212" t="inlineStr">
         <is>
           <t>CIA. MINERA BARRICK CHILE LTDA.</t>
         </is>
       </c>
-      <c r="F211" t="n">
+      <c r="F212" t="n">
         <v>115000</v>
       </c>
-      <c r="G211" t="inlineStr">
+      <c r="G212" t="inlineStr">
         <is>
           <t>20/07/1994</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
+      <c r="H212" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I211" t="inlineStr">
+      <c r="I212" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=148&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J211" t="inlineStr">
+      <c r="J212" t="inlineStr">
         <is>
           <t>Vicuña</t>
         </is>

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Modificaciones Minera Linderos</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,16 +2450,16 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2468,12 +2468,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificaciones Minera Linderos</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,16 +2498,16 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificaciones Minera Linderos</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,16 +2450,16 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2468,12 +2468,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Modificaciones Minera Linderos</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,16 +2498,16 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>28/12/2022</t>
+          <t>17/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/02/2023</t>
+          <t>20/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J212"/>
+  <dimension ref="A1:J213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Alto Solar</t>
+          <t>Mina Yeso Corral</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Alto Solar SPA</t>
+          <t>Yesos Andinas SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>161261</v>
+        <v>100</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/01/2023</t>
+          <t>25/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158033795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158513816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mina Yeso Corral</t>
+          <t>Parque Fotovoltaico Alto Solar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Yesos Andinos SPA</t>
+          <t>Alto Solar SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>161261</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/10/2022</t>
+          <t>20/01/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157197696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158033795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Crecimiento Tranque de Relaves Panules</t>
+          <t>Mina Yeso Corral</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SOCIEDAD SERVICIOS A LA MINERIA OMINT SPA</t>
+          <t>Yesos Andinos SPA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>06/01/2022</t>
+          <t>18/10/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154614776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157197696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>28/12/2021</t>
+          <t>06/01/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154497249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154614776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Repotenciamiento PMGD Luna II</t>
+          <t>Crecimiento Tranque de Relaves Panules</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Parque Solar Luna del Norte SpA</t>
+          <t>SOCIEDAD SERVICIOS A LA MINERIA OMINT SPA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1900</v>
+        <v>250</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23/07/2020</t>
+          <t>28/12/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147476824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154497249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Repotenciamiento PMGD SOL II</t>
+          <t>Repotenciamiento PMGD Luna II</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,11 +679,11 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Parque Solar Sol del Norte SpA</t>
+          <t>Parque Solar Luna del Norte SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3750</v>
+        <v>1900</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147482505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147476824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,12 +712,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Proyecto Minero Arqueros</t>
+          <t>Repotenciamiento PMGD SOL II</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>COMPAÑÍA MINERA ARQUEROS S.A.</t>
+          <t>Parque Solar Sol del Norte SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>200000</v>
+        <v>3750</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>25/05/2020</t>
+          <t>23/07/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146624103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147482505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,12 +760,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Fundo San Isidro</t>
+          <t>Proyecto Minero Arqueros</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FSI Solar SpA</t>
+          <t>COMPAÑÍA MINERA ARQUEROS S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>15000</v>
+        <v>200000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/04/2020</t>
+          <t>25/05/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146361278&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146624103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>LENERGIA CHILE SpA</t>
+          <t>FSI Solar SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -831,17 +831,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23/03/2020</t>
+          <t>23/04/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146016174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146361278&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Planta Fotovoltaica Fundo San Isidro</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>LENERGIA CHILE SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>23/03/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146016174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica Santa Francisca</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,20 +914,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CVE Proyecto Diecisiete SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>7600</v>
+        <v>25000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>22/11/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144992691&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nuevo sistema de tratamiento de aguas servidas de Vicuña, región de Coquimbo</t>
+          <t>Nueva Central Solar Fotovoltaica Santa Francisca</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Aguas del Valle S.A.</t>
+          <t>CVE Proyecto Diecisiete SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5200</v>
+        <v>7600</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>28/10/2019</t>
+          <t>22/11/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144513629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144992691&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Central GLP Talcuna</t>
+          <t>Nuevo sistema de tratamiento de aguas servidas de Vicuña, región de Coquimbo</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MARQUESA GLP SpA</t>
+          <t>Aguas del Valle S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3500</v>
+        <v>5200</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>23/07/2019</t>
+          <t>28/10/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143765092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144513629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Proyecto ?Faena Minera ?Mina San Antonio?, explotación a 40.000 ton/mes?</t>
+          <t>Central GLP Talcuna</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>MARQUESA GLP SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4200</v>
+        <v>3500</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>21/11/2018</t>
+          <t>23/07/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141692561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143765092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
+          <t>Proyecto ?Faena Minera ?Mina San Antonio?, explotación a 40.000 ton/mes?</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,20 +1106,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>27/06/2018</t>
+          <t>21/11/2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141692561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Gabriela</t>
+          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,30 +1154,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Bronte SpA</t>
+          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>22/03/2018</t>
+          <t>27/06/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138751214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque solar Llanos de Potroso</t>
+          <t>Parque Fotovoltaico Gabriela</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Llanos de Potroso SpA</t>
+          <t>Bronte SpA</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>23/11/2016</t>
+          <t>22/03/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131950285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138751214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1263,17 +1263,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20/10/2016</t>
+          <t>23/11/2016</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131822429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131950285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Parque Solar Llanos de Potroso</t>
+          <t>Parque solar Llanos de Potroso</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>16/09/2016</t>
+          <t>20/10/2016</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131726680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131822429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PARQUE SOLAR CASA DE PIEDRA</t>
+          <t>Parque Solar Llanos de Potroso</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1355,11 +1355,11 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>62000</v>
+        <v>12000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>22/04/2016</t>
+          <t>16/09/2016</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131323063&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131726680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Parque Solar Casa de Piedra</t>
+          <t>PARQUE SOLAR CASA DE PIEDRA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>24/03/2016</t>
+          <t>22/04/2016</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131266497&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131323063&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Parque Solar Casa de Piedra - Llanos de Potroso</t>
+          <t>Parque Solar Casa de Piedra</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1451,11 +1451,11 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>95130</v>
+        <v>62000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>19/02/2016</t>
+          <t>24/03/2016</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131156984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131266497&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas para Transporte Terrestre de Residuos y Sustancias Peligrosas a Granel desde la I a la X Región</t>
+          <t>Parque Solar Casa de Piedra - Llanos de Potroso</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,20 +1490,20 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Llanos de Potroso SpA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>95130</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>11/12/2015</t>
+          <t>19/02/2016</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130832601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131156984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>La Represa</t>
+          <t>Ampliación de Rutas para Transporte Terrestre de Residuos y Sustancias Peligrosas a Granel desde la I a la X Región</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Minera La Reserva Limitada</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>13/10/2015</t>
+          <t>11/12/2015</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130820333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130832601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>13/10/2015</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130803747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130820333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Proyecto La Represa</t>
+          <t>La Represa</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>26/08/2015</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130712151&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130803747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Prospección Minera Arqueros - Fase 2</t>
+          <t>Proyecto La Represa</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Compañía Minera Arqueros S.A.</t>
+          <t>Minera La Reserva Limitada</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>22800</v>
+        <v>2500</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>09/07/2015</t>
+          <t>26/08/2015</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130595293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130712151&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Prospección Minera Alturas</t>
+          <t>Prospección Minera Arqueros - Fase 2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Compañía Minera Salitrales Limitada</t>
+          <t>Compañía Minera Arqueros S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>70000</v>
+        <v>22800</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>04/05/2015</t>
+          <t>09/07/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130424679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130595293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1791,17 +1791,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>24/04/2015</t>
+          <t>04/05/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130402498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130424679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Prospección Minera Alturas</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,20 +1826,20 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía Minera Salitrales Limitada</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5000</v>
+        <v>70000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>24/04/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130402498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Prospección Minera Alturas</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Compañía Minera Salitrales Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>70000</v>
+        <v>5000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>22/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130150788&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>30/12/2014</t>
+          <t>22/01/2015</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130084416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130150788&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Prospección Minera Alturas</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,20 +1970,20 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía Minera Salitrales Limitada</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5000</v>
+        <v>70000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>30/12/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130084416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2319,17 +2319,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MINA SUBTERRÁNEA 21 DE MAYO DE CMSG EN TALCUNA, PRODUCCIÓN A 50 KTM</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>19/03/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129233665&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Modificaciones Minera Linderos</t>
+          <t>MINA SUBTERRÁNEA 21 DE MAYO DE CMSG EN TALCUNA, PRODUCCIÓN A 50 KTM</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3000</v>
+        <v>25000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>19/03/2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129233665&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificaciones Minera Linderos</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,16 +2498,16 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Regularizacion Ambiental del Proceso de Explotacion y Procesamiento de minerales, Yacimiento Talcuna</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,20 +2546,20 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SERVICIOS A LA MINERÍA OMINT SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>18/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128943882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Compañia Minera Talcuna Limitada</t>
+          <t>SERVICIOS A LA MINERÍA OMINT SPA</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -2607,17 +2607,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>12/12/2013</t>
+          <t>18/12/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916085&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128943882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Regularizacion Ambiental del proceso de Explotacion y Procesamiento de minerales, Yacimiento Talcuna</t>
+          <t>Regularizacion Ambiental del Proceso de Explotacion y Procesamiento de minerales, Yacimiento Talcuna</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2655,17 +2655,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>06/12/2013</t>
+          <t>12/12/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128894465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916085&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Regularizacion Ambiental del proceso de Explotacion y Procesamiento de minerales, Yacimiento Talcuna</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañia Minera Talcuna Limitada</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>06/12/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128894465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Aumento de Producción en Planta Condoriaco</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,20 +3074,20 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>16/11/2012</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7540103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3135,17 +3135,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>09/11/2012</t>
+          <t>16/11/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7510930&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7540103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Aumento de Producción en Planta Condoriaco</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>15000</v>
+        <v>500</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>09/11/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7510930&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Ampliación Planta Talcuna Fase II, 120 KTM</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>11/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Proyecto Ampliación Planta Talcuna Fase II, 120KMT</t>
+          <t>Ampliación Planta Talcuna Fase II, 120 KTM</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3327,17 +3327,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>04/04/2012</t>
+          <t>11/04/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6768247&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Proyecto Ampliación Planta Talcuna Fase II, 120KMT</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>04/04/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6768247&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Regularización Embalse El Calvario</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Agrícola El Calvario S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>07/03/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6668178&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Regularización Embalse El Calvario</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Agrícola El Calvario S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>07/03/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6668178&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3755,21 +3755,21 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>75000</v>
+        <v>150</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>02/12/2010</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3803,21 +3803,21 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>150</v>
+        <v>75000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>27/10/2010</t>
+          <t>02/12/2010</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Tranque de Relaves Panules</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>SERVICIOS A LA MINERÍA OMINT SPA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>3500</v>
+        <v>150</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>19/10/2010</t>
+          <t>27/10/2010</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5011146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Compañia Minera Talcuna Limitada</t>
+          <t>SERVICIOS A LA MINERÍA OMINT SPA</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -3903,17 +3903,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>04/10/2010</t>
+          <t>19/10/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4975616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5011146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>Tranque de Relaves Panules</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Compañia Minera Talcuna Limitada</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>563</v>
+        <v>3500</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>04/10/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4975616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1750</v>
+        <v>563</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>85</v>
+        <v>1750</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>20/05/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>20/05/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PROYECTO CONDORIACO (Planta de Cianuración para Minerales de Oro y Plata)</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>10/05/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4575438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>PROYECTO CONDORIACO (Planta de Cianuración para Minerales de Oro y Plata)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,20 +4178,20 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>4050</v>
+        <v>1000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>10/05/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4575438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PROYECTO CONDORIACO (Planta de Cianuración para Minerales de Oro y Plata)</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1000</v>
+        <v>4050</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>27/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4533719&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>PROYECTO CONDORIACO (Planta de Cianuración para Minerales de Oro y Plata)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>27/04/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4533719&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>San Bartolomé (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,30 +4562,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>D &amp; Q Mineral Compañía Limitada</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1313</v>
+        <v>350</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>27/11/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4197295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>San Bartolomé (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,30 +4610,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>D &amp; Q Mineral Compañía Limitada</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2000</v>
+        <v>1313</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>27/11/2009</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4197295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>377</v>
+        <v>2000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,25 +4759,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>07/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Alcantarillado, Tratamiento y Disposición Final de Aguas Servidas de Marquesa y Nueva Talcuna (e-seia)</t>
+          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,30 +4802,30 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Comite de Agua Potable Rural Marquesa-Nueva Talcuna</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>31/08/2009</t>
+          <t>07/09/2009</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4001865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Modificación Sistema de Alcantarillado, Tratamiento y Disposición Final de Aguas Servidas de Marquesa y Nueva Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,20 +4850,20 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Comite de Agua Potable Rural Marquesa-Nueva Talcuna</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>20/08/2009</t>
+          <t>31/08/2009</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983845&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4001865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Modificaciòn Sistema Alcantarillado y Tratamiento de Aguas Servidas de Marquesa y Nueva Talcuna (e-seia)</t>
+          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,30 +4898,30 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Comite de Agua Potable Rural Marquesa-Nueva Talcuna</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>17/08/2009</t>
+          <t>20/08/2009</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3951119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983845&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Modificaciòn Sistema Alcantarillado y Tratamiento de Aguas Servidas de Marquesa y Nueva Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,30 +4946,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Comite de Agua Potable Rural Marquesa-Nueva Talcuna</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>07/08/2009</t>
+          <t>17/08/2009</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3952839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3951119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>800</v>
+        <v>28</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>07/08/2009</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3952839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Sistema de Disposicion de RILes (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,30 +5042,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Alamo Ltda.</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>40</v>
+        <v>800</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>31/03/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3661633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>SISTEMA DE DISPOSICION DE RILES (e-seia)</t>
+          <t>Sistema de Disposicion de RILes (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5103,17 +5103,17 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>10/03/2009</t>
+          <t>31/03/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3661633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL SISTEMA DE TRATAMIENTO Y DISPOSICIÓN DE VINAZA, AGUAS DE LAVADO Y MANEJO DE ORUJO Y ESCOBAJO EN PLANTA AGROINDUSTRIAL VICUÑA (e-seia)</t>
+          <t>SISTEMA DE DISPOSICION DE RILES (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Sociedad Agrícola El Alamo Ltda.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>05/02/2009</t>
+          <t>10/03/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3542766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5199,17 +5199,17 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>05/02/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3530200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3542766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>MEJORAMIENTO DEL SISTEMA DE TRATAMIENTO Y DISPOSICIÓN DE VINAZA, AGUAS DE LAVADO Y MANEJO DE ORUJO Y ESCOBAJO EN PLANTA AGROINDUSTRIAL VICUÑA (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3530200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,36 +5272,40 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TRANQUE DE RELAVES HUMO CORRAL</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr"/>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>07/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3475081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5335,17 +5339,17 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>30/12/2008</t>
+          <t>07/01/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3463284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3475081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5360,14 +5364,10 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Cultivo de la microalga Haematococcus pluvialis (e-seia)</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TRANQUE DE RELAVES HUMO CORRAL</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
           <t>Cuarta</t>
@@ -5375,25 +5375,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Alimtec S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>11/12/2008</t>
+          <t>30/12/2008</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3413969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3463284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5423,25 +5423,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Julio Ignacio Ilabaca Grez</t>
+          <t>Alimtec S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>11/12/2008</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3371390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3413969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>Cultivo de la microalga Haematococcus pluvialis (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5466,20 +5466,20 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Julio Ignacio Ilabaca Grez</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>25</v>
+        <v>5000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3371390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5504,7 +5504,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5519,25 +5519,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5552,7 +5552,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5567,25 +5567,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5600,7 +5600,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5615,25 +5615,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5648,7 +5648,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5663,11 +5663,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5676,12 +5676,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5719,7 +5719,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5729,7 +5729,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5744,7 +5744,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5759,25 +5759,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5825,7 +5825,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5855,15 +5855,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5873,7 +5873,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5903,25 +5903,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5936,7 +5936,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5951,25 +5951,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>20</v>
+        <v>3408</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5999,25 +5999,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Construccion y Operacion de Gran Telescopio de Rastreo Sinoptico (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6042,20 +6042,20 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Aura Inc</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>390000</v>
+        <v>80</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>25/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6065,7 +6065,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3073048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6103,17 +6103,17 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>17/07/2008</t>
+          <t>25/07/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3040083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3073048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Construccion y Operacion de Gran Telescopio de Rastreo Sinoptico (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6138,20 +6138,20 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Aura Inc</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>250</v>
+        <v>390000</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>17/07/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3040083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6176,7 +6176,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6191,15 +6191,15 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6209,7 +6209,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6224,7 +6224,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6239,11 +6239,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6252,12 +6252,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6287,25 +6287,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6320,7 +6320,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6335,25 +6335,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>30/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6383,15 +6383,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>30/06/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6416,7 +6416,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6431,25 +6431,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6479,25 +6479,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6512,7 +6512,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Sistema de Manejo de Riles de Planta Pisquera Río Elqui (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6522,30 +6522,30 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Pisquera Río Elqui Ltda</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>18/03/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2781615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6560,7 +6560,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>TRANQUE DE RELAVES ANY (e-seia)</t>
+          <t>Sistema de Manejo de Riles de Planta Pisquera Río Elqui (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6575,15 +6575,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Pisquera Río Elqui Ltda</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>520</v>
+        <v>50</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>06/02/2008</t>
+          <t>18/03/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6593,7 +6593,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2693359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2781615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6608,7 +6608,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Sistema de manejo de riles de Planta Pisquera Río Elqui (e-seia)</t>
+          <t>TRANQUE DE RELAVES ANY (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6623,25 +6623,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Pisquera Río Elqui Ltda</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>50</v>
+        <v>520</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>30/01/2008</t>
+          <t>06/02/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2659042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2693359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Sistema de manejo de riles de planta Pisquera Río Elqui (e-seia)</t>
+          <t>Sistema de manejo de riles de Planta Pisquera Río Elqui (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>27/12/2007</t>
+          <t>30/01/2008</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6689,7 +6689,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2595334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2659042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6704,7 +6704,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Proyecto Ampliación Planta Talcuna (e-seia)</t>
+          <t>Sistema de manejo de riles de planta Pisquera Río Elqui (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6719,25 +6719,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Pisquera Río Elqui Ltda</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>6000</v>
+        <v>50</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>10/12/2007</t>
+          <t>27/12/2007</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2570874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2595334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6752,7 +6752,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Proyecto Ampliación Planta Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6762,20 +6762,20 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>429</v>
+        <v>6000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>10/12/2007</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6785,7 +6785,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2570874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6815,25 +6815,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6863,25 +6863,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6911,25 +6911,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6959,25 +6959,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7007,25 +7007,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Sistema de disposicion de riles Viña Falernia S.A. (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7050,20 +7050,20 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>01/08/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7073,7 +7073,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2241447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Bodega De Insumos fundo Huancara, Empresa Guillermo Prohens SommellaS.A. (e-seia)</t>
+          <t>Sistema de disposicion de riles Viña Falernia S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7103,15 +7103,15 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Guillermo Prohens Sommella S.A.</t>
+          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>01/08/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7121,7 +7121,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2252698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2241447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Bodega de Insumos Fundo Sta. Bernardita, Empresa Guillermo Prohens Sommella S.A. (e-seia)</t>
+          <t>Bodega De Insumos fundo Huancara, Empresa Guillermo Prohens SommellaS.A. (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7169,7 +7169,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2257624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2252698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Bodega de Insumos Fundo Sta. Bernardita, Empresa Guillermo Prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7194,16 +7194,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Guillermo Prohens Sommella S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7212,12 +7212,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2257624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7247,15 +7247,15 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7295,25 +7295,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>DISPOSICION DE RILES VIÑA FALERNIA (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7338,30 +7338,30 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>31/05/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2176747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Sistema de disposicion de Riles Viña Falernia S.A. (e-seia)</t>
+          <t>DISPOSICION DE RILES VIÑA FALERNIA (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,7 +7399,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>02/04/2007</t>
+          <t>31/05/2007</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2078043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2176747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Sistema de disposicion de Riles Viña Falernia S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7434,20 +7434,20 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>02/04/2007</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2078043&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7487,15 +7487,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Bodega de Insumos, Fundo Huancara, Guillermo prohens Sommella S.A. (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7530,20 +7530,20 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Guillermo Prohens Sommella S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>22/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1934992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Bodega de Insumos Fundo Santa Bernardita, Guillermo Prohens Sommella S.A. (e-seia)</t>
+          <t>Bodega de Insumos, Fundo Huancara, Guillermo prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1935186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1934992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Bodega de Insumos Fundo Santa Bernardita, Guillermo Prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7626,30 +7626,30 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Guillermo Prohens Sommella S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>22/01/2007</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1935186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,17 +7687,17 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Bodega Insumos Fundo Huancara, Guillermo Prohens Sommella S.A. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7722,20 +7722,20 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Guillermo Prohens Sommella S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>21</v>
+        <v>200</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>27/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7745,7 +7745,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1884903&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Bodega Insumos Fundo Santa Bernardita, Guillermo Prohens Sommella S.A. (e-seia)</t>
+          <t>Bodega Insumos Fundo Huancara, Guillermo Prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7793,7 +7793,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1885130&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1884903&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Bodega Insumos Fundo Santa Bernardita, Guillermo Prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7818,30 +7818,30 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Guillermo Prohens Sommella S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>27/12/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1885130&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7871,15 +7871,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7889,7 +7889,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,17 +7927,17 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7967,25 +7967,25 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8015,25 +8015,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Central Hidroelectrica Balalita (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8058,30 +8058,30 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Hidrobalalita S.A</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>17752</v>
+        <v>0</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>30/10/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1771727&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Central Hidroelectrica Balalita (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8106,30 +8106,30 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Hidrobalalita S.A</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>250</v>
+        <v>17752</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>30/10/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1771727&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8144,7 +8144,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8159,25 +8159,25 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8192,7 +8192,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>IMPLEMENTACIÓN PLANTA DE SECADO DE JIBIA LEE, EN SECTOR VARILLAR, COMUNA DE VICUÑA (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8202,30 +8202,30 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Sang Baek Lee</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>850</v>
+        <v>20</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>21/06/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1510008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>IMPLEMENTACIÓN PLANTA DE SECADO DE JIBIA LEE, EN SECTOR VARILLAR, COMUNA DE VICUÑA (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8250,30 +8250,30 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Sang Baek Lee</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>72</v>
+        <v>850</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>21/06/2006</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1510008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8288,7 +8288,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELECTRICA PUCLARO (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8298,20 +8298,20 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>HIDROELECTRICA PUCLARO S.A.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>4800</v>
+        <v>72</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8321,7 +8321,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1180412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8336,7 +8336,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>CENTRAL HIDROELECTRICA PUCLARO (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8346,30 +8346,30 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>HIDROELECTRICA PUCLARO S.A.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>72</v>
+        <v>4800</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1180412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8384,7 +8384,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8399,25 +8399,25 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8432,7 +8432,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8447,15 +8447,15 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8465,7 +8465,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8480,7 +8480,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Implementacion de una planta de Riles (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8490,30 +8490,30 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>12/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1013416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8528,7 +8528,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Implementacion de una planta de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8538,30 +8538,30 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>12/09/2005</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1013416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8591,11 +8591,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8639,11 +8639,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8672,7 +8672,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Manejo de RILES de la Bodega de Vinos , Viña Falernia (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8682,30 +8682,30 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>29/08/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=951200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8720,7 +8720,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ACTUALIZACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE COQUIMBO (e-seia)</t>
+          <t>Manejo de RILES de la Bodega de Vinos , Viña Falernia (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8735,25 +8735,25 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Coquimbo</t>
+          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>05/08/2005</t>
+          <t>29/08/2005</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=951200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8768,7 +8768,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>ACTUALIZACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE COQUIMBO (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8778,20 +8778,20 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Coquimbo</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>05/08/2005</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8801,7 +8801,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8831,15 +8831,15 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8849,7 +8849,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8864,7 +8864,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Tranque de Relaves Socorro Nº 6, Planta Talcuna (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8874,20 +8874,20 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>11/05/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8897,7 +8897,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=348710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8912,7 +8912,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Tranque de Relaves Socorro N° 6, Planta Talcuna (e-seia)</t>
+          <t>Modificación Proyecto de Tranque de Relaves Socorro Nº 6, Planta Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8931,21 +8931,21 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>04/05/2004</t>
+          <t>11/05/2004</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=341485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=348710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8960,7 +8960,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Tranque de Relaves YENNY 1-2 (e-seia)</t>
+          <t>Modificación Proyecto de Tranque de Relaves Socorro N° 6, Planta Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8975,25 +8975,25 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Palo Negro</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>239</v>
+        <v>1</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>04/05/2004</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=218797&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=341485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9008,7 +9008,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Tranque de Relaves Yenny 1 - 2 (e-seia)</t>
+          <t>Tranque de Relaves YENNY 1-2 (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9027,21 +9027,21 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>27/11/2003</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=211049&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=218797&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9056,7 +9056,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Tranque de Relaves Las Mollacas (e-seia)</t>
+          <t>Tranque de Relaves Yenny 1 - 2 (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9075,21 +9075,21 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>09/10/2003</t>
+          <t>27/11/2003</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=172416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=211049&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9104,7 +9104,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Tranque de Relaves Las Mollacas (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9114,30 +9114,30 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Sociedad Contractual Minera Palo Negro</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>09/10/2003</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=172416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9152,7 +9152,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Reformulación Plan Regulador Comunal de Vicuña</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9162,20 +9162,20 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Vicuña</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>16/10/2002</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9185,7 +9185,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5922&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9200,7 +9200,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Bodega Viña Falernia (e-seia)</t>
+          <t>Reformulación Plan Regulador Comunal de Vicuña</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9215,25 +9215,25 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Alamo Ltda.</t>
+          <t>Ilustre Municipalidad de Vicuña</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>14/10/2002</t>
+          <t>16/10/2002</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5922&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9248,7 +9248,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Tranque (Depósito) de Relaves Mantos de Talcuna Nº4 Planta Don Arturo</t>
+          <t>Bodega Viña Falernia (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9263,25 +9263,25 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Compañía Minera Cobrex</t>
+          <t>Sociedad Agrícola El Alamo Ltda.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0</v>
+        <v>2050</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>26/02/2002</t>
+          <t>14/10/2002</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9296,7 +9296,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Proyecto Tranque (Depósito) de Relaves Sector Los Infieles-Planta Talcuna</t>
+          <t>Tranque (Depósito) de Relaves Mantos de Talcuna Nº4 Planta Don Arturo</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9311,7 +9311,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Compañía Minera Cobrex</t>
         </is>
       </c>
       <c r="F187" t="n">
@@ -9319,7 +9319,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>03/12/2001</t>
+          <t>26/02/2002</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9329,7 +9329,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9344,7 +9344,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Proyecto Tranque (Depósito) de Relaves Sector Los Infieles-Planta Talcuna</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9354,30 +9354,30 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>03/12/2001</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9392,7 +9392,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Proyecto Tranque de Relaves Sector La Tococa - Planta Talcuna</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9402,30 +9402,30 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>08/06/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9440,30 +9440,30 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Proyecto Tranque de Relaves Sector La Tococa - Planta Talcuna</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>1230</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>08/06/2001</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9473,7 +9473,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9488,40 +9488,40 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Proyecto de Tranque de Relave Sector El Plomo-Planta Talcuna</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>19/02/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9536,7 +9536,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Proyecto Cabañas y Centro Recreacional Don Demetrio</t>
+          <t>Proyecto de Tranque de Relave Sector El Plomo-Planta Talcuna</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9551,25 +9551,25 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Gustavo Psijas Pizarro</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>01/02/2001</t>
+          <t>19/02/2001</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9584,7 +9584,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Proyecto Tranque de Relaves Sector La Higuera-Planta Talcuna</t>
+          <t>Proyecto Cabañas y Centro Recreacional Don Demetrio</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9599,15 +9599,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Gustavo Psijas Pizarro</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>15/01/2001</t>
+          <t>01/02/2001</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9617,7 +9617,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9632,7 +9632,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Subestación de Poder Eléctrica Sector La Compañía Vicuña IV Región</t>
+          <t>Proyecto Tranque de Relaves Sector La Higuera-Planta Talcuna</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9647,15 +9647,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>16/06/2000</t>
+          <t>15/01/2001</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9665,7 +9665,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9680,7 +9680,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Subestación de Poder Eléctrica Sector La Compañía Vicuña IV Región</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9690,20 +9690,20 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>110</v>
+        <v>700</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>16/06/2000</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9713,7 +9713,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9728,7 +9728,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento y Disposición Final de Residuos Industriales Líquidos CAPEL Planta Vicuña</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9738,20 +9738,20 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>270</v>
+        <v>110</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>07/02/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9761,7 +9761,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2662&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9776,7 +9776,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Proyecto de Tranque de Relaves Socorro Nº6 Planta Talcuna</t>
+          <t>Sistema de Tratamiento y Disposición Final de Residuos Industriales Líquidos CAPEL Planta Vicuña</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9791,15 +9791,15 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>17/12/1999</t>
+          <t>07/02/2000</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9809,7 +9809,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2662&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9824,7 +9824,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Sistema de Acumulación o Almacenaje de Residuos Sólidos Industriales Planta Minera San Gerónimo</t>
+          <t>Proyecto de Tranque de Relaves Socorro Nº6 Planta Talcuna</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,21 +9843,21 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>06/12/1999</t>
+          <t>17/12/1999</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9872,7 +9872,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento y Disposición Final de Aguas Servidas de la Localidad de Peralillo</t>
+          <t>Sistema de Acumulación o Almacenaje de Residuos Sólidos Industriales Planta Minera San Gerónimo</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9887,25 +9887,25 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Aguas del Valle S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>470</v>
+        <v>30</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>02/11/1999</t>
+          <t>06/12/1999</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2407&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9920,7 +9920,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Aguas Servidas de la Localidad de Gualliguaica</t>
+          <t>Planta de Tratamiento y Disposición Final de Aguas Servidas de la Localidad de Peralillo</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9939,11 +9939,11 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>190</v>
+        <v>470</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>13/09/1999</t>
+          <t>02/11/1999</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9953,7 +9953,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2407&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9968,7 +9968,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Aguas Servidas de la Localidad de Punta Azul</t>
+          <t>Sistema de Tratamiento de Aguas Servidas de la Localidad de Gualliguaica</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9987,7 +9987,7 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10016,7 +10016,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Complejo Agroturístico Valle de Elqui</t>
+          <t>Sistema de Tratamiento de Aguas Servidas de la Localidad de Punta Azul</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10031,15 +10031,15 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Tamblay Silva</t>
+          <t>Aguas del Valle S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>350</v>
+        <v>130</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>09/09/1999</t>
+          <t>13/09/1999</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10049,7 +10049,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10064,7 +10064,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Servicio de Agua Potable Rural Nueva Gualliguaica Comuna de Vicuña</t>
+          <t>Complejo Agroturístico Valle de Elqui</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10079,25 +10079,25 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Tamblay Silva</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>11/02/1999</t>
+          <t>09/09/1999</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10112,7 +10112,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Tranques de Relaves Transitorio Planta Don Arturo de Talcuna</t>
+          <t>Servicio de Agua Potable Rural Nueva Gualliguaica Comuna de Vicuña</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10127,15 +10127,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Compañía Minera Cobrex</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>15000</v>
+        <v>290</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>12/03/1998</t>
+          <t>11/02/1999</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10145,7 +10145,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=716&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10160,7 +10160,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Construcción Observatorio Astronómico Solar Telescopio</t>
+          <t>Tranques de Relaves Transitorio Planta Don Arturo de Talcuna</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10175,15 +10175,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Asociación de Universidades para Investigación en Astronomía (AURA, Inc)</t>
+          <t>Compañía Minera Cobrex</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>30/10/1997</t>
+          <t>12/03/1998</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10193,7 +10193,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=716&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Construcción Observatorio Astronómico Comunal II Etapa</t>
+          <t>Construcción Observatorio Astronómico Solar Telescopio</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10223,15 +10223,15 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Vicuña</t>
+          <t>Asociación de Universidades para Investigación en Astronomía (AURA, Inc)</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>260</v>
+        <v>28000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>24/07/1997</t>
+          <t>30/10/1997</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10241,7 +10241,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10256,7 +10256,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Reposición Escuela Nueva Talcuna</t>
+          <t>Construcción Observatorio Astronómico Comunal II Etapa</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10275,7 +10275,7 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10304,7 +10304,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Reposición Escuela Viñita Alta</t>
+          <t>Reposición Escuela Nueva Talcuna</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10323,7 +10323,7 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10352,12 +10352,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Estudio Integral Tranques Relaves Pastos Largos</t>
+          <t>Reposición Escuela Viñita Alta</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -10367,25 +10367,25 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>CIA. MINERA BARRICK CHILE LTDA.</t>
+          <t>Ilustre Municipalidad de Vicuña</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>2810</v>
+        <v>350</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>14/08/1996</t>
+          <t>24/07/1997</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=80&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10400,7 +10400,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Caminos de Acceso y Líneas de Alta Tensión a los Proyectos Nevada y El Indio</t>
+          <t>Estudio Integral Tranques Relaves Pastos Largos</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10410,20 +10410,20 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Compañia Minera Nevada SpA</t>
+          <t>CIA. MINERA BARRICK CHILE LTDA.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>46000</v>
+        <v>2810</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>19/03/1996</t>
+          <t>14/08/1996</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10433,7 +10433,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=80&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10448,7 +10448,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Planta JIGG Quebrada de Marquesa</t>
+          <t>Caminos de Acceso y Líneas de Alta Tensión a los Proyectos Nevada y El Indio</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10458,20 +10458,20 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Manganesos Atacama S.A. Ltda.</t>
+          <t>Compañia Minera Nevada SpA</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>200</v>
+        <v>46000</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>17/10/1995</t>
+          <t>19/03/1996</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10481,7 +10481,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10496,43 +10496,91 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
+          <t>Planta JIGG Quebrada de Marquesa</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Cuarta</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Manganesos Atacama S.A. Ltda.</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>200</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>17/10/1995</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>Vicuña</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
           <t>Proyecto Minero Tambo</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr">
+      <c r="D213" t="inlineStr">
         <is>
           <t>Cuarta</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr">
+      <c r="E213" t="inlineStr">
         <is>
           <t>CIA. MINERA BARRICK CHILE LTDA.</t>
         </is>
       </c>
-      <c r="F212" t="n">
+      <c r="F213" t="n">
         <v>115000</v>
       </c>
-      <c r="G212" t="inlineStr">
+      <c r="G213" t="inlineStr">
         <is>
           <t>20/07/1994</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
+      <c r="H213" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I212" t="inlineStr">
+      <c r="I213" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=148&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J212" t="inlineStr">
+      <c r="J213" t="inlineStr">
         <is>
           <t>Vicuña</t>
         </is>

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Modificaciones Minera Linderos</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,16 +2498,16 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificaciones Minera Linderos</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,16 +2546,16 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificaciones Minera Linderos</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,16 +2498,16 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Modificaciones Minera Linderos</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,16 +2546,16 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J213"/>
+  <dimension ref="A1:J214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mina Yeso Corral</t>
+          <t>Parque Fotovoltaico Alto Solar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Yesos Andinas SPA</t>
+          <t>Alto Solar SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>161261</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>25/01/2023</t>
+          <t>18/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158513816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158677332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Alto Solar</t>
+          <t>Mina Yeso Corral</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Alto Solar SPA</t>
+          <t>Yesos Andinas SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>161261</v>
+        <v>100</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20/01/2023</t>
+          <t>25/01/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158033795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158513816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mina Yeso Corral</t>
+          <t>Parque Fotovoltaico Alto Solar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Yesos Andinos SPA</t>
+          <t>Alto Solar SPA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>161261</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>18/10/2022</t>
+          <t>20/01/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157197696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158033795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Crecimiento Tranque de Relaves Panules</t>
+          <t>Mina Yeso Corral</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SOCIEDAD SERVICIOS A LA MINERIA OMINT SPA</t>
+          <t>Yesos Andinos SPA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>06/01/2022</t>
+          <t>18/10/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154614776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157197696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>28/12/2021</t>
+          <t>06/01/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154497249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154614776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Repotenciamiento PMGD Luna II</t>
+          <t>Crecimiento Tranque de Relaves Panules</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Parque Solar Luna del Norte SpA</t>
+          <t>SOCIEDAD SERVICIOS A LA MINERIA OMINT SPA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1900</v>
+        <v>250</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>23/07/2020</t>
+          <t>28/12/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147476824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154497249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Repotenciamiento PMGD SOL II</t>
+          <t>Repotenciamiento PMGD Luna II</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,11 +727,11 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Parque Solar Sol del Norte SpA</t>
+          <t>Parque Solar Luna del Norte SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3750</v>
+        <v>1900</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147482505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147476824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,12 +760,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Proyecto Minero Arqueros</t>
+          <t>Repotenciamiento PMGD SOL II</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>COMPAÑÍA MINERA ARQUEROS S.A.</t>
+          <t>Parque Solar Sol del Norte SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>200000</v>
+        <v>3750</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>25/05/2020</t>
+          <t>23/07/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146624103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147482505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Fundo San Isidro</t>
+          <t>Proyecto Minero Arqueros</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FSI Solar SpA</t>
+          <t>COMPAÑÍA MINERA ARQUEROS S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>15000</v>
+        <v>200000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23/04/2020</t>
+          <t>25/05/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146361278&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146624103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>LENERGIA CHILE SpA</t>
+          <t>FSI Solar SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -879,17 +879,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23/03/2020</t>
+          <t>23/04/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146016174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146361278&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Planta Fotovoltaica Fundo San Isidro</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>LENERGIA CHILE SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>23/03/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146016174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica Santa Francisca</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,20 +962,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CVE Proyecto Diecisiete SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>7600</v>
+        <v>25000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>22/11/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144992691&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nuevo sistema de tratamiento de aguas servidas de Vicuña, región de Coquimbo</t>
+          <t>Nueva Central Solar Fotovoltaica Santa Francisca</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Aguas del Valle S.A.</t>
+          <t>CVE Proyecto Diecisiete SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5200</v>
+        <v>7600</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>28/10/2019</t>
+          <t>22/11/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144513629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144992691&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Central GLP Talcuna</t>
+          <t>Nuevo sistema de tratamiento de aguas servidas de Vicuña, región de Coquimbo</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MARQUESA GLP SpA</t>
+          <t>Aguas del Valle S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3500</v>
+        <v>5200</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>23/07/2019</t>
+          <t>28/10/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143765092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144513629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Proyecto ?Faena Minera ?Mina San Antonio?, explotación a 40.000 ton/mes?</t>
+          <t>Central GLP Talcuna</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>MARQUESA GLP SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4200</v>
+        <v>3500</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>21/11/2018</t>
+          <t>23/07/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141692561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143765092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
+          <t>Proyecto ?Faena Minera ?Mina San Antonio?, explotación a 40.000 ton/mes?</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,20 +1154,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>27/06/2018</t>
+          <t>21/11/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141692561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Gabriela</t>
+          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Bronte SpA</t>
+          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>22/03/2018</t>
+          <t>27/06/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138751214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parque solar Llanos de Potroso</t>
+          <t>Parque Fotovoltaico Gabriela</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Llanos de Potroso SpA</t>
+          <t>Bronte SpA</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>23/11/2016</t>
+          <t>22/03/2018</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131950285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138751214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1311,17 +1311,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20/10/2016</t>
+          <t>23/11/2016</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131822429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131950285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Parque Solar Llanos de Potroso</t>
+          <t>Parque solar Llanos de Potroso</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>16/09/2016</t>
+          <t>20/10/2016</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131726680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131822429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PARQUE SOLAR CASA DE PIEDRA</t>
+          <t>Parque Solar Llanos de Potroso</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1403,11 +1403,11 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>62000</v>
+        <v>12000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>22/04/2016</t>
+          <t>16/09/2016</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131323063&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131726680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Parque Solar Casa de Piedra</t>
+          <t>PARQUE SOLAR CASA DE PIEDRA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>24/03/2016</t>
+          <t>22/04/2016</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131266497&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131323063&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Parque Solar Casa de Piedra - Llanos de Potroso</t>
+          <t>Parque Solar Casa de Piedra</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1499,11 +1499,11 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>95130</v>
+        <v>62000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>19/02/2016</t>
+          <t>24/03/2016</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131156984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131266497&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas para Transporte Terrestre de Residuos y Sustancias Peligrosas a Granel desde la I a la X Región</t>
+          <t>Parque Solar Casa de Piedra - Llanos de Potroso</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,20 +1538,20 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Llanos de Potroso SpA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>95130</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>11/12/2015</t>
+          <t>19/02/2016</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130832601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131156984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>La Represa</t>
+          <t>Ampliación de Rutas para Transporte Terrestre de Residuos y Sustancias Peligrosas a Granel desde la I a la X Región</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Minera La Reserva Limitada</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>13/10/2015</t>
+          <t>11/12/2015</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130820333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130832601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>13/10/2015</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130803747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130820333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Proyecto La Represa</t>
+          <t>La Represa</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>26/08/2015</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130712151&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130803747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Prospección Minera Arqueros - Fase 2</t>
+          <t>Proyecto La Represa</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Compañía Minera Arqueros S.A.</t>
+          <t>Minera La Reserva Limitada</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>22800</v>
+        <v>2500</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>09/07/2015</t>
+          <t>26/08/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130595293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130712151&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Prospección Minera Alturas</t>
+          <t>Prospección Minera Arqueros - Fase 2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Compañía Minera Salitrales Limitada</t>
+          <t>Compañía Minera Arqueros S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>70000</v>
+        <v>22800</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>04/05/2015</t>
+          <t>09/07/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130424679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130595293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1839,17 +1839,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>24/04/2015</t>
+          <t>04/05/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130402498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130424679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Prospección Minera Alturas</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,20 +1874,20 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía Minera Salitrales Limitada</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5000</v>
+        <v>70000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>24/04/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130402498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Prospección Minera Alturas</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Compañía Minera Salitrales Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>70000</v>
+        <v>5000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>22/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130150788&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>30/12/2014</t>
+          <t>22/01/2015</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130084416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130150788&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Prospección Minera Alturas</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,20 +2018,20 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía Minera Salitrales Limitada</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5000</v>
+        <v>70000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>30/12/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130084416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2127,17 +2127,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MINA SUBTERRÁNEA 21 DE MAYO DE CMSG EN TALCUNA, PRODUCCIÓN A 50 KTM</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>19/03/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129233665&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>MINA SUBTERRÁNEA 21 DE MAYO DE CMSG EN TALCUNA, PRODUCCIÓN A 50 KTM</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,20 +2498,20 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1200</v>
+        <v>25000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>19/03/2014</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129233665&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Regularizacion Ambiental del Proceso de Explotacion y Procesamiento de minerales, Yacimiento Talcuna</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,20 +2594,20 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SERVICIOS A LA MINERÍA OMINT SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>18/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128943882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Compañia Minera Talcuna Limitada</t>
+          <t>SERVICIOS A LA MINERÍA OMINT SPA</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -2655,17 +2655,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>12/12/2013</t>
+          <t>18/12/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916085&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128943882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Regularizacion Ambiental del proceso de Explotacion y Procesamiento de minerales, Yacimiento Talcuna</t>
+          <t>Regularizacion Ambiental del Proceso de Explotacion y Procesamiento de minerales, Yacimiento Talcuna</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2703,17 +2703,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>06/12/2013</t>
+          <t>12/12/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128894465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916085&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Regularizacion Ambiental del proceso de Explotacion y Procesamiento de minerales, Yacimiento Talcuna</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañia Minera Talcuna Limitada</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>06/12/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128894465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Aumento de Producción en Planta Condoriaco</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,20 +3122,20 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>16/11/2012</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7540103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3183,17 +3183,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>09/11/2012</t>
+          <t>16/11/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7510930&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7540103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Aumento de Producción en Planta Condoriaco</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>15000</v>
+        <v>500</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>09/11/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7510930&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ampliación Planta Talcuna Fase II, 120 KTM</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>11/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Proyecto Ampliación Planta Talcuna Fase II, 120KMT</t>
+          <t>Ampliación Planta Talcuna Fase II, 120 KTM</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3375,17 +3375,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>04/04/2012</t>
+          <t>11/04/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6768247&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Proyecto Ampliación Planta Talcuna Fase II, 120KMT</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>04/04/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6768247&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Regularización Embalse El Calvario</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Agrícola El Calvario S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>07/03/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6668178&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Regularización Embalse El Calvario</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Agrícola El Calvario S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>07/03/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6668178&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3803,21 +3803,21 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>75000</v>
+        <v>150</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>02/12/2010</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3851,21 +3851,21 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>150</v>
+        <v>75000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>27/10/2010</t>
+          <t>02/12/2010</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Tranque de Relaves Panules</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>SERVICIOS A LA MINERÍA OMINT SPA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>3500</v>
+        <v>150</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>19/10/2010</t>
+          <t>27/10/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5011146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Compañia Minera Talcuna Limitada</t>
+          <t>SERVICIOS A LA MINERÍA OMINT SPA</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3951,17 +3951,17 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>04/10/2010</t>
+          <t>19/10/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4975616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5011146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>Tranque de Relaves Panules</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Compañia Minera Talcuna Limitada</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>563</v>
+        <v>3500</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>04/10/2010</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4975616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1750</v>
+        <v>563</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>85</v>
+        <v>1750</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>20/05/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>20/05/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PROYECTO CONDORIACO (Planta de Cianuración para Minerales de Oro y Plata)</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>10/05/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4575438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>PROYECTO CONDORIACO (Planta de Cianuración para Minerales de Oro y Plata)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,20 +4226,20 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>4050</v>
+        <v>1000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>10/05/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4575438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PROYECTO CONDORIACO (Planta de Cianuración para Minerales de Oro y Plata)</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1000</v>
+        <v>4050</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>27/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4533719&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>PROYECTO CONDORIACO (Planta de Cianuración para Minerales de Oro y Plata)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>27/04/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4533719&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,15 +4423,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4479,7 +4479,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>San Bartolomé (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,30 +4610,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>D &amp; Q Mineral Compañía Limitada</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1313</v>
+        <v>350</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>27/11/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4197295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>San Bartolomé (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,30 +4658,30 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>D &amp; Q Mineral Compañía Limitada</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2000</v>
+        <v>1313</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>27/11/2009</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4197295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,25 +4711,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>377</v>
+        <v>2000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>07/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Alcantarillado, Tratamiento y Disposición Final de Aguas Servidas de Marquesa y Nueva Talcuna (e-seia)</t>
+          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,30 +4850,30 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Comite de Agua Potable Rural Marquesa-Nueva Talcuna</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>31/08/2009</t>
+          <t>07/09/2009</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4001865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Modificación Sistema de Alcantarillado, Tratamiento y Disposición Final de Aguas Servidas de Marquesa y Nueva Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,20 +4898,20 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Comite de Agua Potable Rural Marquesa-Nueva Talcuna</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>20/08/2009</t>
+          <t>31/08/2009</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983845&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4001865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Modificaciòn Sistema Alcantarillado y Tratamiento de Aguas Servidas de Marquesa y Nueva Talcuna (e-seia)</t>
+          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,30 +4946,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Comite de Agua Potable Rural Marquesa-Nueva Talcuna</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>17/08/2009</t>
+          <t>20/08/2009</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3951119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983845&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Modificaciòn Sistema Alcantarillado y Tratamiento de Aguas Servidas de Marquesa y Nueva Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,30 +4994,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Comite de Agua Potable Rural Marquesa-Nueva Talcuna</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>07/08/2009</t>
+          <t>17/08/2009</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3952839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3951119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,25 +5047,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>800</v>
+        <v>28</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>07/08/2009</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3952839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Sistema de Disposicion de RILes (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,30 +5090,30 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Alamo Ltda.</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>40</v>
+        <v>800</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>31/03/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3661633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SISTEMA DE DISPOSICION DE RILES (e-seia)</t>
+          <t>Sistema de Disposicion de RILes (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5151,17 +5151,17 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>10/03/2009</t>
+          <t>31/03/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3661633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL SISTEMA DE TRATAMIENTO Y DISPOSICIÓN DE VINAZA, AGUAS DE LAVADO Y MANEJO DE ORUJO Y ESCOBAJO EN PLANTA AGROINDUSTRIAL VICUÑA (e-seia)</t>
+          <t>SISTEMA DE DISPOSICION DE RILES (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Sociedad Agrícola El Alamo Ltda.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>05/02/2009</t>
+          <t>10/03/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3542766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5247,17 +5247,17 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>05/02/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3530200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3542766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>MEJORAMIENTO DEL SISTEMA DE TRATAMIENTO Y DISPOSICIÓN DE VINAZA, AGUAS DE LAVADO Y MANEJO DE ORUJO Y ESCOBAJO EN PLANTA AGROINDUSTRIAL VICUÑA (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3530200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,36 +5320,40 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TRANQUE DE RELAVES HUMO CORRAL</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr"/>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>07/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3475081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5383,17 +5387,17 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>30/12/2008</t>
+          <t>07/01/2009</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3463284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3475081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5408,14 +5412,10 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Cultivo de la microalga Haematococcus pluvialis (e-seia)</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TRANQUE DE RELAVES HUMO CORRAL</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
           <t>Cuarta</t>
@@ -5423,25 +5423,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Alimtec S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>11/12/2008</t>
+          <t>30/12/2008</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3413969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3463284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5471,25 +5471,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Julio Ignacio Ilabaca Grez</t>
+          <t>Alimtec S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>11/12/2008</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3371390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3413969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5504,7 +5504,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>Cultivo de la microalga Haematococcus pluvialis (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5514,20 +5514,20 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Julio Ignacio Ilabaca Grez</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>25</v>
+        <v>5000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5537,7 +5537,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3371390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5552,7 +5552,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5567,25 +5567,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5600,7 +5600,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5615,25 +5615,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5648,7 +5648,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5663,25 +5663,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5696,7 +5696,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5711,11 +5711,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5724,12 +5724,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5777,7 +5777,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5792,7 +5792,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5807,25 +5807,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5873,7 +5873,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5903,15 +5903,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5921,7 +5921,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5936,7 +5936,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5951,25 +5951,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5999,25 +5999,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>20</v>
+        <v>3408</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6047,25 +6047,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6080,7 +6080,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Construccion y Operacion de Gran Telescopio de Rastreo Sinoptico (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6090,20 +6090,20 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Aura Inc</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>390000</v>
+        <v>80</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>25/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6113,7 +6113,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3073048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6151,17 +6151,17 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>17/07/2008</t>
+          <t>25/07/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3040083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3073048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6176,7 +6176,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Construccion y Operacion de Gran Telescopio de Rastreo Sinoptico (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6186,20 +6186,20 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Aura Inc</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>250</v>
+        <v>390000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>17/07/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6209,7 +6209,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3040083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6224,7 +6224,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6239,15 +6239,15 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6287,11 +6287,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6300,12 +6300,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6320,7 +6320,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6335,25 +6335,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6383,25 +6383,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>30/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6416,7 +6416,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6431,15 +6431,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>30/06/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6449,7 +6449,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6479,25 +6479,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6512,7 +6512,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6527,25 +6527,25 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6560,7 +6560,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Sistema de Manejo de Riles de Planta Pisquera Río Elqui (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6570,30 +6570,30 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Pisquera Río Elqui Ltda</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>18/03/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2781615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6608,7 +6608,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>TRANQUE DE RELAVES ANY (e-seia)</t>
+          <t>Sistema de Manejo de Riles de Planta Pisquera Río Elqui (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6623,15 +6623,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Pisquera Río Elqui Ltda</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>520</v>
+        <v>50</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>06/02/2008</t>
+          <t>18/03/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6641,7 +6641,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2693359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2781615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Sistema de manejo de riles de Planta Pisquera Río Elqui (e-seia)</t>
+          <t>TRANQUE DE RELAVES ANY (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6671,25 +6671,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Pisquera Río Elqui Ltda</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>50</v>
+        <v>520</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>30/01/2008</t>
+          <t>06/02/2008</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2659042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2693359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6704,7 +6704,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Sistema de manejo de riles de planta Pisquera Río Elqui (e-seia)</t>
+          <t>Sistema de manejo de riles de Planta Pisquera Río Elqui (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,7 +6727,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>27/12/2007</t>
+          <t>30/01/2008</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2595334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2659042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6752,7 +6752,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Proyecto Ampliación Planta Talcuna (e-seia)</t>
+          <t>Sistema de manejo de riles de planta Pisquera Río Elqui (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6767,25 +6767,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Pisquera Río Elqui Ltda</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>6000</v>
+        <v>50</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>10/12/2007</t>
+          <t>27/12/2007</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2570874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2595334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Proyecto Ampliación Planta Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6810,20 +6810,20 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>429</v>
+        <v>6000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>10/12/2007</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6833,7 +6833,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2570874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6863,25 +6863,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6911,25 +6911,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6959,25 +6959,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7007,25 +7007,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7055,25 +7055,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Sistema de disposicion de riles Viña Falernia S.A. (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7098,20 +7098,20 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>01/08/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7121,7 +7121,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2241447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Bodega De Insumos fundo Huancara, Empresa Guillermo Prohens SommellaS.A. (e-seia)</t>
+          <t>Sistema de disposicion de riles Viña Falernia S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7151,15 +7151,15 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Guillermo Prohens Sommella S.A.</t>
+          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>01/08/2007</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7169,7 +7169,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2252698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2241447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Bodega de Insumos Fundo Sta. Bernardita, Empresa Guillermo Prohens Sommella S.A. (e-seia)</t>
+          <t>Bodega De Insumos fundo Huancara, Empresa Guillermo Prohens SommellaS.A. (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7217,7 +7217,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2257624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2252698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Bodega de Insumos Fundo Sta. Bernardita, Empresa Guillermo Prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7242,16 +7242,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Guillermo Prohens Sommella S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7260,12 +7260,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2257624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7295,15 +7295,15 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7313,7 +7313,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7343,25 +7343,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>DISPOSICION DE RILES VIÑA FALERNIA (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7386,30 +7386,30 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>31/05/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2176747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Sistema de disposicion de Riles Viña Falernia S.A. (e-seia)</t>
+          <t>DISPOSICION DE RILES VIÑA FALERNIA (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,7 +7447,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>02/04/2007</t>
+          <t>31/05/2007</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2078043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2176747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Sistema de disposicion de Riles Viña Falernia S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7482,20 +7482,20 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>02/04/2007</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2078043&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7535,15 +7535,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Bodega de Insumos, Fundo Huancara, Guillermo prohens Sommella S.A. (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7578,20 +7578,20 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Guillermo Prohens Sommella S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>22/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1934992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Bodega de Insumos Fundo Santa Bernardita, Guillermo Prohens Sommella S.A. (e-seia)</t>
+          <t>Bodega de Insumos, Fundo Huancara, Guillermo prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1935186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1934992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Bodega de Insumos Fundo Santa Bernardita, Guillermo Prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7674,30 +7674,30 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Guillermo Prohens Sommella S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>22/01/2007</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1935186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,17 +7735,17 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Bodega Insumos Fundo Huancara, Guillermo Prohens Sommella S.A. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7770,20 +7770,20 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Guillermo Prohens Sommella S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>21</v>
+        <v>200</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>27/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7793,7 +7793,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1884903&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Bodega Insumos Fundo Santa Bernardita, Guillermo Prohens Sommella S.A. (e-seia)</t>
+          <t>Bodega Insumos Fundo Huancara, Guillermo Prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1885130&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1884903&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Bodega Insumos Fundo Santa Bernardita, Guillermo Prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7866,30 +7866,30 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Guillermo Prohens Sommella S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>27/12/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1885130&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7919,15 +7919,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,17 +7975,17 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8015,25 +8015,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8063,25 +8063,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Central Hidroelectrica Balalita (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8106,30 +8106,30 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Hidrobalalita S.A</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>17752</v>
+        <v>0</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>30/10/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1771727&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8144,7 +8144,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Central Hidroelectrica Balalita (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8154,30 +8154,30 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Hidrobalalita S.A</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>250</v>
+        <v>17752</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>30/10/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1771727&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8192,7 +8192,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8207,25 +8207,25 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>IMPLEMENTACIÓN PLANTA DE SECADO DE JIBIA LEE, EN SECTOR VARILLAR, COMUNA DE VICUÑA (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8250,30 +8250,30 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Sang Baek Lee</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>850</v>
+        <v>20</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>21/06/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1510008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8288,7 +8288,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>IMPLEMENTACIÓN PLANTA DE SECADO DE JIBIA LEE, EN SECTOR VARILLAR, COMUNA DE VICUÑA (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8298,30 +8298,30 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Sang Baek Lee</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>72</v>
+        <v>850</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>21/06/2006</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1510008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8336,7 +8336,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELECTRICA PUCLARO (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8346,20 +8346,20 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>HIDROELECTRICA PUCLARO S.A.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>4800</v>
+        <v>72</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8369,7 +8369,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1180412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8384,7 +8384,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>CENTRAL HIDROELECTRICA PUCLARO (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8394,30 +8394,30 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>HIDROELECTRICA PUCLARO S.A.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>72</v>
+        <v>4800</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1180412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8432,7 +8432,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8447,25 +8447,25 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8480,7 +8480,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8495,15 +8495,15 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8513,7 +8513,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8528,7 +8528,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Implementacion de una planta de Riles (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8538,30 +8538,30 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>12/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1013416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Implementacion de una planta de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8586,30 +8586,30 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>12/09/2005</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1013416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8639,11 +8639,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8672,7 +8672,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8687,11 +8687,11 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8720,7 +8720,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Manejo de RILES de la Bodega de Vinos , Viña Falernia (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8730,30 +8730,30 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>29/08/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=951200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8768,7 +8768,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ACTUALIZACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE COQUIMBO (e-seia)</t>
+          <t>Manejo de RILES de la Bodega de Vinos , Viña Falernia (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8783,25 +8783,25 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Coquimbo</t>
+          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>05/08/2005</t>
+          <t>29/08/2005</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=951200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>ACTUALIZACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE COQUIMBO (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8826,20 +8826,20 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Coquimbo</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>05/08/2005</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8849,7 +8849,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8864,7 +8864,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8879,15 +8879,15 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8897,7 +8897,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8912,7 +8912,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Tranque de Relaves Socorro Nº 6, Planta Talcuna (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8922,20 +8922,20 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>11/05/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8945,7 +8945,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=348710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8960,7 +8960,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Tranque de Relaves Socorro N° 6, Planta Talcuna (e-seia)</t>
+          <t>Modificación Proyecto de Tranque de Relaves Socorro Nº 6, Planta Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8979,21 +8979,21 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>04/05/2004</t>
+          <t>11/05/2004</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=341485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=348710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9008,7 +9008,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Tranque de Relaves YENNY 1-2 (e-seia)</t>
+          <t>Modificación Proyecto de Tranque de Relaves Socorro N° 6, Planta Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9023,25 +9023,25 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Palo Negro</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>239</v>
+        <v>1</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>04/05/2004</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=218797&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=341485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9056,7 +9056,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Tranque de Relaves Yenny 1 - 2 (e-seia)</t>
+          <t>Tranque de Relaves YENNY 1-2 (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9075,21 +9075,21 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>27/11/2003</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=211049&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=218797&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9104,7 +9104,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Tranque de Relaves Las Mollacas (e-seia)</t>
+          <t>Tranque de Relaves Yenny 1 - 2 (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9123,21 +9123,21 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>09/10/2003</t>
+          <t>27/11/2003</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=172416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=211049&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9152,7 +9152,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Tranque de Relaves Las Mollacas (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9162,30 +9162,30 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Sociedad Contractual Minera Palo Negro</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>09/10/2003</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=172416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9200,7 +9200,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Reformulación Plan Regulador Comunal de Vicuña</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9210,20 +9210,20 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Vicuña</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>16/10/2002</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9233,7 +9233,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5922&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9248,7 +9248,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Bodega Viña Falernia (e-seia)</t>
+          <t>Reformulación Plan Regulador Comunal de Vicuña</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9263,25 +9263,25 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Alamo Ltda.</t>
+          <t>Ilustre Municipalidad de Vicuña</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>14/10/2002</t>
+          <t>16/10/2002</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5922&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9296,7 +9296,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Tranque (Depósito) de Relaves Mantos de Talcuna Nº4 Planta Don Arturo</t>
+          <t>Bodega Viña Falernia (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9311,25 +9311,25 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Compañía Minera Cobrex</t>
+          <t>Sociedad Agrícola El Alamo Ltda.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>2050</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>26/02/2002</t>
+          <t>14/10/2002</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9344,7 +9344,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Proyecto Tranque (Depósito) de Relaves Sector Los Infieles-Planta Talcuna</t>
+          <t>Tranque (Depósito) de Relaves Mantos de Talcuna Nº4 Planta Don Arturo</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9359,7 +9359,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Compañía Minera Cobrex</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>03/12/2001</t>
+          <t>26/02/2002</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9377,7 +9377,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9392,7 +9392,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Proyecto Tranque (Depósito) de Relaves Sector Los Infieles-Planta Talcuna</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9402,30 +9402,30 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>03/12/2001</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9440,7 +9440,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Proyecto Tranque de Relaves Sector La Tococa - Planta Talcuna</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9450,30 +9450,30 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>08/06/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9488,30 +9488,30 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Proyecto Tranque de Relaves Sector La Tococa - Planta Talcuna</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>1230</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>08/06/2001</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9536,40 +9536,40 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Proyecto de Tranque de Relave Sector El Plomo-Planta Talcuna</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>19/02/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9584,7 +9584,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Proyecto Cabañas y Centro Recreacional Don Demetrio</t>
+          <t>Proyecto de Tranque de Relave Sector El Plomo-Planta Talcuna</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9599,25 +9599,25 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Gustavo Psijas Pizarro</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>01/02/2001</t>
+          <t>19/02/2001</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9632,7 +9632,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Proyecto Tranque de Relaves Sector La Higuera-Planta Talcuna</t>
+          <t>Proyecto Cabañas y Centro Recreacional Don Demetrio</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9647,15 +9647,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Gustavo Psijas Pizarro</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>15/01/2001</t>
+          <t>01/02/2001</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9665,7 +9665,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9680,7 +9680,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Subestación de Poder Eléctrica Sector La Compañía Vicuña IV Región</t>
+          <t>Proyecto Tranque de Relaves Sector La Higuera-Planta Talcuna</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9695,15 +9695,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>16/06/2000</t>
+          <t>15/01/2001</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9713,7 +9713,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9728,7 +9728,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Subestación de Poder Eléctrica Sector La Compañía Vicuña IV Región</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9738,20 +9738,20 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>110</v>
+        <v>700</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>16/06/2000</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9761,7 +9761,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9776,7 +9776,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento y Disposición Final de Residuos Industriales Líquidos CAPEL Planta Vicuña</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9786,20 +9786,20 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>270</v>
+        <v>110</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>07/02/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9809,7 +9809,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2662&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9824,7 +9824,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Proyecto de Tranque de Relaves Socorro Nº6 Planta Talcuna</t>
+          <t>Sistema de Tratamiento y Disposición Final de Residuos Industriales Líquidos CAPEL Planta Vicuña</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9839,15 +9839,15 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>17/12/1999</t>
+          <t>07/02/2000</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2662&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9872,7 +9872,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Sistema de Acumulación o Almacenaje de Residuos Sólidos Industriales Planta Minera San Gerónimo</t>
+          <t>Proyecto de Tranque de Relaves Socorro Nº6 Planta Talcuna</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,21 +9891,21 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>06/12/1999</t>
+          <t>17/12/1999</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9920,7 +9920,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento y Disposición Final de Aguas Servidas de la Localidad de Peralillo</t>
+          <t>Sistema de Acumulación o Almacenaje de Residuos Sólidos Industriales Planta Minera San Gerónimo</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9935,25 +9935,25 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Aguas del Valle S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>470</v>
+        <v>30</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>02/11/1999</t>
+          <t>06/12/1999</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2407&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9968,7 +9968,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Aguas Servidas de la Localidad de Gualliguaica</t>
+          <t>Planta de Tratamiento y Disposición Final de Aguas Servidas de la Localidad de Peralillo</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9987,11 +9987,11 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>190</v>
+        <v>470</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>13/09/1999</t>
+          <t>02/11/1999</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10001,7 +10001,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2407&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10016,7 +10016,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Aguas Servidas de la Localidad de Punta Azul</t>
+          <t>Sistema de Tratamiento de Aguas Servidas de la Localidad de Gualliguaica</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10035,7 +10035,7 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10064,7 +10064,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Complejo Agroturístico Valle de Elqui</t>
+          <t>Sistema de Tratamiento de Aguas Servidas de la Localidad de Punta Azul</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10079,15 +10079,15 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Tamblay Silva</t>
+          <t>Aguas del Valle S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>350</v>
+        <v>130</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>09/09/1999</t>
+          <t>13/09/1999</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10097,7 +10097,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10112,7 +10112,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Servicio de Agua Potable Rural Nueva Gualliguaica Comuna de Vicuña</t>
+          <t>Complejo Agroturístico Valle de Elqui</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10127,25 +10127,25 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Tamblay Silva</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>11/02/1999</t>
+          <t>09/09/1999</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10160,7 +10160,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Tranques de Relaves Transitorio Planta Don Arturo de Talcuna</t>
+          <t>Servicio de Agua Potable Rural Nueva Gualliguaica Comuna de Vicuña</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10175,15 +10175,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Compañía Minera Cobrex</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>15000</v>
+        <v>290</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>12/03/1998</t>
+          <t>11/02/1999</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10193,7 +10193,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=716&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Construcción Observatorio Astronómico Solar Telescopio</t>
+          <t>Tranques de Relaves Transitorio Planta Don Arturo de Talcuna</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10223,15 +10223,15 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Asociación de Universidades para Investigación en Astronomía (AURA, Inc)</t>
+          <t>Compañía Minera Cobrex</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>30/10/1997</t>
+          <t>12/03/1998</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10241,7 +10241,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=716&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10256,7 +10256,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Construcción Observatorio Astronómico Comunal II Etapa</t>
+          <t>Construcción Observatorio Astronómico Solar Telescopio</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10271,15 +10271,15 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Vicuña</t>
+          <t>Asociación de Universidades para Investigación en Astronomía (AURA, Inc)</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>260</v>
+        <v>28000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>24/07/1997</t>
+          <t>30/10/1997</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10289,7 +10289,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10304,7 +10304,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Reposición Escuela Nueva Talcuna</t>
+          <t>Construcción Observatorio Astronómico Comunal II Etapa</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10323,7 +10323,7 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10352,7 +10352,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Reposición Escuela Viñita Alta</t>
+          <t>Reposición Escuela Nueva Talcuna</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10400,12 +10400,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Estudio Integral Tranques Relaves Pastos Largos</t>
+          <t>Reposición Escuela Viñita Alta</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -10415,25 +10415,25 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>CIA. MINERA BARRICK CHILE LTDA.</t>
+          <t>Ilustre Municipalidad de Vicuña</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>2810</v>
+        <v>350</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>14/08/1996</t>
+          <t>24/07/1997</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=80&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10448,7 +10448,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Caminos de Acceso y Líneas de Alta Tensión a los Proyectos Nevada y El Indio</t>
+          <t>Estudio Integral Tranques Relaves Pastos Largos</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10458,20 +10458,20 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Compañia Minera Nevada SpA</t>
+          <t>CIA. MINERA BARRICK CHILE LTDA.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>46000</v>
+        <v>2810</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>19/03/1996</t>
+          <t>14/08/1996</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10481,7 +10481,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=80&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10496,7 +10496,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Planta JIGG Quebrada de Marquesa</t>
+          <t>Caminos de Acceso y Líneas de Alta Tensión a los Proyectos Nevada y El Indio</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10506,20 +10506,20 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Manganesos Atacama S.A. Ltda.</t>
+          <t>Compañia Minera Nevada SpA</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>200</v>
+        <v>46000</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>17/10/1995</t>
+          <t>19/03/1996</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10529,7 +10529,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10544,43 +10544,91 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
+          <t>Planta JIGG Quebrada de Marquesa</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Cuarta</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Manganesos Atacama S.A. Ltda.</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>200</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>17/10/1995</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>Vicuña</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
           <t>Proyecto Minero Tambo</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D213" t="inlineStr">
+      <c r="D214" t="inlineStr">
         <is>
           <t>Cuarta</t>
         </is>
       </c>
-      <c r="E213" t="inlineStr">
+      <c r="E214" t="inlineStr">
         <is>
           <t>CIA. MINERA BARRICK CHILE LTDA.</t>
         </is>
       </c>
-      <c r="F213" t="n">
+      <c r="F214" t="n">
         <v>115000</v>
       </c>
-      <c r="G213" t="inlineStr">
+      <c r="G214" t="inlineStr">
         <is>
           <t>20/07/1994</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
+      <c r="H214" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I213" t="inlineStr">
+      <c r="I214" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=148&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J213" t="inlineStr">
+      <c r="J214" t="inlineStr">
         <is>
           <t>Vicuña</t>
         </is>

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Modificaciones Minera Linderos</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,16 +2546,16 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificaciones Minera Linderos</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,16 +2594,16 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificaciones Minera Linderos</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,16 +2546,16 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Modificaciones Minera Linderos</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,16 +2594,16 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Modificaciones Minera Linderos</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,16 +2546,16 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificaciones Minera Linderos</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,16 +2594,16 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J214"/>
+  <dimension ref="A1:J215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Alto Solar SPA</t>
+          <t>ROBERTO ANDRES MONTENEGRO RAMIREZ</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>161261</v>
+        <v>61261</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/02/2023</t>
+          <t>16/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158677332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158865055&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mina Yeso Corral</t>
+          <t>Parque Fotovoltaico Alto Solar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Yesos Andinas SPA</t>
+          <t>Alto Solar SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>161261</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>25/01/2023</t>
+          <t>18/02/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158513816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158677332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Alto Solar</t>
+          <t>Mina Yeso Corral</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Alto Solar SPA</t>
+          <t>Yesos Andinas SPA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>161261</v>
+        <v>100</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20/01/2023</t>
+          <t>25/01/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158033795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158513816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mina Yeso Corral</t>
+          <t>Parque Fotovoltaico Alto Solar</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Yesos Andinos SPA</t>
+          <t>Alto Solar SPA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>161261</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>18/10/2022</t>
+          <t>20/01/2023</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157197696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158033795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Crecimiento Tranque de Relaves Panules</t>
+          <t>Mina Yeso Corral</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SOCIEDAD SERVICIOS A LA MINERIA OMINT SPA</t>
+          <t>Yesos Andinos SPA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>06/01/2022</t>
+          <t>18/10/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154614776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157197696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>28/12/2021</t>
+          <t>06/01/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154497249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154614776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Repotenciamiento PMGD Luna II</t>
+          <t>Crecimiento Tranque de Relaves Panules</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Parque Solar Luna del Norte SpA</t>
+          <t>SOCIEDAD SERVICIOS A LA MINERIA OMINT SPA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1900</v>
+        <v>250</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>23/07/2020</t>
+          <t>28/12/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147476824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154497249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Repotenciamiento PMGD SOL II</t>
+          <t>Repotenciamiento PMGD Luna II</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,11 +775,11 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Parque Solar Sol del Norte SpA</t>
+          <t>Parque Solar Luna del Norte SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3750</v>
+        <v>1900</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147482505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147476824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Proyecto Minero Arqueros</t>
+          <t>Repotenciamiento PMGD SOL II</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>COMPAÑÍA MINERA ARQUEROS S.A.</t>
+          <t>Parque Solar Sol del Norte SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>200000</v>
+        <v>3750</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>25/05/2020</t>
+          <t>23/07/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146624103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147482505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,12 +856,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Fundo San Isidro</t>
+          <t>Proyecto Minero Arqueros</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FSI Solar SpA</t>
+          <t>COMPAÑÍA MINERA ARQUEROS S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>15000</v>
+        <v>200000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23/04/2020</t>
+          <t>25/05/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146361278&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146624103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>LENERGIA CHILE SpA</t>
+          <t>FSI Solar SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -927,17 +927,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>23/03/2020</t>
+          <t>23/04/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146016174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146361278&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Planta Fotovoltaica Fundo San Isidro</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>LENERGIA CHILE SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>23/03/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146016174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica Santa Francisca</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,20 +1010,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CVE Proyecto Diecisiete SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>7600</v>
+        <v>25000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>22/11/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144992691&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Nuevo sistema de tratamiento de aguas servidas de Vicuña, región de Coquimbo</t>
+          <t>Nueva Central Solar Fotovoltaica Santa Francisca</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Aguas del Valle S.A.</t>
+          <t>CVE Proyecto Diecisiete SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>5200</v>
+        <v>7600</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>28/10/2019</t>
+          <t>22/11/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144513629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144992691&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Central GLP Talcuna</t>
+          <t>Nuevo sistema de tratamiento de aguas servidas de Vicuña, región de Coquimbo</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MARQUESA GLP SpA</t>
+          <t>Aguas del Valle S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3500</v>
+        <v>5200</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>23/07/2019</t>
+          <t>28/10/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143765092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144513629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Proyecto ?Faena Minera ?Mina San Antonio?, explotación a 40.000 ton/mes?</t>
+          <t>Central GLP Talcuna</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>MARQUESA GLP SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4200</v>
+        <v>3500</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>21/11/2018</t>
+          <t>23/07/2019</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141692561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143765092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
+          <t>Proyecto ?Faena Minera ?Mina San Antonio?, explotación a 40.000 ton/mes?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,20 +1202,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>27/06/2018</t>
+          <t>21/11/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141692561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Gabriela</t>
+          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Bronte SpA</t>
+          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>22/03/2018</t>
+          <t>27/06/2018</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138751214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Parque solar Llanos de Potroso</t>
+          <t>Parque Fotovoltaico Gabriela</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Llanos de Potroso SpA</t>
+          <t>Bronte SpA</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>23/11/2016</t>
+          <t>22/03/2018</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131950285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138751214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>20/10/2016</t>
+          <t>23/11/2016</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131822429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131950285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Parque Solar Llanos de Potroso</t>
+          <t>Parque solar Llanos de Potroso</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>16/09/2016</t>
+          <t>20/10/2016</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131726680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131822429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PARQUE SOLAR CASA DE PIEDRA</t>
+          <t>Parque Solar Llanos de Potroso</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1451,11 +1451,11 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>62000</v>
+        <v>12000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>22/04/2016</t>
+          <t>16/09/2016</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131323063&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131726680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Parque Solar Casa de Piedra</t>
+          <t>PARQUE SOLAR CASA DE PIEDRA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>24/03/2016</t>
+          <t>22/04/2016</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131266497&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131323063&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Parque Solar Casa de Piedra - Llanos de Potroso</t>
+          <t>Parque Solar Casa de Piedra</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1547,11 +1547,11 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>95130</v>
+        <v>62000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>19/02/2016</t>
+          <t>24/03/2016</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131156984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131266497&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas para Transporte Terrestre de Residuos y Sustancias Peligrosas a Granel desde la I a la X Región</t>
+          <t>Parque Solar Casa de Piedra - Llanos de Potroso</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,20 +1586,20 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Llanos de Potroso SpA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>95130</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>11/12/2015</t>
+          <t>19/02/2016</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130832601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131156984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>La Represa</t>
+          <t>Ampliación de Rutas para Transporte Terrestre de Residuos y Sustancias Peligrosas a Granel desde la I a la X Región</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Minera La Reserva Limitada</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>13/10/2015</t>
+          <t>11/12/2015</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130820333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130832601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1695,17 +1695,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>13/10/2015</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130803747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130820333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Proyecto La Represa</t>
+          <t>La Represa</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>26/08/2015</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130712151&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130803747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Prospección Minera Arqueros - Fase 2</t>
+          <t>Proyecto La Represa</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Compañía Minera Arqueros S.A.</t>
+          <t>Minera La Reserva Limitada</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>22800</v>
+        <v>2500</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>09/07/2015</t>
+          <t>26/08/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130595293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130712151&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Prospección Minera Alturas</t>
+          <t>Prospección Minera Arqueros - Fase 2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Compañía Minera Salitrales Limitada</t>
+          <t>Compañía Minera Arqueros S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>70000</v>
+        <v>22800</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>04/05/2015</t>
+          <t>09/07/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130424679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130595293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>24/04/2015</t>
+          <t>04/05/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130402498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130424679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Prospección Minera Alturas</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,20 +1922,20 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía Minera Salitrales Limitada</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>5000</v>
+        <v>70000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>24/04/2015</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130402498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Prospección Minera Alturas</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Compañía Minera Salitrales Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>70000</v>
+        <v>5000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>22/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130150788&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>30/12/2014</t>
+          <t>22/01/2015</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130084416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130150788&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Prospección Minera Alturas</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,20 +2066,20 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía Minera Salitrales Limitada</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>5000</v>
+        <v>70000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>30/12/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130084416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2175,17 +2175,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2415,17 +2415,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MINA SUBTERRÁNEA 21 DE MAYO DE CMSG EN TALCUNA, PRODUCCIÓN A 50 KTM</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>19/03/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129233665&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Modificaciones Minera Linderos</t>
+          <t>MINA SUBTERRÁNEA 21 DE MAYO DE CMSG EN TALCUNA, PRODUCCIÓN A 50 KTM</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3000</v>
+        <v>25000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>19/03/2014</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129233665&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificaciones Minera Linderos</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,16 +2594,16 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Regularizacion Ambiental del Proceso de Explotacion y Procesamiento de minerales, Yacimiento Talcuna</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,20 +2642,20 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SERVICIOS A LA MINERÍA OMINT SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>18/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128943882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2695,7 +2695,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Compañia Minera Talcuna Limitada</t>
+          <t>SERVICIOS A LA MINERÍA OMINT SPA</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -2703,17 +2703,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>12/12/2013</t>
+          <t>18/12/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916085&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128943882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Regularizacion Ambiental del proceso de Explotacion y Procesamiento de minerales, Yacimiento Talcuna</t>
+          <t>Regularizacion Ambiental del Proceso de Explotacion y Procesamiento de minerales, Yacimiento Talcuna</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2751,17 +2751,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>06/12/2013</t>
+          <t>12/12/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128894465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916085&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Regularizacion Ambiental del proceso de Explotacion y Procesamiento de minerales, Yacimiento Talcuna</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañia Minera Talcuna Limitada</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>06/12/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128894465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Aumento de Producción en Planta Condoriaco</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,20 +3170,20 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>16/11/2012</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7540103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3231,17 +3231,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>09/11/2012</t>
+          <t>16/11/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7510930&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7540103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Aumento de Producción en Planta Condoriaco</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>15000</v>
+        <v>500</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>09/11/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7510930&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ampliación Planta Talcuna Fase II, 120 KTM</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>11/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Proyecto Ampliación Planta Talcuna Fase II, 120KMT</t>
+          <t>Ampliación Planta Talcuna Fase II, 120 KTM</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3423,17 +3423,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>04/04/2012</t>
+          <t>11/04/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6768247&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Proyecto Ampliación Planta Talcuna Fase II, 120KMT</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>04/04/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6768247&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Regularización Embalse El Calvario</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Agrícola El Calvario S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>07/03/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6668178&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Regularización Embalse El Calvario</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Agrícola El Calvario S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>07/03/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6668178&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3759,7 +3759,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3851,21 +3851,21 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>75000</v>
+        <v>150</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>02/12/2010</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3899,21 +3899,21 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>150</v>
+        <v>75000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>27/10/2010</t>
+          <t>02/12/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Tranque de Relaves Panules</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>SERVICIOS A LA MINERÍA OMINT SPA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>3500</v>
+        <v>150</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>19/10/2010</t>
+          <t>27/10/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5011146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Compañia Minera Talcuna Limitada</t>
+          <t>SERVICIOS A LA MINERÍA OMINT SPA</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -3999,17 +3999,17 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>04/10/2010</t>
+          <t>19/10/2010</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4975616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5011146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>Tranque de Relaves Panules</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Compañia Minera Talcuna Limitada</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>563</v>
+        <v>3500</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>04/10/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4975616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1750</v>
+        <v>563</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>85</v>
+        <v>1750</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>20/05/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>20/05/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PROYECTO CONDORIACO (Planta de Cianuración para Minerales de Oro y Plata)</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>10/05/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4575438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>PROYECTO CONDORIACO (Planta de Cianuración para Minerales de Oro y Plata)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,20 +4274,20 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>4050</v>
+        <v>1000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>10/05/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4575438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PROYECTO CONDORIACO (Planta de Cianuración para Minerales de Oro y Plata)</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1000</v>
+        <v>4050</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>27/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4533719&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>PROYECTO CONDORIACO (Planta de Cianuración para Minerales de Oro y Plata)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>27/04/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4533719&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4527,7 +4527,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>San Bartolomé (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,30 +4658,30 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>D &amp; Q Mineral Compañía Limitada</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1313</v>
+        <v>350</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>27/11/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4197295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>San Bartolomé (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,30 +4706,30 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>D &amp; Q Mineral Compañía Limitada</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2000</v>
+        <v>1313</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>27/11/2009</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4197295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,25 +4759,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>377</v>
+        <v>2000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>07/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Alcantarillado, Tratamiento y Disposición Final de Aguas Servidas de Marquesa y Nueva Talcuna (e-seia)</t>
+          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,30 +4898,30 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Comite de Agua Potable Rural Marquesa-Nueva Talcuna</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>31/08/2009</t>
+          <t>07/09/2009</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4001865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Modificación Sistema de Alcantarillado, Tratamiento y Disposición Final de Aguas Servidas de Marquesa y Nueva Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,20 +4946,20 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Comite de Agua Potable Rural Marquesa-Nueva Talcuna</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>20/08/2009</t>
+          <t>31/08/2009</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983845&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4001865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Modificaciòn Sistema Alcantarillado y Tratamiento de Aguas Servidas de Marquesa y Nueva Talcuna (e-seia)</t>
+          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,30 +4994,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Comite de Agua Potable Rural Marquesa-Nueva Talcuna</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>17/08/2009</t>
+          <t>20/08/2009</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3951119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983845&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Modificaciòn Sistema Alcantarillado y Tratamiento de Aguas Servidas de Marquesa y Nueva Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,30 +5042,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Comite de Agua Potable Rural Marquesa-Nueva Talcuna</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>07/08/2009</t>
+          <t>17/08/2009</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3952839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3951119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>800</v>
+        <v>28</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>07/08/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3952839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Sistema de Disposicion de RILes (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,30 +5138,30 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Alamo Ltda.</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>40</v>
+        <v>800</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>31/03/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3661633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SISTEMA DE DISPOSICION DE RILES (e-seia)</t>
+          <t>Sistema de Disposicion de RILes (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5199,17 +5199,17 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>10/03/2009</t>
+          <t>31/03/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3661633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL SISTEMA DE TRATAMIENTO Y DISPOSICIÓN DE VINAZA, AGUAS DE LAVADO Y MANEJO DE ORUJO Y ESCOBAJO EN PLANTA AGROINDUSTRIAL VICUÑA (e-seia)</t>
+          <t>SISTEMA DE DISPOSICION DE RILES (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,25 +5239,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Sociedad Agrícola El Alamo Ltda.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>05/02/2009</t>
+          <t>10/03/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3542766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5295,17 +5295,17 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>05/02/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3530200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3542766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>MEJORAMIENTO DEL SISTEMA DE TRATAMIENTO Y DISPOSICIÓN DE VINAZA, AGUAS DE LAVADO Y MANEJO DE ORUJO Y ESCOBAJO EN PLANTA AGROINDUSTRIAL VICUÑA (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3530200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,36 +5368,40 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TRANQUE DE RELAVES HUMO CORRAL</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr"/>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>07/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3475081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5431,17 +5435,17 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>30/12/2008</t>
+          <t>07/01/2009</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3463284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3475081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5456,14 +5460,10 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Cultivo de la microalga Haematococcus pluvialis (e-seia)</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TRANQUE DE RELAVES HUMO CORRAL</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
           <t>Cuarta</t>
@@ -5471,25 +5471,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Alimtec S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>11/12/2008</t>
+          <t>30/12/2008</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3413969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3463284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5519,25 +5519,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Julio Ignacio Ilabaca Grez</t>
+          <t>Alimtec S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>11/12/2008</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3371390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3413969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5552,7 +5552,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>Cultivo de la microalga Haematococcus pluvialis (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5562,20 +5562,20 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Julio Ignacio Ilabaca Grez</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>25</v>
+        <v>5000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5585,7 +5585,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3371390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5600,7 +5600,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5615,25 +5615,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5648,7 +5648,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5663,25 +5663,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5696,7 +5696,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5711,25 +5711,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5744,7 +5744,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5759,11 +5759,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5772,12 +5772,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5825,7 +5825,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5855,25 +5855,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5921,7 +5921,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5936,7 +5936,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5951,15 +5951,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5969,7 +5969,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5999,25 +5999,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6047,25 +6047,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>20</v>
+        <v>3408</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6095,25 +6095,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Construccion y Operacion de Gran Telescopio de Rastreo Sinoptico (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6138,20 +6138,20 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Aura Inc</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>390000</v>
+        <v>80</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>25/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3073048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6199,17 +6199,17 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>17/07/2008</t>
+          <t>25/07/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3040083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3073048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6224,7 +6224,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Construccion y Operacion de Gran Telescopio de Rastreo Sinoptico (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6234,20 +6234,20 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Aura Inc</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>250</v>
+        <v>390000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>17/07/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3040083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6287,15 +6287,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6305,7 +6305,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6320,7 +6320,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6335,11 +6335,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6348,12 +6348,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6383,25 +6383,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6416,7 +6416,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6431,25 +6431,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>30/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6479,15 +6479,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>30/06/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6497,7 +6497,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6512,7 +6512,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6527,25 +6527,25 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6560,7 +6560,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6575,25 +6575,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6608,7 +6608,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Sistema de Manejo de Riles de Planta Pisquera Río Elqui (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6618,30 +6618,30 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Pisquera Río Elqui Ltda</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>18/03/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2781615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TRANQUE DE RELAVES ANY (e-seia)</t>
+          <t>Sistema de Manejo de Riles de Planta Pisquera Río Elqui (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6671,15 +6671,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Pisquera Río Elqui Ltda</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>520</v>
+        <v>50</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>06/02/2008</t>
+          <t>18/03/2008</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6689,7 +6689,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2693359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2781615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6704,7 +6704,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Sistema de manejo de riles de Planta Pisquera Río Elqui (e-seia)</t>
+          <t>TRANQUE DE RELAVES ANY (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6719,25 +6719,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Pisquera Río Elqui Ltda</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>50</v>
+        <v>520</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>30/01/2008</t>
+          <t>06/02/2008</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2659042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2693359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6752,7 +6752,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Sistema de manejo de riles de planta Pisquera Río Elqui (e-seia)</t>
+          <t>Sistema de manejo de riles de Planta Pisquera Río Elqui (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,7 +6775,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>27/12/2007</t>
+          <t>30/01/2008</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6785,7 +6785,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2595334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2659042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Proyecto Ampliación Planta Talcuna (e-seia)</t>
+          <t>Sistema de manejo de riles de planta Pisquera Río Elqui (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6815,25 +6815,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Pisquera Río Elqui Ltda</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>6000</v>
+        <v>50</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>10/12/2007</t>
+          <t>27/12/2007</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2570874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2595334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Proyecto Ampliación Planta Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6858,20 +6858,20 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>429</v>
+        <v>6000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>10/12/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2570874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6911,25 +6911,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6959,25 +6959,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7007,25 +7007,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7055,25 +7055,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7103,25 +7103,25 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Sistema de disposicion de riles Viña Falernia S.A. (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7146,20 +7146,20 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>01/08/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7169,7 +7169,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2241447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Bodega De Insumos fundo Huancara, Empresa Guillermo Prohens SommellaS.A. (e-seia)</t>
+          <t>Sistema de disposicion de riles Viña Falernia S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7199,15 +7199,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Guillermo Prohens Sommella S.A.</t>
+          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>01/08/2007</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7217,7 +7217,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2252698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2241447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Bodega de Insumos Fundo Sta. Bernardita, Empresa Guillermo Prohens Sommella S.A. (e-seia)</t>
+          <t>Bodega De Insumos fundo Huancara, Empresa Guillermo Prohens SommellaS.A. (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2257624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2252698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Bodega de Insumos Fundo Sta. Bernardita, Empresa Guillermo Prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7290,16 +7290,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Guillermo Prohens Sommella S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7308,12 +7308,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2257624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7343,15 +7343,15 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7391,25 +7391,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>DISPOSICION DE RILES VIÑA FALERNIA (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7434,30 +7434,30 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>31/05/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2176747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Sistema de disposicion de Riles Viña Falernia S.A. (e-seia)</t>
+          <t>DISPOSICION DE RILES VIÑA FALERNIA (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,7 +7495,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>02/04/2007</t>
+          <t>31/05/2007</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2078043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2176747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Sistema de disposicion de Riles Viña Falernia S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7530,20 +7530,20 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>02/04/2007</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2078043&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7583,15 +7583,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Bodega de Insumos, Fundo Huancara, Guillermo prohens Sommella S.A. (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7626,20 +7626,20 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Guillermo Prohens Sommella S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>22/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1934992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Bodega de Insumos Fundo Santa Bernardita, Guillermo Prohens Sommella S.A. (e-seia)</t>
+          <t>Bodega de Insumos, Fundo Huancara, Guillermo prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1935186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1934992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Bodega de Insumos Fundo Santa Bernardita, Guillermo Prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7722,30 +7722,30 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Guillermo Prohens Sommella S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>22/01/2007</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1935186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,17 +7783,17 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Bodega Insumos Fundo Huancara, Guillermo Prohens Sommella S.A. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7818,20 +7818,20 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Guillermo Prohens Sommella S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>21</v>
+        <v>200</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>27/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1884903&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Bodega Insumos Fundo Santa Bernardita, Guillermo Prohens Sommella S.A. (e-seia)</t>
+          <t>Bodega Insumos Fundo Huancara, Guillermo Prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7889,7 +7889,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1885130&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1884903&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Bodega Insumos Fundo Santa Bernardita, Guillermo Prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7914,30 +7914,30 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Guillermo Prohens Sommella S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>27/12/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1885130&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7967,15 +7967,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,17 +8023,17 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8063,25 +8063,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8111,25 +8111,25 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8144,7 +8144,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Central Hidroelectrica Balalita (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8154,30 +8154,30 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Hidrobalalita S.A</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>17752</v>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>30/10/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1771727&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8192,7 +8192,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Central Hidroelectrica Balalita (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8202,30 +8202,30 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Hidrobalalita S.A</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>250</v>
+        <v>17752</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>30/10/2006</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1771727&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8255,25 +8255,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8288,7 +8288,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>IMPLEMENTACIÓN PLANTA DE SECADO DE JIBIA LEE, EN SECTOR VARILLAR, COMUNA DE VICUÑA (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8298,30 +8298,30 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Sang Baek Lee</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>850</v>
+        <v>20</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>21/06/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1510008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8336,7 +8336,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>IMPLEMENTACIÓN PLANTA DE SECADO DE JIBIA LEE, EN SECTOR VARILLAR, COMUNA DE VICUÑA (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8346,30 +8346,30 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Sang Baek Lee</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>72</v>
+        <v>850</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>21/06/2006</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1510008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8384,7 +8384,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELECTRICA PUCLARO (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8394,20 +8394,20 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>HIDROELECTRICA PUCLARO S.A.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>4800</v>
+        <v>72</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8417,7 +8417,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1180412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8432,7 +8432,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>CENTRAL HIDROELECTRICA PUCLARO (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8442,30 +8442,30 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>HIDROELECTRICA PUCLARO S.A.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>72</v>
+        <v>4800</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1180412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8480,7 +8480,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8495,25 +8495,25 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8528,7 +8528,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8543,15 +8543,15 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8561,7 +8561,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Implementacion de una planta de Riles (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8586,30 +8586,30 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>12/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1013416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Implementacion de una planta de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8634,30 +8634,30 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>12/09/2005</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1013416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8687,11 +8687,11 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8720,7 +8720,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8735,11 +8735,11 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8768,7 +8768,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Manejo de RILES de la Bodega de Vinos , Viña Falernia (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8778,30 +8778,30 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>29/08/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=951200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ACTUALIZACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE COQUIMBO (e-seia)</t>
+          <t>Manejo de RILES de la Bodega de Vinos , Viña Falernia (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8831,25 +8831,25 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Coquimbo</t>
+          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>05/08/2005</t>
+          <t>29/08/2005</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=951200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8864,7 +8864,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>ACTUALIZACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE COQUIMBO (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8874,20 +8874,20 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Coquimbo</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>05/08/2005</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8897,7 +8897,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8912,7 +8912,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8927,15 +8927,15 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8945,7 +8945,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8960,7 +8960,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Tranque de Relaves Socorro Nº 6, Planta Talcuna (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8970,20 +8970,20 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>11/05/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=348710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9008,7 +9008,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Tranque de Relaves Socorro N° 6, Planta Talcuna (e-seia)</t>
+          <t>Modificación Proyecto de Tranque de Relaves Socorro Nº 6, Planta Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9027,21 +9027,21 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>04/05/2004</t>
+          <t>11/05/2004</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=341485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=348710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9056,7 +9056,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Tranque de Relaves YENNY 1-2 (e-seia)</t>
+          <t>Modificación Proyecto de Tranque de Relaves Socorro N° 6, Planta Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9071,25 +9071,25 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Palo Negro</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>239</v>
+        <v>1</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>04/05/2004</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=218797&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=341485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9104,7 +9104,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Tranque de Relaves Yenny 1 - 2 (e-seia)</t>
+          <t>Tranque de Relaves YENNY 1-2 (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9123,21 +9123,21 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>27/11/2003</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=211049&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=218797&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9152,7 +9152,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Tranque de Relaves Las Mollacas (e-seia)</t>
+          <t>Tranque de Relaves Yenny 1 - 2 (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9171,21 +9171,21 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>09/10/2003</t>
+          <t>27/11/2003</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=172416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=211049&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9200,7 +9200,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Tranque de Relaves Las Mollacas (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9210,30 +9210,30 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Sociedad Contractual Minera Palo Negro</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>09/10/2003</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=172416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9248,7 +9248,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Reformulación Plan Regulador Comunal de Vicuña</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9258,20 +9258,20 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Vicuña</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>16/10/2002</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9281,7 +9281,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5922&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9296,7 +9296,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Bodega Viña Falernia (e-seia)</t>
+          <t>Reformulación Plan Regulador Comunal de Vicuña</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9311,25 +9311,25 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Alamo Ltda.</t>
+          <t>Ilustre Municipalidad de Vicuña</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>14/10/2002</t>
+          <t>16/10/2002</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5922&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9344,7 +9344,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Tranque (Depósito) de Relaves Mantos de Talcuna Nº4 Planta Don Arturo</t>
+          <t>Bodega Viña Falernia (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9359,25 +9359,25 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Compañía Minera Cobrex</t>
+          <t>Sociedad Agrícola El Alamo Ltda.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0</v>
+        <v>2050</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>26/02/2002</t>
+          <t>14/10/2002</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9392,7 +9392,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Proyecto Tranque (Depósito) de Relaves Sector Los Infieles-Planta Talcuna</t>
+          <t>Tranque (Depósito) de Relaves Mantos de Talcuna Nº4 Planta Don Arturo</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9407,7 +9407,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Compañía Minera Cobrex</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>03/12/2001</t>
+          <t>26/02/2002</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9425,7 +9425,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9440,7 +9440,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Proyecto Tranque (Depósito) de Relaves Sector Los Infieles-Planta Talcuna</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9450,30 +9450,30 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>03/12/2001</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9488,7 +9488,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Proyecto Tranque de Relaves Sector La Tococa - Planta Talcuna</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9498,30 +9498,30 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>08/06/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9536,30 +9536,30 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Proyecto Tranque de Relaves Sector La Tococa - Planta Talcuna</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>1230</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>08/06/2001</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9569,7 +9569,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9584,40 +9584,40 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Proyecto de Tranque de Relave Sector El Plomo-Planta Talcuna</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>19/02/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9632,7 +9632,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Proyecto Cabañas y Centro Recreacional Don Demetrio</t>
+          <t>Proyecto de Tranque de Relave Sector El Plomo-Planta Talcuna</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9647,25 +9647,25 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Gustavo Psijas Pizarro</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>01/02/2001</t>
+          <t>19/02/2001</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9680,7 +9680,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Proyecto Tranque de Relaves Sector La Higuera-Planta Talcuna</t>
+          <t>Proyecto Cabañas y Centro Recreacional Don Demetrio</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9695,15 +9695,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Gustavo Psijas Pizarro</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>15/01/2001</t>
+          <t>01/02/2001</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9713,7 +9713,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9728,7 +9728,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Subestación de Poder Eléctrica Sector La Compañía Vicuña IV Región</t>
+          <t>Proyecto Tranque de Relaves Sector La Higuera-Planta Talcuna</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9743,15 +9743,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>16/06/2000</t>
+          <t>15/01/2001</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9761,7 +9761,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9776,7 +9776,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Subestación de Poder Eléctrica Sector La Compañía Vicuña IV Región</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9786,20 +9786,20 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>110</v>
+        <v>700</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>16/06/2000</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9809,7 +9809,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9824,7 +9824,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento y Disposición Final de Residuos Industriales Líquidos CAPEL Planta Vicuña</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9834,20 +9834,20 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>270</v>
+        <v>110</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>07/02/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2662&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9872,7 +9872,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Proyecto de Tranque de Relaves Socorro Nº6 Planta Talcuna</t>
+          <t>Sistema de Tratamiento y Disposición Final de Residuos Industriales Líquidos CAPEL Planta Vicuña</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9887,15 +9887,15 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>17/12/1999</t>
+          <t>07/02/2000</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9905,7 +9905,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2662&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9920,7 +9920,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Sistema de Acumulación o Almacenaje de Residuos Sólidos Industriales Planta Minera San Gerónimo</t>
+          <t>Proyecto de Tranque de Relaves Socorro Nº6 Planta Talcuna</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9939,21 +9939,21 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>06/12/1999</t>
+          <t>17/12/1999</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9968,7 +9968,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento y Disposición Final de Aguas Servidas de la Localidad de Peralillo</t>
+          <t>Sistema de Acumulación o Almacenaje de Residuos Sólidos Industriales Planta Minera San Gerónimo</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9983,25 +9983,25 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Aguas del Valle S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>470</v>
+        <v>30</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>02/11/1999</t>
+          <t>06/12/1999</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2407&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10016,7 +10016,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Aguas Servidas de la Localidad de Gualliguaica</t>
+          <t>Planta de Tratamiento y Disposición Final de Aguas Servidas de la Localidad de Peralillo</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10035,11 +10035,11 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>190</v>
+        <v>470</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>13/09/1999</t>
+          <t>02/11/1999</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10049,7 +10049,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2407&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10064,7 +10064,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Aguas Servidas de la Localidad de Punta Azul</t>
+          <t>Sistema de Tratamiento de Aguas Servidas de la Localidad de Gualliguaica</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10083,7 +10083,7 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10112,7 +10112,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Complejo Agroturístico Valle de Elqui</t>
+          <t>Sistema de Tratamiento de Aguas Servidas de la Localidad de Punta Azul</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10127,15 +10127,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Tamblay Silva</t>
+          <t>Aguas del Valle S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>350</v>
+        <v>130</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>09/09/1999</t>
+          <t>13/09/1999</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10145,7 +10145,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10160,7 +10160,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Servicio de Agua Potable Rural Nueva Gualliguaica Comuna de Vicuña</t>
+          <t>Complejo Agroturístico Valle de Elqui</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10175,25 +10175,25 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Tamblay Silva</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>11/02/1999</t>
+          <t>09/09/1999</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Tranques de Relaves Transitorio Planta Don Arturo de Talcuna</t>
+          <t>Servicio de Agua Potable Rural Nueva Gualliguaica Comuna de Vicuña</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10223,15 +10223,15 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Compañía Minera Cobrex</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>15000</v>
+        <v>290</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>12/03/1998</t>
+          <t>11/02/1999</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10241,7 +10241,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=716&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10256,7 +10256,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Construcción Observatorio Astronómico Solar Telescopio</t>
+          <t>Tranques de Relaves Transitorio Planta Don Arturo de Talcuna</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10271,15 +10271,15 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Asociación de Universidades para Investigación en Astronomía (AURA, Inc)</t>
+          <t>Compañía Minera Cobrex</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>30/10/1997</t>
+          <t>12/03/1998</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10289,7 +10289,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=716&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10304,7 +10304,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Construcción Observatorio Astronómico Comunal II Etapa</t>
+          <t>Construcción Observatorio Astronómico Solar Telescopio</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10319,15 +10319,15 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Vicuña</t>
+          <t>Asociación de Universidades para Investigación en Astronomía (AURA, Inc)</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>260</v>
+        <v>28000</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>24/07/1997</t>
+          <t>30/10/1997</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10337,7 +10337,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10352,7 +10352,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Reposición Escuela Nueva Talcuna</t>
+          <t>Construcción Observatorio Astronómico Comunal II Etapa</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10400,7 +10400,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Reposición Escuela Viñita Alta</t>
+          <t>Reposición Escuela Nueva Talcuna</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10419,7 +10419,7 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10448,12 +10448,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Estudio Integral Tranques Relaves Pastos Largos</t>
+          <t>Reposición Escuela Viñita Alta</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -10463,25 +10463,25 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>CIA. MINERA BARRICK CHILE LTDA.</t>
+          <t>Ilustre Municipalidad de Vicuña</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>2810</v>
+        <v>350</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>14/08/1996</t>
+          <t>24/07/1997</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=80&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10496,7 +10496,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Caminos de Acceso y Líneas de Alta Tensión a los Proyectos Nevada y El Indio</t>
+          <t>Estudio Integral Tranques Relaves Pastos Largos</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10506,20 +10506,20 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Compañia Minera Nevada SpA</t>
+          <t>CIA. MINERA BARRICK CHILE LTDA.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>46000</v>
+        <v>2810</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>19/03/1996</t>
+          <t>14/08/1996</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10529,7 +10529,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=80&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10544,7 +10544,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Planta JIGG Quebrada de Marquesa</t>
+          <t>Caminos de Acceso y Líneas de Alta Tensión a los Proyectos Nevada y El Indio</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10554,20 +10554,20 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Manganesos Atacama S.A. Ltda.</t>
+          <t>Compañia Minera Nevada SpA</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>200</v>
+        <v>46000</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>17/10/1995</t>
+          <t>19/03/1996</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10577,7 +10577,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10592,43 +10592,91 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
+          <t>Planta JIGG Quebrada de Marquesa</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Cuarta</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Manganesos Atacama S.A. Ltda.</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>200</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>17/10/1995</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>Vicuña</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
           <t>Proyecto Minero Tambo</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>Cuarta</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Cuarta</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
         <is>
           <t>CIA. MINERA BARRICK CHILE LTDA.</t>
         </is>
       </c>
-      <c r="F214" t="n">
+      <c r="F215" t="n">
         <v>115000</v>
       </c>
-      <c r="G214" t="inlineStr">
+      <c r="G215" t="inlineStr">
         <is>
           <t>20/07/1994</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
+      <c r="H215" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I214" t="inlineStr">
+      <c r="I215" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=148&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J214" t="inlineStr">
+      <c r="J215" t="inlineStr">
         <is>
           <t>Vicuña</t>
         </is>

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/03/2023</t>
+          <t>18/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Modificaciones Minera Linderos</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,16 +2594,16 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificaciones Minera Linderos</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,16 +2642,16 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificaciones Minera Linderos</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,16 +2594,16 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Modificaciones Minera Linderos</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,16 +2642,16 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -439,7 +439,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ROBERTO ANDRES MONTENEGRO RAMIREZ</t>
+          <t>Alto Solar SPA</t>
         </is>
       </c>
       <c r="F2" t="n">

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/04/2023</t>
+          <t>22/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Modificaciones Minera Linderos</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,16 +2594,16 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificaciones Minera Linderos</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,16 +2642,16 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J215"/>
+  <dimension ref="A1:J216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Alto Solar</t>
+          <t>Mina Yeso Corral</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Alto Solar SPA</t>
+          <t>Yesos Andinas SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>61261</v>
+        <v>100</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/03/2023</t>
+          <t>06/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158865055&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158652957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -491,21 +491,21 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>161261</v>
+        <v>61261</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/02/2023</t>
+          <t>22/03/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158677332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158865055&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mina Yeso Corral</t>
+          <t>Parque Fotovoltaico Alto Solar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Yesos Andinas SPA</t>
+          <t>Alto Solar SPA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>161261</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>25/01/2023</t>
+          <t>18/02/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158513816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158677332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Alto Solar</t>
+          <t>Mina Yeso Corral</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Alto Solar SPA</t>
+          <t>Yesos Andinas SPA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>161261</v>
+        <v>100</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>20/01/2023</t>
+          <t>25/01/2023</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158033795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158513816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mina Yeso Corral</t>
+          <t>Parque Fotovoltaico Alto Solar</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Yesos Andinos SPA</t>
+          <t>Alto Solar SPA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>161261</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>18/10/2022</t>
+          <t>20/01/2023</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157197696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158033795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Crecimiento Tranque de Relaves Panules</t>
+          <t>Mina Yeso Corral</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SOCIEDAD SERVICIOS A LA MINERIA OMINT SPA</t>
+          <t>Yesos Andinos SPA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>06/01/2022</t>
+          <t>18/10/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154614776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157197696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>28/12/2021</t>
+          <t>06/01/2022</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154497249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154614776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Repotenciamiento PMGD Luna II</t>
+          <t>Crecimiento Tranque de Relaves Panules</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Parque Solar Luna del Norte SpA</t>
+          <t>SOCIEDAD SERVICIOS A LA MINERIA OMINT SPA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1900</v>
+        <v>250</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/07/2020</t>
+          <t>28/12/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147476824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154497249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Repotenciamiento PMGD SOL II</t>
+          <t>Repotenciamiento PMGD Luna II</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,11 +823,11 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Parque Solar Sol del Norte SpA</t>
+          <t>Parque Solar Luna del Norte SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3750</v>
+        <v>1900</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147482505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147476824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,12 +856,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Proyecto Minero Arqueros</t>
+          <t>Repotenciamiento PMGD SOL II</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>COMPAÑÍA MINERA ARQUEROS S.A.</t>
+          <t>Parque Solar Sol del Norte SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>200000</v>
+        <v>3750</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>25/05/2020</t>
+          <t>23/07/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146624103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147482505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Fundo San Isidro</t>
+          <t>Proyecto Minero Arqueros</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FSI Solar SpA</t>
+          <t>COMPAÑÍA MINERA ARQUEROS S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>15000</v>
+        <v>200000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>23/04/2020</t>
+          <t>25/05/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146361278&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146624103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>LENERGIA CHILE SpA</t>
+          <t>FSI Solar SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -975,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>23/03/2020</t>
+          <t>23/04/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146016174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146361278&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Planta Fotovoltaica Fundo San Isidro</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,30 +1010,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>LENERGIA CHILE SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>23/03/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146016174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica Santa Francisca</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,20 +1058,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CVE Proyecto Diecisiete SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>7600</v>
+        <v>25000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>22/11/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144992691&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Nuevo sistema de tratamiento de aguas servidas de Vicuña, región de Coquimbo</t>
+          <t>Nueva Central Solar Fotovoltaica Santa Francisca</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Aguas del Valle S.A.</t>
+          <t>CVE Proyecto Diecisiete SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>5200</v>
+        <v>7600</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>28/10/2019</t>
+          <t>22/11/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144513629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144992691&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Central GLP Talcuna</t>
+          <t>Nuevo sistema de tratamiento de aguas servidas de Vicuña, región de Coquimbo</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MARQUESA GLP SpA</t>
+          <t>Aguas del Valle S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3500</v>
+        <v>5200</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>23/07/2019</t>
+          <t>28/10/2019</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143765092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144513629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Proyecto ?Faena Minera ?Mina San Antonio?, explotación a 40.000 ton/mes?</t>
+          <t>Central GLP Talcuna</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>MARQUESA GLP SpA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4200</v>
+        <v>3500</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>21/11/2018</t>
+          <t>23/07/2019</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141692561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143765092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
+          <t>Proyecto ?Faena Minera ?Mina San Antonio?, explotación a 40.000 ton/mes?</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,20 +1250,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>27/06/2018</t>
+          <t>21/11/2018</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141692561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Gabriela</t>
+          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Bronte SpA</t>
+          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>22/03/2018</t>
+          <t>27/06/2018</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138751214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Parque solar Llanos de Potroso</t>
+          <t>Parque Fotovoltaico Gabriela</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Llanos de Potroso SpA</t>
+          <t>Bronte SpA</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>23/11/2016</t>
+          <t>22/03/2018</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131950285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138751214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1407,17 +1407,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20/10/2016</t>
+          <t>23/11/2016</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131822429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131950285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Parque Solar Llanos de Potroso</t>
+          <t>Parque solar Llanos de Potroso</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>16/09/2016</t>
+          <t>20/10/2016</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131726680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131822429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PARQUE SOLAR CASA DE PIEDRA</t>
+          <t>Parque Solar Llanos de Potroso</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1499,11 +1499,11 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>62000</v>
+        <v>12000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>22/04/2016</t>
+          <t>16/09/2016</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131323063&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131726680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Parque Solar Casa de Piedra</t>
+          <t>PARQUE SOLAR CASA DE PIEDRA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>24/03/2016</t>
+          <t>22/04/2016</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131266497&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131323063&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Parque Solar Casa de Piedra - Llanos de Potroso</t>
+          <t>Parque Solar Casa de Piedra</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1595,11 +1595,11 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>95130</v>
+        <v>62000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>19/02/2016</t>
+          <t>24/03/2016</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131156984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131266497&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas para Transporte Terrestre de Residuos y Sustancias Peligrosas a Granel desde la I a la X Región</t>
+          <t>Parque Solar Casa de Piedra - Llanos de Potroso</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,20 +1634,20 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Llanos de Potroso SpA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>95130</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>11/12/2015</t>
+          <t>19/02/2016</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130832601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131156984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>La Represa</t>
+          <t>Ampliación de Rutas para Transporte Terrestre de Residuos y Sustancias Peligrosas a Granel desde la I a la X Región</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Minera La Reserva Limitada</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>13/10/2015</t>
+          <t>11/12/2015</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130820333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130832601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>13/10/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130803747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130820333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Proyecto La Represa</t>
+          <t>La Represa</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>26/08/2015</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130712151&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130803747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Prospección Minera Arqueros - Fase 2</t>
+          <t>Proyecto La Represa</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Compañía Minera Arqueros S.A.</t>
+          <t>Minera La Reserva Limitada</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>22800</v>
+        <v>2500</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>09/07/2015</t>
+          <t>26/08/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130595293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130712151&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Prospección Minera Alturas</t>
+          <t>Prospección Minera Arqueros - Fase 2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Compañía Minera Salitrales Limitada</t>
+          <t>Compañía Minera Arqueros S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>70000</v>
+        <v>22800</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>04/05/2015</t>
+          <t>09/07/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130424679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130595293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>24/04/2015</t>
+          <t>04/05/2015</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130402498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130424679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Prospección Minera Alturas</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,20 +1970,20 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía Minera Salitrales Limitada</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5000</v>
+        <v>70000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>24/04/2015</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130402498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Prospección Minera Alturas</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Compañía Minera Salitrales Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>70000</v>
+        <v>5000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>22/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130150788&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>30/12/2014</t>
+          <t>22/01/2015</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130084416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130150788&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Prospección Minera Alturas</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,20 +2114,20 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía Minera Salitrales Limitada</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5000</v>
+        <v>70000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>30/12/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130084416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2223,17 +2223,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MINA SUBTERRÁNEA 21 DE MAYO DE CMSG EN TALCUNA, PRODUCCIÓN A 50 KTM</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>19/03/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129233665&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Modificaciones Minera Linderos</t>
+          <t>MINA SUBTERRÁNEA 21 DE MAYO DE CMSG EN TALCUNA, PRODUCCIÓN A 50 KTM</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3000</v>
+        <v>25000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>19/03/2014</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129233665&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificaciones Minera Linderos</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,16 +2642,16 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Regularizacion Ambiental del Proceso de Explotacion y Procesamiento de minerales, Yacimiento Talcuna</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,20 +2690,20 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SERVICIOS A LA MINERÍA OMINT SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>18/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128943882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Compañia Minera Talcuna Limitada</t>
+          <t>SERVICIOS A LA MINERÍA OMINT SPA</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -2751,17 +2751,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>12/12/2013</t>
+          <t>18/12/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916085&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128943882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Regularizacion Ambiental del proceso de Explotacion y Procesamiento de minerales, Yacimiento Talcuna</t>
+          <t>Regularizacion Ambiental del Proceso de Explotacion y Procesamiento de minerales, Yacimiento Talcuna</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2799,17 +2799,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>06/12/2013</t>
+          <t>12/12/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128894465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916085&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Regularizacion Ambiental del proceso de Explotacion y Procesamiento de minerales, Yacimiento Talcuna</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañia Minera Talcuna Limitada</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>06/12/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128894465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Aumento de Producción en Planta Condoriaco</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,20 +3218,20 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>16/11/2012</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7540103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3279,17 +3279,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>09/11/2012</t>
+          <t>16/11/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7510930&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7540103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Aumento de Producción en Planta Condoriaco</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>15000</v>
+        <v>500</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>09/11/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7510930&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ampliación Planta Talcuna Fase II, 120 KTM</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>11/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Proyecto Ampliación Planta Talcuna Fase II, 120KMT</t>
+          <t>Ampliación Planta Talcuna Fase II, 120 KTM</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3471,17 +3471,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>04/04/2012</t>
+          <t>11/04/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6768247&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Proyecto Ampliación Planta Talcuna Fase II, 120KMT</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>04/04/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6768247&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Regularización Embalse El Calvario</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Agrícola El Calvario S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>07/03/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6668178&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Regularización Embalse El Calvario</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Agrícola El Calvario S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>07/03/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6668178&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3899,21 +3899,21 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>75000</v>
+        <v>150</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>02/12/2010</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3947,21 +3947,21 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>150</v>
+        <v>75000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>27/10/2010</t>
+          <t>02/12/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Tranque de Relaves Panules</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>SERVICIOS A LA MINERÍA OMINT SPA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3500</v>
+        <v>150</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>19/10/2010</t>
+          <t>27/10/2010</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5011146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Compañia Minera Talcuna Limitada</t>
+          <t>SERVICIOS A LA MINERÍA OMINT SPA</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4047,17 +4047,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>04/10/2010</t>
+          <t>19/10/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4975616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5011146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>Tranque de Relaves Panules</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Compañia Minera Talcuna Limitada</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>563</v>
+        <v>3500</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>04/10/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4975616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1750</v>
+        <v>563</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>85</v>
+        <v>1750</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>20/05/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>20/05/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PROYECTO CONDORIACO (Planta de Cianuración para Minerales de Oro y Plata)</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>10/05/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4575438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>PROYECTO CONDORIACO (Planta de Cianuración para Minerales de Oro y Plata)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,20 +4322,20 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>4050</v>
+        <v>1000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>10/05/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4575438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>PROYECTO CONDORIACO (Planta de Cianuración para Minerales de Oro y Plata)</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1000</v>
+        <v>4050</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>27/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4533719&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>PROYECTO CONDORIACO (Planta de Cianuración para Minerales de Oro y Plata)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>27/04/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4533719&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>San Bartolomé (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,30 +4706,30 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>D &amp; Q Mineral Compañía Limitada</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1313</v>
+        <v>350</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>27/11/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4197295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>San Bartolomé (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,30 +4754,30 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>D &amp; Q Mineral Compañía Limitada</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2000</v>
+        <v>1313</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>27/11/2009</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4197295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>377</v>
+        <v>2000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>07/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Alcantarillado, Tratamiento y Disposición Final de Aguas Servidas de Marquesa y Nueva Talcuna (e-seia)</t>
+          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,30 +4946,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Comite de Agua Potable Rural Marquesa-Nueva Talcuna</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>31/08/2009</t>
+          <t>07/09/2009</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4001865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Modificación Sistema de Alcantarillado, Tratamiento y Disposición Final de Aguas Servidas de Marquesa y Nueva Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,20 +4994,20 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Comite de Agua Potable Rural Marquesa-Nueva Talcuna</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>20/08/2009</t>
+          <t>31/08/2009</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983845&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4001865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Modificaciòn Sistema Alcantarillado y Tratamiento de Aguas Servidas de Marquesa y Nueva Talcuna (e-seia)</t>
+          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,30 +5042,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Comite de Agua Potable Rural Marquesa-Nueva Talcuna</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>17/08/2009</t>
+          <t>20/08/2009</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3951119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983845&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Modificaciòn Sistema Alcantarillado y Tratamiento de Aguas Servidas de Marquesa y Nueva Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,30 +5090,30 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Comite de Agua Potable Rural Marquesa-Nueva Talcuna</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>07/08/2009</t>
+          <t>17/08/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3952839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3951119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>800</v>
+        <v>28</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>07/08/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3952839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Sistema de Disposicion de RILes (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,30 +5186,30 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Alamo Ltda.</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>40</v>
+        <v>800</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>31/03/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3661633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>SISTEMA DE DISPOSICION DE RILES (e-seia)</t>
+          <t>Sistema de Disposicion de RILes (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5247,17 +5247,17 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>10/03/2009</t>
+          <t>31/03/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3661633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL SISTEMA DE TRATAMIENTO Y DISPOSICIÓN DE VINAZA, AGUAS DE LAVADO Y MANEJO DE ORUJO Y ESCOBAJO EN PLANTA AGROINDUSTRIAL VICUÑA (e-seia)</t>
+          <t>SISTEMA DE DISPOSICION DE RILES (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Sociedad Agrícola El Alamo Ltda.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>05/02/2009</t>
+          <t>10/03/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3542766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5343,17 +5343,17 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>05/02/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3530200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3542766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>MEJORAMIENTO DEL SISTEMA DE TRATAMIENTO Y DISPOSICIÓN DE VINAZA, AGUAS DE LAVADO Y MANEJO DE ORUJO Y ESCOBAJO EN PLANTA AGROINDUSTRIAL VICUÑA (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,16 +5378,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3530200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,36 +5416,40 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TRANQUE DE RELAVES HUMO CORRAL</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr"/>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>07/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3475081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5479,17 +5483,17 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>30/12/2008</t>
+          <t>07/01/2009</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3463284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3475081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5504,14 +5508,10 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Cultivo de la microalga Haematococcus pluvialis (e-seia)</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TRANQUE DE RELAVES HUMO CORRAL</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
           <t>Cuarta</t>
@@ -5519,25 +5519,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Alimtec S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>11/12/2008</t>
+          <t>30/12/2008</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3413969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3463284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5567,25 +5567,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Julio Ignacio Ilabaca Grez</t>
+          <t>Alimtec S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>11/12/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3371390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3413969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5600,7 +5600,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>Cultivo de la microalga Haematococcus pluvialis (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5610,20 +5610,20 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Julio Ignacio Ilabaca Grez</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>25</v>
+        <v>5000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5633,7 +5633,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3371390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5648,7 +5648,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5663,25 +5663,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5696,7 +5696,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5711,25 +5711,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5744,7 +5744,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5759,25 +5759,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5792,7 +5792,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5807,11 +5807,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5820,12 +5820,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5873,7 +5873,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5903,25 +5903,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5959,7 +5959,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5969,7 +5969,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5999,15 +5999,15 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6017,7 +6017,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6047,25 +6047,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6080,7 +6080,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6095,25 +6095,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>20</v>
+        <v>3408</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6143,25 +6143,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6176,7 +6176,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Construccion y Operacion de Gran Telescopio de Rastreo Sinoptico (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6186,20 +6186,20 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Aura Inc</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>390000</v>
+        <v>80</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>25/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6209,7 +6209,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3073048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6247,17 +6247,17 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>17/07/2008</t>
+          <t>25/07/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3040083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3073048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Construccion y Operacion de Gran Telescopio de Rastreo Sinoptico (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6282,20 +6282,20 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Aura Inc</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>250</v>
+        <v>390000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>17/07/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6305,7 +6305,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3040083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6320,7 +6320,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6335,15 +6335,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6353,7 +6353,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6383,11 +6383,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6396,12 +6396,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6416,7 +6416,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6431,25 +6431,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6479,25 +6479,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>30/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6512,7 +6512,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6527,15 +6527,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>30/06/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6560,7 +6560,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6575,25 +6575,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6608,7 +6608,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6623,25 +6623,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Sistema de Manejo de Riles de Planta Pisquera Río Elqui (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6666,30 +6666,30 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Pisquera Río Elqui Ltda</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>18/03/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2781615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6704,7 +6704,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TRANQUE DE RELAVES ANY (e-seia)</t>
+          <t>Sistema de Manejo de Riles de Planta Pisquera Río Elqui (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6719,15 +6719,15 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Pisquera Río Elqui Ltda</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>520</v>
+        <v>50</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>06/02/2008</t>
+          <t>18/03/2008</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2693359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2781615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6752,7 +6752,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Sistema de manejo de riles de Planta Pisquera Río Elqui (e-seia)</t>
+          <t>TRANQUE DE RELAVES ANY (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6767,25 +6767,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Pisquera Río Elqui Ltda</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>50</v>
+        <v>520</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>30/01/2008</t>
+          <t>06/02/2008</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2659042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2693359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Sistema de manejo de riles de planta Pisquera Río Elqui (e-seia)</t>
+          <t>Sistema de manejo de riles de Planta Pisquera Río Elqui (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,7 +6823,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>27/12/2007</t>
+          <t>30/01/2008</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6833,7 +6833,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2595334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2659042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Proyecto Ampliación Planta Talcuna (e-seia)</t>
+          <t>Sistema de manejo de riles de planta Pisquera Río Elqui (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6863,25 +6863,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Pisquera Río Elqui Ltda</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>6000</v>
+        <v>50</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>10/12/2007</t>
+          <t>27/12/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2570874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2595334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Proyecto Ampliación Planta Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6906,20 +6906,20 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>429</v>
+        <v>6000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>10/12/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6929,7 +6929,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2570874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6959,25 +6959,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7007,25 +7007,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7055,25 +7055,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7103,25 +7103,25 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7151,25 +7151,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Sistema de disposicion de riles Viña Falernia S.A. (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7194,20 +7194,20 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>01/08/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7217,7 +7217,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2241447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Bodega De Insumos fundo Huancara, Empresa Guillermo Prohens SommellaS.A. (e-seia)</t>
+          <t>Sistema de disposicion de riles Viña Falernia S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7247,15 +7247,15 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Guillermo Prohens Sommella S.A.</t>
+          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>01/08/2007</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2252698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2241447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Bodega de Insumos Fundo Sta. Bernardita, Empresa Guillermo Prohens Sommella S.A. (e-seia)</t>
+          <t>Bodega De Insumos fundo Huancara, Empresa Guillermo Prohens SommellaS.A. (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7313,7 +7313,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2257624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2252698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Bodega de Insumos Fundo Sta. Bernardita, Empresa Guillermo Prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7338,16 +7338,16 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Guillermo Prohens Sommella S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7356,12 +7356,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2257624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7391,15 +7391,15 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7439,25 +7439,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>DISPOSICION DE RILES VIÑA FALERNIA (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7482,30 +7482,30 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>31/05/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2176747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Sistema de disposicion de Riles Viña Falernia S.A. (e-seia)</t>
+          <t>DISPOSICION DE RILES VIÑA FALERNIA (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,7 +7543,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>02/04/2007</t>
+          <t>31/05/2007</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2078043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2176747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Sistema de disposicion de Riles Viña Falernia S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7578,20 +7578,20 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>02/04/2007</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2078043&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7631,15 +7631,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Bodega de Insumos, Fundo Huancara, Guillermo prohens Sommella S.A. (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7674,20 +7674,20 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Guillermo Prohens Sommella S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>22/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1934992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Bodega de Insumos Fundo Santa Bernardita, Guillermo Prohens Sommella S.A. (e-seia)</t>
+          <t>Bodega de Insumos, Fundo Huancara, Guillermo prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7745,7 +7745,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1935186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1934992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Bodega de Insumos Fundo Santa Bernardita, Guillermo Prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7770,30 +7770,30 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Guillermo Prohens Sommella S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>22/01/2007</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1935186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,17 +7831,17 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Bodega Insumos Fundo Huancara, Guillermo Prohens Sommella S.A. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7866,20 +7866,20 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Guillermo Prohens Sommella S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>21</v>
+        <v>200</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>27/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7889,7 +7889,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1884903&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Bodega Insumos Fundo Santa Bernardita, Guillermo Prohens Sommella S.A. (e-seia)</t>
+          <t>Bodega Insumos Fundo Huancara, Guillermo Prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1885130&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1884903&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Bodega Insumos Fundo Santa Bernardita, Guillermo Prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7962,30 +7962,30 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Guillermo Prohens Sommella S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>27/12/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1885130&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8015,15 +8015,15 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8033,7 +8033,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,17 +8071,17 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8111,25 +8111,25 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8144,7 +8144,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8159,25 +8159,25 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8192,7 +8192,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Central Hidroelectrica Balalita (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8202,30 +8202,30 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Hidrobalalita S.A</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>17752</v>
+        <v>0</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>30/10/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1771727&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Central Hidroelectrica Balalita (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8250,30 +8250,30 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Hidrobalalita S.A</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>250</v>
+        <v>17752</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>30/10/2006</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1771727&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8288,7 +8288,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8303,25 +8303,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8336,7 +8336,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>IMPLEMENTACIÓN PLANTA DE SECADO DE JIBIA LEE, EN SECTOR VARILLAR, COMUNA DE VICUÑA (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8346,30 +8346,30 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Sang Baek Lee</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>850</v>
+        <v>20</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>21/06/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1510008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8384,7 +8384,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>IMPLEMENTACIÓN PLANTA DE SECADO DE JIBIA LEE, EN SECTOR VARILLAR, COMUNA DE VICUÑA (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8394,30 +8394,30 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Sang Baek Lee</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>72</v>
+        <v>850</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>21/06/2006</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1510008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8432,7 +8432,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELECTRICA PUCLARO (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8442,20 +8442,20 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>HIDROELECTRICA PUCLARO S.A.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>4800</v>
+        <v>72</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8465,7 +8465,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1180412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8480,7 +8480,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>CENTRAL HIDROELECTRICA PUCLARO (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8490,30 +8490,30 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>HIDROELECTRICA PUCLARO S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>72</v>
+        <v>4800</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1180412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8528,7 +8528,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8543,25 +8543,25 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8591,15 +8591,15 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Implementacion de una planta de Riles (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8634,30 +8634,30 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>12/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1013416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8672,7 +8672,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Implementacion de una planta de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8682,30 +8682,30 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>12/09/2005</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1013416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8735,11 +8735,11 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8768,7 +8768,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8783,11 +8783,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Manejo de RILES de la Bodega de Vinos , Viña Falernia (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8826,30 +8826,30 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>29/08/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=951200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8864,7 +8864,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ACTUALIZACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE COQUIMBO (e-seia)</t>
+          <t>Manejo de RILES de la Bodega de Vinos , Viña Falernia (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8879,25 +8879,25 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Coquimbo</t>
+          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>05/08/2005</t>
+          <t>29/08/2005</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=951200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8912,7 +8912,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>ACTUALIZACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE COQUIMBO (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8922,20 +8922,20 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Coquimbo</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>05/08/2005</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8945,7 +8945,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8960,7 +8960,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8975,15 +8975,15 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9008,7 +9008,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Tranque de Relaves Socorro Nº 6, Planta Talcuna (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9018,20 +9018,20 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>11/05/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9041,7 +9041,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=348710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9056,7 +9056,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Tranque de Relaves Socorro N° 6, Planta Talcuna (e-seia)</t>
+          <t>Modificación Proyecto de Tranque de Relaves Socorro Nº 6, Planta Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9075,21 +9075,21 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>04/05/2004</t>
+          <t>11/05/2004</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=341485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=348710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9104,7 +9104,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Tranque de Relaves YENNY 1-2 (e-seia)</t>
+          <t>Modificación Proyecto de Tranque de Relaves Socorro N° 6, Planta Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9119,25 +9119,25 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Palo Negro</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>239</v>
+        <v>1</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>04/05/2004</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=218797&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=341485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9152,7 +9152,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Tranque de Relaves Yenny 1 - 2 (e-seia)</t>
+          <t>Tranque de Relaves YENNY 1-2 (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9171,21 +9171,21 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>27/11/2003</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=211049&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=218797&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9200,7 +9200,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Tranque de Relaves Las Mollacas (e-seia)</t>
+          <t>Tranque de Relaves Yenny 1 - 2 (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9219,21 +9219,21 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>09/10/2003</t>
+          <t>27/11/2003</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=172416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=211049&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9248,7 +9248,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Tranque de Relaves Las Mollacas (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9258,30 +9258,30 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Sociedad Contractual Minera Palo Negro</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>09/10/2003</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=172416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9296,7 +9296,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Reformulación Plan Regulador Comunal de Vicuña</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9306,20 +9306,20 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Vicuña</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>16/10/2002</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9329,7 +9329,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5922&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9344,7 +9344,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Bodega Viña Falernia (e-seia)</t>
+          <t>Reformulación Plan Regulador Comunal de Vicuña</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9359,25 +9359,25 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Alamo Ltda.</t>
+          <t>Ilustre Municipalidad de Vicuña</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>14/10/2002</t>
+          <t>16/10/2002</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5922&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9392,7 +9392,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Tranque (Depósito) de Relaves Mantos de Talcuna Nº4 Planta Don Arturo</t>
+          <t>Bodega Viña Falernia (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9407,25 +9407,25 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Compañía Minera Cobrex</t>
+          <t>Sociedad Agrícola El Alamo Ltda.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>2050</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>26/02/2002</t>
+          <t>14/10/2002</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9440,7 +9440,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Proyecto Tranque (Depósito) de Relaves Sector Los Infieles-Planta Talcuna</t>
+          <t>Tranque (Depósito) de Relaves Mantos de Talcuna Nº4 Planta Don Arturo</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9455,7 +9455,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Compañía Minera Cobrex</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>03/12/2001</t>
+          <t>26/02/2002</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9473,7 +9473,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9488,7 +9488,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Proyecto Tranque (Depósito) de Relaves Sector Los Infieles-Planta Talcuna</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9498,30 +9498,30 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>03/12/2001</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9536,7 +9536,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Proyecto Tranque de Relaves Sector La Tococa - Planta Talcuna</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9546,30 +9546,30 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>08/06/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9584,30 +9584,30 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Proyecto Tranque de Relaves Sector La Tococa - Planta Talcuna</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>1230</v>
+        <v>0</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>08/06/2001</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9617,7 +9617,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9632,40 +9632,40 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Proyecto de Tranque de Relave Sector El Plomo-Planta Talcuna</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>19/02/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9680,7 +9680,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Proyecto Cabañas y Centro Recreacional Don Demetrio</t>
+          <t>Proyecto de Tranque de Relave Sector El Plomo-Planta Talcuna</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9695,25 +9695,25 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Gustavo Psijas Pizarro</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>01/02/2001</t>
+          <t>19/02/2001</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9728,7 +9728,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Proyecto Tranque de Relaves Sector La Higuera-Planta Talcuna</t>
+          <t>Proyecto Cabañas y Centro Recreacional Don Demetrio</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9743,15 +9743,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Gustavo Psijas Pizarro</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>15/01/2001</t>
+          <t>01/02/2001</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9761,7 +9761,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9776,7 +9776,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Subestación de Poder Eléctrica Sector La Compañía Vicuña IV Región</t>
+          <t>Proyecto Tranque de Relaves Sector La Higuera-Planta Talcuna</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9791,15 +9791,15 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>16/06/2000</t>
+          <t>15/01/2001</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9809,7 +9809,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9824,7 +9824,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Subestación de Poder Eléctrica Sector La Compañía Vicuña IV Región</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9834,20 +9834,20 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>110</v>
+        <v>700</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>16/06/2000</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9872,7 +9872,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento y Disposición Final de Residuos Industriales Líquidos CAPEL Planta Vicuña</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9882,20 +9882,20 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>270</v>
+        <v>110</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>07/02/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9905,7 +9905,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2662&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9920,7 +9920,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Proyecto de Tranque de Relaves Socorro Nº6 Planta Talcuna</t>
+          <t>Sistema de Tratamiento y Disposición Final de Residuos Industriales Líquidos CAPEL Planta Vicuña</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9935,15 +9935,15 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>17/12/1999</t>
+          <t>07/02/2000</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9953,7 +9953,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2662&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9968,7 +9968,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Sistema de Acumulación o Almacenaje de Residuos Sólidos Industriales Planta Minera San Gerónimo</t>
+          <t>Proyecto de Tranque de Relaves Socorro Nº6 Planta Talcuna</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9987,21 +9987,21 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>06/12/1999</t>
+          <t>17/12/1999</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10016,7 +10016,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento y Disposición Final de Aguas Servidas de la Localidad de Peralillo</t>
+          <t>Sistema de Acumulación o Almacenaje de Residuos Sólidos Industriales Planta Minera San Gerónimo</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10031,25 +10031,25 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Aguas del Valle S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>470</v>
+        <v>30</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>02/11/1999</t>
+          <t>06/12/1999</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2407&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10064,7 +10064,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Aguas Servidas de la Localidad de Gualliguaica</t>
+          <t>Planta de Tratamiento y Disposición Final de Aguas Servidas de la Localidad de Peralillo</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10083,11 +10083,11 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>190</v>
+        <v>470</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>13/09/1999</t>
+          <t>02/11/1999</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10097,7 +10097,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2407&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10112,7 +10112,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Aguas Servidas de la Localidad de Punta Azul</t>
+          <t>Sistema de Tratamiento de Aguas Servidas de la Localidad de Gualliguaica</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10131,7 +10131,7 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10145,7 +10145,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10160,7 +10160,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Complejo Agroturístico Valle de Elqui</t>
+          <t>Sistema de Tratamiento de Aguas Servidas de la Localidad de Punta Azul</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10175,15 +10175,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Tamblay Silva</t>
+          <t>Aguas del Valle S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>350</v>
+        <v>130</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>09/09/1999</t>
+          <t>13/09/1999</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10193,7 +10193,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Servicio de Agua Potable Rural Nueva Gualliguaica Comuna de Vicuña</t>
+          <t>Complejo Agroturístico Valle de Elqui</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10223,25 +10223,25 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Tamblay Silva</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>11/02/1999</t>
+          <t>09/09/1999</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10256,7 +10256,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Tranques de Relaves Transitorio Planta Don Arturo de Talcuna</t>
+          <t>Servicio de Agua Potable Rural Nueva Gualliguaica Comuna de Vicuña</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10271,15 +10271,15 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Compañía Minera Cobrex</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>15000</v>
+        <v>290</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>12/03/1998</t>
+          <t>11/02/1999</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10289,7 +10289,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=716&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10304,7 +10304,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Construcción Observatorio Astronómico Solar Telescopio</t>
+          <t>Tranques de Relaves Transitorio Planta Don Arturo de Talcuna</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10319,15 +10319,15 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Asociación de Universidades para Investigación en Astronomía (AURA, Inc)</t>
+          <t>Compañía Minera Cobrex</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>30/10/1997</t>
+          <t>12/03/1998</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10337,7 +10337,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=716&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10352,7 +10352,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Construcción Observatorio Astronómico Comunal II Etapa</t>
+          <t>Construcción Observatorio Astronómico Solar Telescopio</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10367,15 +10367,15 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Vicuña</t>
+          <t>Asociación de Universidades para Investigación en Astronomía (AURA, Inc)</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>260</v>
+        <v>28000</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>24/07/1997</t>
+          <t>30/10/1997</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10385,7 +10385,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10400,7 +10400,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Reposición Escuela Nueva Talcuna</t>
+          <t>Construcción Observatorio Astronómico Comunal II Etapa</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10419,7 +10419,7 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10448,7 +10448,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Reposición Escuela Viñita Alta</t>
+          <t>Reposición Escuela Nueva Talcuna</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10467,7 +10467,7 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10496,12 +10496,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Estudio Integral Tranques Relaves Pastos Largos</t>
+          <t>Reposición Escuela Viñita Alta</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -10511,25 +10511,25 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>CIA. MINERA BARRICK CHILE LTDA.</t>
+          <t>Ilustre Municipalidad de Vicuña</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>2810</v>
+        <v>350</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>14/08/1996</t>
+          <t>24/07/1997</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=80&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10544,7 +10544,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Caminos de Acceso y Líneas de Alta Tensión a los Proyectos Nevada y El Indio</t>
+          <t>Estudio Integral Tranques Relaves Pastos Largos</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10554,20 +10554,20 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Compañia Minera Nevada SpA</t>
+          <t>CIA. MINERA BARRICK CHILE LTDA.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>46000</v>
+        <v>2810</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>19/03/1996</t>
+          <t>14/08/1996</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10577,7 +10577,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=80&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10592,7 +10592,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Planta JIGG Quebrada de Marquesa</t>
+          <t>Caminos de Acceso y Líneas de Alta Tensión a los Proyectos Nevada y El Indio</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10602,20 +10602,20 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Manganesos Atacama S.A. Ltda.</t>
+          <t>Compañia Minera Nevada SpA</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>200</v>
+        <v>46000</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>17/10/1995</t>
+          <t>19/03/1996</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10625,7 +10625,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10640,43 +10640,91 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
+          <t>Planta JIGG Quebrada de Marquesa</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Cuarta</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Manganesos Atacama S.A. Ltda.</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>200</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>17/10/1995</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>Vicuña</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
           <t>Proyecto Minero Tambo</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>Cuarta</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Cuarta</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
         <is>
           <t>CIA. MINERA BARRICK CHILE LTDA.</t>
         </is>
       </c>
-      <c r="F215" t="n">
+      <c r="F216" t="n">
         <v>115000</v>
       </c>
-      <c r="G215" t="inlineStr">
+      <c r="G216" t="inlineStr">
         <is>
           <t>20/07/1994</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
+      <c r="H216" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I215" t="inlineStr">
+      <c r="I216" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=148&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J215" t="inlineStr">
+      <c r="J216" t="inlineStr">
         <is>
           <t>Vicuña</t>
         </is>

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Modificaciones Minera Linderos</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,16 +2642,16 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificaciones Minera Linderos</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,16 +2690,16 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificaciones Minera Linderos</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,16 +2642,16 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Modificaciones Minera Linderos</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,16 +2690,16 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/04/2023</t>
+          <t>14/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Modificaciones Minera Linderos</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,16 +2642,16 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificaciones Minera Linderos</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,16 +2690,16 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Modificaciones Minera Linderos</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,16 +2642,16 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificaciones Minera Linderos</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,16 +2690,16 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J216"/>
+  <dimension ref="A1:J217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mina Yeso Corral</t>
+          <t>Prospección Minera Campanario</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Yesos Andinas SPA</t>
+          <t>Inversiones Barrick Conosur SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>36000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/04/2023</t>
+          <t>03/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158652957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159521613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Alto Solar</t>
+          <t>Mina Yeso Corral</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Alto Solar SPA</t>
+          <t>Yesos Andinas SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>61261</v>
+        <v>100</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/03/2023</t>
+          <t>14/04/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158865055&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158652957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -539,11 +539,11 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>161261</v>
+        <v>61261</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>18/02/2023</t>
+          <t>22/03/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158677332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158865055&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mina Yeso Corral</t>
+          <t>Parque Fotovoltaico Alto Solar</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Yesos Andinas SPA</t>
+          <t>Alto Solar SPA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>161261</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>25/01/2023</t>
+          <t>18/02/2023</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158513816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158677332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Alto Solar</t>
+          <t>Mina Yeso Corral</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Alto Solar SPA</t>
+          <t>Yesos Andinas SPA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>161261</v>
+        <v>100</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20/01/2023</t>
+          <t>25/01/2023</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158033795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158513816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mina Yeso Corral</t>
+          <t>Parque Fotovoltaico Alto Solar</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Yesos Andinos SPA</t>
+          <t>Alto Solar SPA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>161261</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>18/10/2022</t>
+          <t>20/01/2023</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157197696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158033795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Crecimiento Tranque de Relaves Panules</t>
+          <t>Mina Yeso Corral</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SOCIEDAD SERVICIOS A LA MINERIA OMINT SPA</t>
+          <t>Yesos Andinos SPA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>06/01/2022</t>
+          <t>18/10/2022</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154614776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157197696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>28/12/2021</t>
+          <t>06/01/2022</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154497249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154614776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Repotenciamiento PMGD Luna II</t>
+          <t>Crecimiento Tranque de Relaves Panules</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Parque Solar Luna del Norte SpA</t>
+          <t>SOCIEDAD SERVICIOS A LA MINERIA OMINT SPA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1900</v>
+        <v>250</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23/07/2020</t>
+          <t>28/12/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147476824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154497249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Repotenciamiento PMGD SOL II</t>
+          <t>Repotenciamiento PMGD Luna II</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,11 +871,11 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Parque Solar Sol del Norte SpA</t>
+          <t>Parque Solar Luna del Norte SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3750</v>
+        <v>1900</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147482505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147476824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Proyecto Minero Arqueros</t>
+          <t>Repotenciamiento PMGD SOL II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>COMPAÑÍA MINERA ARQUEROS S.A.</t>
+          <t>Parque Solar Sol del Norte SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>200000</v>
+        <v>3750</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>25/05/2020</t>
+          <t>23/07/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146624103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147482505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,12 +952,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Fundo San Isidro</t>
+          <t>Proyecto Minero Arqueros</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FSI Solar SpA</t>
+          <t>COMPAÑÍA MINERA ARQUEROS S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>15000</v>
+        <v>200000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>23/04/2020</t>
+          <t>25/05/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146361278&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146624103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>LENERGIA CHILE SpA</t>
+          <t>FSI Solar SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>23/03/2020</t>
+          <t>23/04/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146016174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146361278&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Planta Fotovoltaica Fundo San Isidro</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>LENERGIA CHILE SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>23/03/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146016174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica Santa Francisca</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,20 +1106,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CVE Proyecto Diecisiete SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>7600</v>
+        <v>25000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>22/11/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144992691&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Nuevo sistema de tratamiento de aguas servidas de Vicuña, región de Coquimbo</t>
+          <t>Nueva Central Solar Fotovoltaica Santa Francisca</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Aguas del Valle S.A.</t>
+          <t>CVE Proyecto Diecisiete SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5200</v>
+        <v>7600</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>28/10/2019</t>
+          <t>22/11/2019</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144513629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144992691&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Central GLP Talcuna</t>
+          <t>Nuevo sistema de tratamiento de aguas servidas de Vicuña, región de Coquimbo</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MARQUESA GLP SpA</t>
+          <t>Aguas del Valle S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3500</v>
+        <v>5200</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>23/07/2019</t>
+          <t>28/10/2019</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143765092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144513629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Proyecto ?Faena Minera ?Mina San Antonio?, explotación a 40.000 ton/mes?</t>
+          <t>Central GLP Talcuna</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>MARQUESA GLP SpA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4200</v>
+        <v>3500</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>21/11/2018</t>
+          <t>23/07/2019</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141692561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143765092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
+          <t>Proyecto ?Faena Minera ?Mina San Antonio?, explotación a 40.000 ton/mes?</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,20 +1298,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>27/06/2018</t>
+          <t>21/11/2018</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141692561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Gabriela</t>
+          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Bronte SpA</t>
+          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>22/03/2018</t>
+          <t>27/06/2018</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138751214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Parque solar Llanos de Potroso</t>
+          <t>Parque Fotovoltaico Gabriela</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Llanos de Potroso SpA</t>
+          <t>Bronte SpA</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>23/11/2016</t>
+          <t>22/03/2018</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131950285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138751214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20/10/2016</t>
+          <t>23/11/2016</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131822429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131950285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Parque Solar Llanos de Potroso</t>
+          <t>Parque solar Llanos de Potroso</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>16/09/2016</t>
+          <t>20/10/2016</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131726680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131822429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PARQUE SOLAR CASA DE PIEDRA</t>
+          <t>Parque Solar Llanos de Potroso</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1547,11 +1547,11 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>62000</v>
+        <v>12000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>22/04/2016</t>
+          <t>16/09/2016</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131323063&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131726680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Parque Solar Casa de Piedra</t>
+          <t>PARQUE SOLAR CASA DE PIEDRA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>24/03/2016</t>
+          <t>22/04/2016</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131266497&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131323063&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Parque Solar Casa de Piedra - Llanos de Potroso</t>
+          <t>Parque Solar Casa de Piedra</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1643,11 +1643,11 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>95130</v>
+        <v>62000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>19/02/2016</t>
+          <t>24/03/2016</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131156984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131266497&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas para Transporte Terrestre de Residuos y Sustancias Peligrosas a Granel desde la I a la X Región</t>
+          <t>Parque Solar Casa de Piedra - Llanos de Potroso</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,20 +1682,20 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Llanos de Potroso SpA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>95130</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>11/12/2015</t>
+          <t>19/02/2016</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130832601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131156984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>La Represa</t>
+          <t>Ampliación de Rutas para Transporte Terrestre de Residuos y Sustancias Peligrosas a Granel desde la I a la X Región</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Minera La Reserva Limitada</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>13/10/2015</t>
+          <t>11/12/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130820333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130832601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1791,17 +1791,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>13/10/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130803747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130820333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Proyecto La Represa</t>
+          <t>La Represa</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>26/08/2015</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130712151&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130803747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Prospección Minera Arqueros - Fase 2</t>
+          <t>Proyecto La Represa</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Compañía Minera Arqueros S.A.</t>
+          <t>Minera La Reserva Limitada</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>22800</v>
+        <v>2500</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>09/07/2015</t>
+          <t>26/08/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130595293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130712151&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Prospección Minera Alturas</t>
+          <t>Prospección Minera Arqueros - Fase 2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Compañía Minera Salitrales Limitada</t>
+          <t>Compañía Minera Arqueros S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>70000</v>
+        <v>22800</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>04/05/2015</t>
+          <t>09/07/2015</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130424679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130595293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>24/04/2015</t>
+          <t>04/05/2015</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130402498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130424679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Prospección Minera Alturas</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,20 +2018,20 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía Minera Salitrales Limitada</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5000</v>
+        <v>70000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>24/04/2015</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130402498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Prospección Minera Alturas</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Compañía Minera Salitrales Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>70000</v>
+        <v>5000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>22/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130150788&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2127,17 +2127,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>30/12/2014</t>
+          <t>22/01/2015</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130084416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130150788&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Prospección Minera Alturas</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,20 +2162,20 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía Minera Salitrales Limitada</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>5000</v>
+        <v>70000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>30/12/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130084416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2271,17 +2271,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MINA SUBTERRÁNEA 21 DE MAYO DE CMSG EN TALCUNA, PRODUCCIÓN A 50 KTM</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>19/03/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129233665&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Modificaciones Minera Linderos</t>
+          <t>MINA SUBTERRÁNEA 21 DE MAYO DE CMSG EN TALCUNA, PRODUCCIÓN A 50 KTM</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3000</v>
+        <v>25000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>19/03/2014</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129233665&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificaciones Minera Linderos</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,16 +2690,16 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Regularizacion Ambiental del Proceso de Explotacion y Procesamiento de minerales, Yacimiento Talcuna</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,20 +2738,20 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SERVICIOS A LA MINERÍA OMINT SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>18/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128943882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Compañia Minera Talcuna Limitada</t>
+          <t>SERVICIOS A LA MINERÍA OMINT SPA</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -2799,17 +2799,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>12/12/2013</t>
+          <t>18/12/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916085&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128943882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Regularizacion Ambiental del proceso de Explotacion y Procesamiento de minerales, Yacimiento Talcuna</t>
+          <t>Regularizacion Ambiental del Proceso de Explotacion y Procesamiento de minerales, Yacimiento Talcuna</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2847,17 +2847,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>06/12/2013</t>
+          <t>12/12/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128894465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916085&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Regularizacion Ambiental del proceso de Explotacion y Procesamiento de minerales, Yacimiento Talcuna</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañia Minera Talcuna Limitada</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>06/12/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128894465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Aumento de Producción en Planta Condoriaco</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,20 +3266,20 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>16/11/2012</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7540103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3327,17 +3327,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>09/11/2012</t>
+          <t>16/11/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7510930&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7540103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Aumento de Producción en Planta Condoriaco</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>15000</v>
+        <v>500</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>09/11/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7510930&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Ampliación Planta Talcuna Fase II, 120 KTM</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>11/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Proyecto Ampliación Planta Talcuna Fase II, 120KMT</t>
+          <t>Ampliación Planta Talcuna Fase II, 120 KTM</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3519,17 +3519,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>04/04/2012</t>
+          <t>11/04/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6768247&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Proyecto Ampliación Planta Talcuna Fase II, 120KMT</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>04/04/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6768247&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Regularización Embalse El Calvario</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Agrícola El Calvario S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>07/03/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6668178&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Regularización Embalse El Calvario</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Agrícola El Calvario S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>07/03/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6668178&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3947,21 +3947,21 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>75000</v>
+        <v>150</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>02/12/2010</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3995,21 +3995,21 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>150</v>
+        <v>75000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>27/10/2010</t>
+          <t>02/12/2010</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Tranque de Relaves Panules</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>SERVICIOS A LA MINERÍA OMINT SPA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>3500</v>
+        <v>150</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>19/10/2010</t>
+          <t>27/10/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5011146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Compañia Minera Talcuna Limitada</t>
+          <t>SERVICIOS A LA MINERÍA OMINT SPA</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4095,17 +4095,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>04/10/2010</t>
+          <t>19/10/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4975616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5011146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>Tranque de Relaves Panules</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Compañia Minera Talcuna Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>563</v>
+        <v>3500</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>04/10/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4975616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1750</v>
+        <v>563</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>85</v>
+        <v>1750</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>20/05/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>20/05/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PROYECTO CONDORIACO (Planta de Cianuración para Minerales de Oro y Plata)</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>10/05/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4575438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>PROYECTO CONDORIACO (Planta de Cianuración para Minerales de Oro y Plata)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,20 +4370,20 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>4050</v>
+        <v>1000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>10/05/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4575438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>PROYECTO CONDORIACO (Planta de Cianuración para Minerales de Oro y Plata)</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1000</v>
+        <v>4050</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>27/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4533719&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>PROYECTO CONDORIACO (Planta de Cianuración para Minerales de Oro y Plata)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,30 +4466,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>27/04/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4533719&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4623,7 +4623,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,25 +4711,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>San Bartolomé (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,30 +4754,30 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>D &amp; Q Mineral Compañía Limitada</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1313</v>
+        <v>350</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>27/11/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4197295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>San Bartolomé (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,30 +4802,30 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>D &amp; Q Mineral Compañía Limitada</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2000</v>
+        <v>1313</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>27/11/2009</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4197295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>377</v>
+        <v>2000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>07/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Alcantarillado, Tratamiento y Disposición Final de Aguas Servidas de Marquesa y Nueva Talcuna (e-seia)</t>
+          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,30 +4994,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Comite de Agua Potable Rural Marquesa-Nueva Talcuna</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>31/08/2009</t>
+          <t>07/09/2009</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4001865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Modificación Sistema de Alcantarillado, Tratamiento y Disposición Final de Aguas Servidas de Marquesa y Nueva Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,20 +5042,20 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Comite de Agua Potable Rural Marquesa-Nueva Talcuna</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>20/08/2009</t>
+          <t>31/08/2009</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983845&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4001865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Modificaciòn Sistema Alcantarillado y Tratamiento de Aguas Servidas de Marquesa y Nueva Talcuna (e-seia)</t>
+          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,30 +5090,30 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Comite de Agua Potable Rural Marquesa-Nueva Talcuna</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>17/08/2009</t>
+          <t>20/08/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3951119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983845&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Modificaciòn Sistema Alcantarillado y Tratamiento de Aguas Servidas de Marquesa y Nueva Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,30 +5138,30 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Comite de Agua Potable Rural Marquesa-Nueva Talcuna</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>07/08/2009</t>
+          <t>17/08/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3952839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3951119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>800</v>
+        <v>28</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>07/08/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3952839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Sistema de Disposicion de RILes (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,30 +5234,30 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Alamo Ltda.</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>40</v>
+        <v>800</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>31/03/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3661633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>SISTEMA DE DISPOSICION DE RILES (e-seia)</t>
+          <t>Sistema de Disposicion de RILes (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5295,17 +5295,17 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>10/03/2009</t>
+          <t>31/03/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3661633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL SISTEMA DE TRATAMIENTO Y DISPOSICIÓN DE VINAZA, AGUAS DE LAVADO Y MANEJO DE ORUJO Y ESCOBAJO EN PLANTA AGROINDUSTRIAL VICUÑA (e-seia)</t>
+          <t>SISTEMA DE DISPOSICION DE RILES (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Sociedad Agrícola El Alamo Ltda.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>05/02/2009</t>
+          <t>10/03/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3542766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5391,17 +5391,17 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>05/02/2009</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3530200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3542766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>MEJORAMIENTO DEL SISTEMA DE TRATAMIENTO Y DISPOSICIÓN DE VINAZA, AGUAS DE LAVADO Y MANEJO DE ORUJO Y ESCOBAJO EN PLANTA AGROINDUSTRIAL VICUÑA (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,16 +5426,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5444,12 +5444,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3530200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,36 +5464,40 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TRANQUE DE RELAVES HUMO CORRAL</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr"/>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>07/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3475081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5527,17 +5531,17 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>30/12/2008</t>
+          <t>07/01/2009</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3463284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3475081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5552,14 +5556,10 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Cultivo de la microalga Haematococcus pluvialis (e-seia)</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TRANQUE DE RELAVES HUMO CORRAL</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
           <t>Cuarta</t>
@@ -5567,25 +5567,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Alimtec S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>11/12/2008</t>
+          <t>30/12/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3413969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3463284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5615,25 +5615,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Julio Ignacio Ilabaca Grez</t>
+          <t>Alimtec S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>11/12/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3371390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3413969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5648,7 +5648,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>Cultivo de la microalga Haematococcus pluvialis (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5658,20 +5658,20 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Julio Ignacio Ilabaca Grez</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>25</v>
+        <v>5000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5681,7 +5681,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3371390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5696,7 +5696,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5711,25 +5711,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5744,7 +5744,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5759,25 +5759,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5792,7 +5792,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5807,25 +5807,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5855,11 +5855,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5868,12 +5868,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5921,7 +5921,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5936,7 +5936,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5951,25 +5951,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -6007,7 +6007,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6017,7 +6017,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6047,15 +6047,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6065,7 +6065,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6080,7 +6080,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6095,25 +6095,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6143,25 +6143,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>20</v>
+        <v>3408</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6191,25 +6191,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6224,7 +6224,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Construccion y Operacion de Gran Telescopio de Rastreo Sinoptico (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6234,20 +6234,20 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Aura Inc</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>390000</v>
+        <v>80</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>25/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3073048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6295,17 +6295,17 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>17/07/2008</t>
+          <t>25/07/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3040083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3073048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6320,7 +6320,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Construccion y Operacion de Gran Telescopio de Rastreo Sinoptico (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6330,20 +6330,20 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Aura Inc</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>250</v>
+        <v>390000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>17/07/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6353,7 +6353,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3040083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6383,15 +6383,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6416,7 +6416,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6431,11 +6431,11 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6444,12 +6444,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6479,25 +6479,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6512,7 +6512,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6527,25 +6527,25 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>30/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6560,7 +6560,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6575,15 +6575,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>30/06/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6593,7 +6593,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6608,7 +6608,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6623,25 +6623,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6671,25 +6671,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6704,7 +6704,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Sistema de Manejo de Riles de Planta Pisquera Río Elqui (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6714,30 +6714,30 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Pisquera Río Elqui Ltda</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>18/03/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2781615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6752,7 +6752,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TRANQUE DE RELAVES ANY (e-seia)</t>
+          <t>Sistema de Manejo de Riles de Planta Pisquera Río Elqui (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6767,15 +6767,15 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Pisquera Río Elqui Ltda</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>520</v>
+        <v>50</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>06/02/2008</t>
+          <t>18/03/2008</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6785,7 +6785,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2693359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2781615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Sistema de manejo de riles de Planta Pisquera Río Elqui (e-seia)</t>
+          <t>TRANQUE DE RELAVES ANY (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6815,25 +6815,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Pisquera Río Elqui Ltda</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>50</v>
+        <v>520</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>30/01/2008</t>
+          <t>06/02/2008</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2659042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2693359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Sistema de manejo de riles de planta Pisquera Río Elqui (e-seia)</t>
+          <t>Sistema de manejo de riles de Planta Pisquera Río Elqui (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>27/12/2007</t>
+          <t>30/01/2008</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2595334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2659042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Proyecto Ampliación Planta Talcuna (e-seia)</t>
+          <t>Sistema de manejo de riles de planta Pisquera Río Elqui (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6911,25 +6911,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Pisquera Río Elqui Ltda</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>6000</v>
+        <v>50</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>10/12/2007</t>
+          <t>27/12/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2570874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2595334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Proyecto Ampliación Planta Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6954,20 +6954,20 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>429</v>
+        <v>6000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>10/12/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6977,7 +6977,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2570874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7007,25 +7007,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7055,25 +7055,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7103,25 +7103,25 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7151,25 +7151,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7199,25 +7199,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Sistema de disposicion de riles Viña Falernia S.A. (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7242,20 +7242,20 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>01/08/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2241447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Bodega De Insumos fundo Huancara, Empresa Guillermo Prohens SommellaS.A. (e-seia)</t>
+          <t>Sistema de disposicion de riles Viña Falernia S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7295,15 +7295,15 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Guillermo Prohens Sommella S.A.</t>
+          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>01/08/2007</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7313,7 +7313,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2252698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2241447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Bodega de Insumos Fundo Sta. Bernardita, Empresa Guillermo Prohens Sommella S.A. (e-seia)</t>
+          <t>Bodega De Insumos fundo Huancara, Empresa Guillermo Prohens SommellaS.A. (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2257624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2252698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Bodega de Insumos Fundo Sta. Bernardita, Empresa Guillermo Prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7386,16 +7386,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Guillermo Prohens Sommella S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7404,12 +7404,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2257624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7439,15 +7439,15 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7487,25 +7487,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>DISPOSICION DE RILES VIÑA FALERNIA (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7530,30 +7530,30 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>31/05/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2176747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Sistema de disposicion de Riles Viña Falernia S.A. (e-seia)</t>
+          <t>DISPOSICION DE RILES VIÑA FALERNIA (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,7 +7591,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>02/04/2007</t>
+          <t>31/05/2007</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2078043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2176747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Sistema de disposicion de Riles Viña Falernia S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7626,20 +7626,20 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>02/04/2007</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2078043&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7679,15 +7679,15 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Bodega de Insumos, Fundo Huancara, Guillermo prohens Sommella S.A. (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7722,20 +7722,20 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Guillermo Prohens Sommella S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>22/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7745,7 +7745,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1934992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Bodega de Insumos Fundo Santa Bernardita, Guillermo Prohens Sommella S.A. (e-seia)</t>
+          <t>Bodega de Insumos, Fundo Huancara, Guillermo prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7793,7 +7793,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1935186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1934992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Bodega de Insumos Fundo Santa Bernardita, Guillermo Prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7818,30 +7818,30 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Guillermo Prohens Sommella S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>22/01/2007</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1935186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,17 +7879,17 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Bodega Insumos Fundo Huancara, Guillermo Prohens Sommella S.A. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7914,20 +7914,20 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Guillermo Prohens Sommella S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>21</v>
+        <v>200</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>27/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1884903&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Bodega Insumos Fundo Santa Bernardita, Guillermo Prohens Sommella S.A. (e-seia)</t>
+          <t>Bodega Insumos Fundo Huancara, Guillermo Prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1885130&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1884903&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Bodega Insumos Fundo Santa Bernardita, Guillermo Prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8010,30 +8010,30 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Guillermo Prohens Sommella S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>27/12/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1885130&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8063,15 +8063,15 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8081,7 +8081,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,17 +8119,17 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8144,7 +8144,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8159,25 +8159,25 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8192,7 +8192,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8207,25 +8207,25 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Central Hidroelectrica Balalita (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8250,30 +8250,30 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Hidrobalalita S.A</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>17752</v>
+        <v>0</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>30/10/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1771727&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8288,7 +8288,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Central Hidroelectrica Balalita (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8298,30 +8298,30 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Hidrobalalita S.A</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>250</v>
+        <v>17752</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>30/10/2006</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1771727&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8336,7 +8336,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8351,25 +8351,25 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8384,7 +8384,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>IMPLEMENTACIÓN PLANTA DE SECADO DE JIBIA LEE, EN SECTOR VARILLAR, COMUNA DE VICUÑA (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8394,30 +8394,30 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Sang Baek Lee</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>850</v>
+        <v>20</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>21/06/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1510008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8432,7 +8432,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>IMPLEMENTACIÓN PLANTA DE SECADO DE JIBIA LEE, EN SECTOR VARILLAR, COMUNA DE VICUÑA (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8442,30 +8442,30 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Sang Baek Lee</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>72</v>
+        <v>850</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>21/06/2006</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1510008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8480,7 +8480,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELECTRICA PUCLARO (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8490,20 +8490,20 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>HIDROELECTRICA PUCLARO S.A.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>4800</v>
+        <v>72</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8513,7 +8513,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1180412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8528,7 +8528,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>CENTRAL HIDROELECTRICA PUCLARO (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8538,30 +8538,30 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>HIDROELECTRICA PUCLARO S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>72</v>
+        <v>4800</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1180412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8591,25 +8591,25 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8639,15 +8639,15 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8657,7 +8657,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8672,7 +8672,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Implementacion de una planta de Riles (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8682,30 +8682,30 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>12/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1013416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8720,7 +8720,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Implementacion de una planta de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8730,30 +8730,30 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>12/09/2005</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1013416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8783,11 +8783,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8831,11 +8831,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8864,7 +8864,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Manejo de RILES de la Bodega de Vinos , Viña Falernia (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8874,30 +8874,30 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>29/08/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=951200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8912,7 +8912,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ACTUALIZACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE COQUIMBO (e-seia)</t>
+          <t>Manejo de RILES de la Bodega de Vinos , Viña Falernia (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8927,25 +8927,25 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Coquimbo</t>
+          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>05/08/2005</t>
+          <t>29/08/2005</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=951200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8960,7 +8960,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>ACTUALIZACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE COQUIMBO (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8970,20 +8970,20 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Coquimbo</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>05/08/2005</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9008,7 +9008,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9023,15 +9023,15 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9041,7 +9041,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9056,7 +9056,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Tranque de Relaves Socorro Nº 6, Planta Talcuna (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9066,20 +9066,20 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>11/05/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9089,7 +9089,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=348710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9104,7 +9104,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Tranque de Relaves Socorro N° 6, Planta Talcuna (e-seia)</t>
+          <t>Modificación Proyecto de Tranque de Relaves Socorro Nº 6, Planta Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9123,21 +9123,21 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>04/05/2004</t>
+          <t>11/05/2004</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=341485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=348710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9152,7 +9152,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Tranque de Relaves YENNY 1-2 (e-seia)</t>
+          <t>Modificación Proyecto de Tranque de Relaves Socorro N° 6, Planta Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9167,25 +9167,25 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Palo Negro</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>239</v>
+        <v>1</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>04/05/2004</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=218797&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=341485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9200,7 +9200,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Tranque de Relaves Yenny 1 - 2 (e-seia)</t>
+          <t>Tranque de Relaves YENNY 1-2 (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9219,21 +9219,21 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>27/11/2003</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=211049&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=218797&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9248,7 +9248,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Tranque de Relaves Las Mollacas (e-seia)</t>
+          <t>Tranque de Relaves Yenny 1 - 2 (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9267,21 +9267,21 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>09/10/2003</t>
+          <t>27/11/2003</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=172416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=211049&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9296,7 +9296,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Tranque de Relaves Las Mollacas (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9306,30 +9306,30 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Sociedad Contractual Minera Palo Negro</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>09/10/2003</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=172416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9344,7 +9344,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Reformulación Plan Regulador Comunal de Vicuña</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9354,20 +9354,20 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Vicuña</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>16/10/2002</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9377,7 +9377,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5922&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9392,7 +9392,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Bodega Viña Falernia (e-seia)</t>
+          <t>Reformulación Plan Regulador Comunal de Vicuña</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9407,25 +9407,25 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Alamo Ltda.</t>
+          <t>Ilustre Municipalidad de Vicuña</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>14/10/2002</t>
+          <t>16/10/2002</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5922&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9440,7 +9440,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Tranque (Depósito) de Relaves Mantos de Talcuna Nº4 Planta Don Arturo</t>
+          <t>Bodega Viña Falernia (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9455,25 +9455,25 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Compañía Minera Cobrex</t>
+          <t>Sociedad Agrícola El Alamo Ltda.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>2050</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>26/02/2002</t>
+          <t>14/10/2002</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9488,7 +9488,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Proyecto Tranque (Depósito) de Relaves Sector Los Infieles-Planta Talcuna</t>
+          <t>Tranque (Depósito) de Relaves Mantos de Talcuna Nº4 Planta Don Arturo</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9503,7 +9503,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Compañía Minera Cobrex</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -9511,7 +9511,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>03/12/2001</t>
+          <t>26/02/2002</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9536,7 +9536,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Proyecto Tranque (Depósito) de Relaves Sector Los Infieles-Planta Talcuna</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9546,30 +9546,30 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>03/12/2001</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9584,7 +9584,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Proyecto Tranque de Relaves Sector La Tococa - Planta Talcuna</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9594,30 +9594,30 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>08/06/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9632,30 +9632,30 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Proyecto Tranque de Relaves Sector La Tococa - Planta Talcuna</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>1230</v>
+        <v>0</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>08/06/2001</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9665,7 +9665,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9680,40 +9680,40 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Proyecto de Tranque de Relave Sector El Plomo-Planta Talcuna</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>19/02/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9728,7 +9728,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Proyecto Cabañas y Centro Recreacional Don Demetrio</t>
+          <t>Proyecto de Tranque de Relave Sector El Plomo-Planta Talcuna</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9743,25 +9743,25 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Gustavo Psijas Pizarro</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>01/02/2001</t>
+          <t>19/02/2001</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9776,7 +9776,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Proyecto Tranque de Relaves Sector La Higuera-Planta Talcuna</t>
+          <t>Proyecto Cabañas y Centro Recreacional Don Demetrio</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9791,15 +9791,15 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Gustavo Psijas Pizarro</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>15/01/2001</t>
+          <t>01/02/2001</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9809,7 +9809,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9824,7 +9824,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Subestación de Poder Eléctrica Sector La Compañía Vicuña IV Región</t>
+          <t>Proyecto Tranque de Relaves Sector La Higuera-Planta Talcuna</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9839,15 +9839,15 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>16/06/2000</t>
+          <t>15/01/2001</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9872,7 +9872,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Subestación de Poder Eléctrica Sector La Compañía Vicuña IV Región</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9882,20 +9882,20 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>110</v>
+        <v>700</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>16/06/2000</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9905,7 +9905,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9920,7 +9920,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento y Disposición Final de Residuos Industriales Líquidos CAPEL Planta Vicuña</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9930,20 +9930,20 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>270</v>
+        <v>110</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>07/02/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9953,7 +9953,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2662&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9968,7 +9968,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Proyecto de Tranque de Relaves Socorro Nº6 Planta Talcuna</t>
+          <t>Sistema de Tratamiento y Disposición Final de Residuos Industriales Líquidos CAPEL Planta Vicuña</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9983,15 +9983,15 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>17/12/1999</t>
+          <t>07/02/2000</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10001,7 +10001,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2662&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10016,7 +10016,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Sistema de Acumulación o Almacenaje de Residuos Sólidos Industriales Planta Minera San Gerónimo</t>
+          <t>Proyecto de Tranque de Relaves Socorro Nº6 Planta Talcuna</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10035,21 +10035,21 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>06/12/1999</t>
+          <t>17/12/1999</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10064,7 +10064,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento y Disposición Final de Aguas Servidas de la Localidad de Peralillo</t>
+          <t>Sistema de Acumulación o Almacenaje de Residuos Sólidos Industriales Planta Minera San Gerónimo</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10079,25 +10079,25 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Aguas del Valle S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>470</v>
+        <v>30</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>02/11/1999</t>
+          <t>06/12/1999</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2407&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10112,7 +10112,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Aguas Servidas de la Localidad de Gualliguaica</t>
+          <t>Planta de Tratamiento y Disposición Final de Aguas Servidas de la Localidad de Peralillo</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10131,11 +10131,11 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>190</v>
+        <v>470</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>13/09/1999</t>
+          <t>02/11/1999</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10145,7 +10145,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2407&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10160,7 +10160,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Aguas Servidas de la Localidad de Punta Azul</t>
+          <t>Sistema de Tratamiento de Aguas Servidas de la Localidad de Gualliguaica</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10179,7 +10179,7 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Complejo Agroturístico Valle de Elqui</t>
+          <t>Sistema de Tratamiento de Aguas Servidas de la Localidad de Punta Azul</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10223,15 +10223,15 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Tamblay Silva</t>
+          <t>Aguas del Valle S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>350</v>
+        <v>130</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>09/09/1999</t>
+          <t>13/09/1999</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10241,7 +10241,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10256,7 +10256,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Servicio de Agua Potable Rural Nueva Gualliguaica Comuna de Vicuña</t>
+          <t>Complejo Agroturístico Valle de Elqui</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10271,25 +10271,25 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Tamblay Silva</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>11/02/1999</t>
+          <t>09/09/1999</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10304,7 +10304,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Tranques de Relaves Transitorio Planta Don Arturo de Talcuna</t>
+          <t>Servicio de Agua Potable Rural Nueva Gualliguaica Comuna de Vicuña</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10319,15 +10319,15 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Compañía Minera Cobrex</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>15000</v>
+        <v>290</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>12/03/1998</t>
+          <t>11/02/1999</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10337,7 +10337,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=716&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10352,7 +10352,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Construcción Observatorio Astronómico Solar Telescopio</t>
+          <t>Tranques de Relaves Transitorio Planta Don Arturo de Talcuna</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10367,15 +10367,15 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Asociación de Universidades para Investigación en Astronomía (AURA, Inc)</t>
+          <t>Compañía Minera Cobrex</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>30/10/1997</t>
+          <t>12/03/1998</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10385,7 +10385,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=716&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10400,7 +10400,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Construcción Observatorio Astronómico Comunal II Etapa</t>
+          <t>Construcción Observatorio Astronómico Solar Telescopio</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10415,15 +10415,15 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Vicuña</t>
+          <t>Asociación de Universidades para Investigación en Astronomía (AURA, Inc)</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>260</v>
+        <v>28000</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>24/07/1997</t>
+          <t>30/10/1997</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10433,7 +10433,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10448,7 +10448,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Reposición Escuela Nueva Talcuna</t>
+          <t>Construcción Observatorio Astronómico Comunal II Etapa</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10467,7 +10467,7 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10496,7 +10496,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Reposición Escuela Viñita Alta</t>
+          <t>Reposición Escuela Nueva Talcuna</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10515,7 +10515,7 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10544,12 +10544,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Estudio Integral Tranques Relaves Pastos Largos</t>
+          <t>Reposición Escuela Viñita Alta</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -10559,25 +10559,25 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>CIA. MINERA BARRICK CHILE LTDA.</t>
+          <t>Ilustre Municipalidad de Vicuña</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>2810</v>
+        <v>350</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>14/08/1996</t>
+          <t>24/07/1997</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=80&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10592,7 +10592,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Caminos de Acceso y Líneas de Alta Tensión a los Proyectos Nevada y El Indio</t>
+          <t>Estudio Integral Tranques Relaves Pastos Largos</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10602,20 +10602,20 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Compañia Minera Nevada SpA</t>
+          <t>CIA. MINERA BARRICK CHILE LTDA.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>46000</v>
+        <v>2810</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>19/03/1996</t>
+          <t>14/08/1996</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10625,7 +10625,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=80&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10640,7 +10640,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Planta JIGG Quebrada de Marquesa</t>
+          <t>Caminos de Acceso y Líneas de Alta Tensión a los Proyectos Nevada y El Indio</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10650,20 +10650,20 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Manganesos Atacama S.A. Ltda.</t>
+          <t>Compañia Minera Nevada SpA</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>200</v>
+        <v>46000</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>17/10/1995</t>
+          <t>19/03/1996</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10673,7 +10673,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10688,43 +10688,91 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
+          <t>Planta JIGG Quebrada de Marquesa</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Cuarta</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Manganesos Atacama S.A. Ltda.</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>200</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>17/10/1995</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>Vicuña</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
           <t>Proyecto Minero Tambo</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>Cuarta</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Cuarta</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
         <is>
           <t>CIA. MINERA BARRICK CHILE LTDA.</t>
         </is>
       </c>
-      <c r="F216" t="n">
+      <c r="F217" t="n">
         <v>115000</v>
       </c>
-      <c r="G216" t="inlineStr">
+      <c r="G217" t="inlineStr">
         <is>
           <t>20/07/1994</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
+      <c r="H217" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I216" t="inlineStr">
+      <c r="I217" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=148&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J216" t="inlineStr">
+      <c r="J217" t="inlineStr">
         <is>
           <t>Vicuña</t>
         </is>

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Modificaciones Minera Linderos</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,16 +2690,16 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificaciones Minera Linderos</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,16 +2738,16 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificaciones Minera Linderos</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,16 +2690,16 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Modificaciones Minera Linderos</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,16 +2738,16 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>03/07/2023</t>
+          <t>10/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificaciones Minera Linderos</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,16 +2690,16 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Modificaciones Minera Linderos</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,16 +2738,16 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J217"/>
+  <dimension ref="A1:J218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prospección Minera Campanario</t>
+          <t>Modificaciones Proyecto Minero Arqueros</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Inversiones Barrick Conosur SpA</t>
+          <t>Compañía Minera Arqueros S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>36000</v>
+        <v>3000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10/07/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159521613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160243763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mina Yeso Corral</t>
+          <t>Prospección Minera Campanario</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Yesos Andinas SPA</t>
+          <t>Inversiones Barrick Conosur SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>36000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>14/04/2023</t>
+          <t>10/07/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158652957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159521613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Alto Solar</t>
+          <t>Mina Yeso Corral</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Alto Solar SPA</t>
+          <t>Yesos Andinas SPA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>61261</v>
+        <v>100</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/03/2023</t>
+          <t>14/04/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158865055&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158652957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -587,11 +587,11 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>161261</v>
+        <v>61261</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>18/02/2023</t>
+          <t>22/03/2023</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158677332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158865055&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mina Yeso Corral</t>
+          <t>Parque Fotovoltaico Alto Solar</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Yesos Andinas SPA</t>
+          <t>Alto Solar SPA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>161261</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>25/01/2023</t>
+          <t>18/02/2023</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158513816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158677332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Alto Solar</t>
+          <t>Mina Yeso Corral</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Alto Solar SPA</t>
+          <t>Yesos Andinas SPA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>161261</v>
+        <v>100</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>20/01/2023</t>
+          <t>25/01/2023</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158033795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158513816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mina Yeso Corral</t>
+          <t>Parque Fotovoltaico Alto Solar</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Yesos Andinos SPA</t>
+          <t>Alto Solar SPA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>161261</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>18/10/2022</t>
+          <t>20/01/2023</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157197696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158033795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Crecimiento Tranque de Relaves Panules</t>
+          <t>Mina Yeso Corral</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SOCIEDAD SERVICIOS A LA MINERIA OMINT SPA</t>
+          <t>Yesos Andinos SPA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>06/01/2022</t>
+          <t>18/10/2022</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154614776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157197696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -831,17 +831,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>28/12/2021</t>
+          <t>06/01/2022</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154497249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154614776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Repotenciamiento PMGD Luna II</t>
+          <t>Crecimiento Tranque de Relaves Panules</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Parque Solar Luna del Norte SpA</t>
+          <t>SOCIEDAD SERVICIOS A LA MINERIA OMINT SPA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1900</v>
+        <v>250</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23/07/2020</t>
+          <t>28/12/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147476824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154497249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Repotenciamiento PMGD SOL II</t>
+          <t>Repotenciamiento PMGD Luna II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,11 +919,11 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Parque Solar Sol del Norte SpA</t>
+          <t>Parque Solar Luna del Norte SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3750</v>
+        <v>1900</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147482505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147476824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,12 +952,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Proyecto Minero Arqueros</t>
+          <t>Repotenciamiento PMGD SOL II</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>COMPAÑÍA MINERA ARQUEROS S.A.</t>
+          <t>Parque Solar Sol del Norte SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>200000</v>
+        <v>3750</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>25/05/2020</t>
+          <t>23/07/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146624103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147482505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Fundo San Isidro</t>
+          <t>Proyecto Minero Arqueros</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FSI Solar SpA</t>
+          <t>COMPAÑÍA MINERA ARQUEROS S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>15000</v>
+        <v>200000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>23/04/2020</t>
+          <t>25/05/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146361278&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146624103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>LENERGIA CHILE SpA</t>
+          <t>FSI Solar SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>23/03/2020</t>
+          <t>23/04/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146016174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146361278&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Planta Fotovoltaica Fundo San Isidro</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,30 +1106,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>LENERGIA CHILE SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>23/03/2020</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146016174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica Santa Francisca</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,20 +1154,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CVE Proyecto Diecisiete SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>7600</v>
+        <v>25000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>22/11/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144992691&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nuevo sistema de tratamiento de aguas servidas de Vicuña, región de Coquimbo</t>
+          <t>Nueva Central Solar Fotovoltaica Santa Francisca</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Aguas del Valle S.A.</t>
+          <t>CVE Proyecto Diecisiete SpA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5200</v>
+        <v>7600</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>28/10/2019</t>
+          <t>22/11/2019</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144513629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144992691&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Central GLP Talcuna</t>
+          <t>Nuevo sistema de tratamiento de aguas servidas de Vicuña, región de Coquimbo</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MARQUESA GLP SpA</t>
+          <t>Aguas del Valle S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3500</v>
+        <v>5200</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>23/07/2019</t>
+          <t>28/10/2019</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143765092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144513629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Proyecto ?Faena Minera ?Mina San Antonio?, explotación a 40.000 ton/mes?</t>
+          <t>Central GLP Talcuna</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>MARQUESA GLP SpA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4200</v>
+        <v>3500</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>21/11/2018</t>
+          <t>23/07/2019</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141692561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143765092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
+          <t>Proyecto ?Faena Minera ?Mina San Antonio?, explotación a 40.000 ton/mes?</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,20 +1346,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>27/06/2018</t>
+          <t>21/11/2018</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141692561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Gabriela</t>
+          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Bronte SpA</t>
+          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>22/03/2018</t>
+          <t>27/06/2018</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138751214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Parque solar Llanos de Potroso</t>
+          <t>Parque Fotovoltaico Gabriela</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Llanos de Potroso SpA</t>
+          <t>Bronte SpA</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>23/11/2016</t>
+          <t>22/03/2018</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131950285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138751214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1503,17 +1503,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20/10/2016</t>
+          <t>23/11/2016</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131822429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131950285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Parque Solar Llanos de Potroso</t>
+          <t>Parque solar Llanos de Potroso</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>16/09/2016</t>
+          <t>20/10/2016</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131726680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131822429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PARQUE SOLAR CASA DE PIEDRA</t>
+          <t>Parque Solar Llanos de Potroso</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1595,11 +1595,11 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>62000</v>
+        <v>12000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>22/04/2016</t>
+          <t>16/09/2016</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131323063&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131726680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Parque Solar Casa de Piedra</t>
+          <t>PARQUE SOLAR CASA DE PIEDRA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>24/03/2016</t>
+          <t>22/04/2016</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131266497&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131323063&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Parque Solar Casa de Piedra - Llanos de Potroso</t>
+          <t>Parque Solar Casa de Piedra</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1691,11 +1691,11 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>95130</v>
+        <v>62000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>19/02/2016</t>
+          <t>24/03/2016</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131156984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131266497&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas para Transporte Terrestre de Residuos y Sustancias Peligrosas a Granel desde la I a la X Región</t>
+          <t>Parque Solar Casa de Piedra - Llanos de Potroso</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,20 +1730,20 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Llanos de Potroso SpA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>95130</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>11/12/2015</t>
+          <t>19/02/2016</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130832601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131156984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>La Represa</t>
+          <t>Ampliación de Rutas para Transporte Terrestre de Residuos y Sustancias Peligrosas a Granel desde la I a la X Región</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Minera La Reserva Limitada</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>13/10/2015</t>
+          <t>11/12/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130820333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130832601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1839,17 +1839,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>13/10/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130803747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130820333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Proyecto La Represa</t>
+          <t>La Represa</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>26/08/2015</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130712151&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130803747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Prospección Minera Arqueros - Fase 2</t>
+          <t>Proyecto La Represa</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Compañía Minera Arqueros S.A.</t>
+          <t>Minera La Reserva Limitada</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>22800</v>
+        <v>2500</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>09/07/2015</t>
+          <t>26/08/2015</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130595293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130712151&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Prospección Minera Alturas</t>
+          <t>Prospección Minera Arqueros - Fase 2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Compañía Minera Salitrales Limitada</t>
+          <t>Compañía Minera Arqueros S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>70000</v>
+        <v>22800</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>04/05/2015</t>
+          <t>09/07/2015</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130424679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130595293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>24/04/2015</t>
+          <t>04/05/2015</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130402498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130424679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Prospección Minera Alturas</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,20 +2066,20 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía Minera Salitrales Limitada</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>5000</v>
+        <v>70000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>24/04/2015</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130402498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Prospección Minera Alturas</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Compañía Minera Salitrales Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>70000</v>
+        <v>5000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>22/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130150788&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2175,17 +2175,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>30/12/2014</t>
+          <t>22/01/2015</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130084416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130150788&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Prospección Minera Alturas</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,20 +2210,20 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía Minera Salitrales Limitada</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>5000</v>
+        <v>70000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>30/12/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130084416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2319,17 +2319,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2559,17 +2559,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MINA SUBTERRÁNEA 21 DE MAYO DE CMSG EN TALCUNA, PRODUCCIÓN A 50 KTM</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>19/03/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129233665&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Modificaciones Minera Linderos</t>
+          <t>MINA SUBTERRÁNEA 21 DE MAYO DE CMSG EN TALCUNA, PRODUCCIÓN A 50 KTM</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3000</v>
+        <v>25000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>19/03/2014</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129233665&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Regularizacion Ambiental del Proceso de Explotacion y Procesamiento de minerales, Yacimiento Talcuna</t>
+          <t>Modificaciones Minera Linderos</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SERVICIOS A LA MINERÍA OMINT SPA</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>18/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128943882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Compañia Minera Talcuna Limitada</t>
+          <t>SERVICIOS A LA MINERÍA OMINT SPA</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -2847,17 +2847,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>12/12/2013</t>
+          <t>18/12/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916085&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128943882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Regularizacion Ambiental del proceso de Explotacion y Procesamiento de minerales, Yacimiento Talcuna</t>
+          <t>Regularizacion Ambiental del Proceso de Explotacion y Procesamiento de minerales, Yacimiento Talcuna</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2895,17 +2895,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>06/12/2013</t>
+          <t>12/12/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128894465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916085&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Regularizacion Ambiental del proceso de Explotacion y Procesamiento de minerales, Yacimiento Talcuna</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañia Minera Talcuna Limitada</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>06/12/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128894465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3231,7 +3231,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Aumento de Producción en Planta Condoriaco</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,20 +3314,20 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>16/11/2012</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7540103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3375,17 +3375,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>09/11/2012</t>
+          <t>16/11/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7510930&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7540103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Aumento de Producción en Planta Condoriaco</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>15000</v>
+        <v>500</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>09/11/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7510930&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Ampliación Planta Talcuna Fase II, 120 KTM</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>11/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Proyecto Ampliación Planta Talcuna Fase II, 120KMT</t>
+          <t>Ampliación Planta Talcuna Fase II, 120 KTM</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3567,17 +3567,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>04/04/2012</t>
+          <t>11/04/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6768247&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6786315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Proyecto Ampliación Planta Talcuna Fase II, 120KMT</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>04/04/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6768247&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Regularización Embalse El Calvario</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Agrícola El Calvario S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>07/03/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6668178&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Regularización Embalse El Calvario</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,30 +3698,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Agrícola El Calvario S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>07/03/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6668178&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3995,21 +3995,21 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>75000</v>
+        <v>150</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>02/12/2010</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4043,21 +4043,21 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>150</v>
+        <v>75000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>27/10/2010</t>
+          <t>02/12/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Tranque de Relaves Panules</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>SERVICIOS A LA MINERÍA OMINT SPA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>3500</v>
+        <v>150</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>19/10/2010</t>
+          <t>27/10/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5011146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Compañia Minera Talcuna Limitada</t>
+          <t>SERVICIOS A LA MINERÍA OMINT SPA</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4143,17 +4143,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>04/10/2010</t>
+          <t>19/10/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4975616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5011146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>Tranque de Relaves Panules</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Compañia Minera Talcuna Limitada</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>563</v>
+        <v>3500</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>04/10/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4975616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1750</v>
+        <v>563</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>85</v>
+        <v>1750</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>20/05/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>20/05/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>PROYECTO CONDORIACO (Planta de Cianuración para Minerales de Oro y Plata)</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>10/05/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4575438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>PROYECTO CONDORIACO (Planta de Cianuración para Minerales de Oro y Plata)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,20 +4418,20 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>4050</v>
+        <v>1000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>10/05/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4575438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PROYECTO CONDORIACO (Planta de Cianuración para Minerales de Oro y Plata)</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,30 +4466,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1000</v>
+        <v>4050</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>27/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4533719&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>PROYECTO CONDORIACO (Planta de Cianuración para Minerales de Oro y Plata)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,30 +4514,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>27/04/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4533719&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,25 +4711,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,25 +4759,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>San Bartolomé (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,30 +4802,30 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>D &amp; Q Mineral Compañía Limitada</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1313</v>
+        <v>350</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>27/11/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4197295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>San Bartolomé (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,30 +4850,30 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>D &amp; Q Mineral Compañía Limitada</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2000</v>
+        <v>1313</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>27/11/2009</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4197295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>377</v>
+        <v>2000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>07/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Alcantarillado, Tratamiento y Disposición Final de Aguas Servidas de Marquesa y Nueva Talcuna (e-seia)</t>
+          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,30 +5042,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Comite de Agua Potable Rural Marquesa-Nueva Talcuna</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>31/08/2009</t>
+          <t>07/09/2009</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4001865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Modificación Sistema de Alcantarillado, Tratamiento y Disposición Final de Aguas Servidas de Marquesa y Nueva Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,20 +5090,20 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Comite de Agua Potable Rural Marquesa-Nueva Talcuna</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>20/08/2009</t>
+          <t>31/08/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983845&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4001865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Modificaciòn Sistema Alcantarillado y Tratamiento de Aguas Servidas de Marquesa y Nueva Talcuna (e-seia)</t>
+          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,30 +5138,30 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Comite de Agua Potable Rural Marquesa-Nueva Talcuna</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>17/08/2009</t>
+          <t>20/08/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3951119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983845&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Modificaciòn Sistema Alcantarillado y Tratamiento de Aguas Servidas de Marquesa y Nueva Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,30 +5186,30 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Comite de Agua Potable Rural Marquesa-Nueva Talcuna</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>07/08/2009</t>
+          <t>17/08/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3952839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3951119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,25 +5239,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>800</v>
+        <v>28</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>07/08/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3952839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Sistema de Disposicion de RILes (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,30 +5282,30 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Alamo Ltda.</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>40</v>
+        <v>800</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>31/03/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3661633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SISTEMA DE DISPOSICION DE RILES (e-seia)</t>
+          <t>Sistema de Disposicion de RILes (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5343,17 +5343,17 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>10/03/2009</t>
+          <t>31/03/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3661633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO DEL SISTEMA DE TRATAMIENTO Y DISPOSICIÓN DE VINAZA, AGUAS DE LAVADO Y MANEJO DE ORUJO Y ESCOBAJO EN PLANTA AGROINDUSTRIAL VICUÑA (e-seia)</t>
+          <t>SISTEMA DE DISPOSICION DE RILES (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Sociedad Agrícola El Alamo Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>05/02/2009</t>
+          <t>10/03/2009</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3542766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5439,17 +5439,17 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>05/02/2009</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3530200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3542766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>MEJORAMIENTO DEL SISTEMA DE TRATAMIENTO Y DISPOSICIÓN DE VINAZA, AGUAS DE LAVADO Y MANEJO DE ORUJO Y ESCOBAJO EN PLANTA AGROINDUSTRIAL VICUÑA (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,16 +5474,16 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3530200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,36 +5512,40 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TRANQUE DE RELAVES HUMO CORRAL</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr"/>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>07/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3475081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5575,17 +5579,17 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>30/12/2008</t>
+          <t>07/01/2009</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3463284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3475081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5600,14 +5604,10 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Cultivo de la microalga Haematococcus pluvialis (e-seia)</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TRANQUE DE RELAVES HUMO CORRAL</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
           <t>Cuarta</t>
@@ -5615,25 +5615,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Alimtec S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>11/12/2008</t>
+          <t>30/12/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3413969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3463284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5663,25 +5663,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Julio Ignacio Ilabaca Grez</t>
+          <t>Alimtec S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>11/12/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3371390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3413969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5696,7 +5696,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>Cultivo de la microalga Haematococcus pluvialis (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5706,20 +5706,20 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Julio Ignacio Ilabaca Grez</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>25</v>
+        <v>5000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5729,7 +5729,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3371390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5744,7 +5744,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5759,25 +5759,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5792,7 +5792,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5807,25 +5807,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5855,25 +5855,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5903,11 +5903,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5916,12 +5916,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5959,7 +5959,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5969,7 +5969,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5999,25 +5999,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6055,7 +6055,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6065,7 +6065,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6080,7 +6080,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6095,15 +6095,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6113,7 +6113,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6143,25 +6143,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6176,7 +6176,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6191,25 +6191,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>20</v>
+        <v>3408</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6239,25 +6239,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Construccion y Operacion de Gran Telescopio de Rastreo Sinoptico (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6282,20 +6282,20 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Aura Inc</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>390000</v>
+        <v>80</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>25/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6305,7 +6305,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3073048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6343,17 +6343,17 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>17/07/2008</t>
+          <t>25/07/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3040083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3073048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Construccion y Operacion de Gran Telescopio de Rastreo Sinoptico (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6378,20 +6378,20 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Aura Inc</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>250</v>
+        <v>390000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>17/07/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3040083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6416,7 +6416,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6431,15 +6431,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6449,7 +6449,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6479,11 +6479,11 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6492,12 +6492,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6512,7 +6512,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6527,25 +6527,25 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6560,7 +6560,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6575,25 +6575,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>30/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6608,7 +6608,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6623,15 +6623,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>30/06/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6641,7 +6641,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6671,25 +6671,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6704,7 +6704,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6719,25 +6719,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6752,7 +6752,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Sistema de Manejo de Riles de Planta Pisquera Río Elqui (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6762,30 +6762,30 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Pisquera Río Elqui Ltda</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>18/03/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2781615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TRANQUE DE RELAVES ANY (e-seia)</t>
+          <t>Sistema de Manejo de Riles de Planta Pisquera Río Elqui (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6815,15 +6815,15 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Pisquera Río Elqui Ltda</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>520</v>
+        <v>50</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>06/02/2008</t>
+          <t>18/03/2008</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6833,7 +6833,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2693359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2781615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Sistema de manejo de riles de Planta Pisquera Río Elqui (e-seia)</t>
+          <t>TRANQUE DE RELAVES ANY (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6863,25 +6863,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Pisquera Río Elqui Ltda</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>50</v>
+        <v>520</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>30/01/2008</t>
+          <t>06/02/2008</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2659042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2693359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Sistema de manejo de riles de planta Pisquera Río Elqui (e-seia)</t>
+          <t>Sistema de manejo de riles de Planta Pisquera Río Elqui (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>27/12/2007</t>
+          <t>30/01/2008</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6929,7 +6929,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2595334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2659042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Proyecto Ampliación Planta Talcuna (e-seia)</t>
+          <t>Sistema de manejo de riles de planta Pisquera Río Elqui (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6959,25 +6959,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Pisquera Río Elqui Ltda</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>6000</v>
+        <v>50</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>10/12/2007</t>
+          <t>27/12/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2570874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2595334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Proyecto Ampliación Planta Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7002,20 +7002,20 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>429</v>
+        <v>6000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>10/12/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2570874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7055,25 +7055,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7103,25 +7103,25 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7151,25 +7151,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7199,25 +7199,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7247,25 +7247,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Sistema de disposicion de riles Viña Falernia S.A. (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7290,20 +7290,20 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>01/08/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7313,7 +7313,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2241447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Bodega De Insumos fundo Huancara, Empresa Guillermo Prohens SommellaS.A. (e-seia)</t>
+          <t>Sistema de disposicion de riles Viña Falernia S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7343,15 +7343,15 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Guillermo Prohens Sommella S.A.</t>
+          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>01/08/2007</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2252698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2241447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Bodega de Insumos Fundo Sta. Bernardita, Empresa Guillermo Prohens Sommella S.A. (e-seia)</t>
+          <t>Bodega De Insumos fundo Huancara, Empresa Guillermo Prohens SommellaS.A. (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2257624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2252698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Bodega de Insumos Fundo Sta. Bernardita, Empresa Guillermo Prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7434,16 +7434,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Guillermo Prohens Sommella S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7452,12 +7452,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2257624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7487,15 +7487,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7535,25 +7535,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>DISPOSICION DE RILES VIÑA FALERNIA (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7578,30 +7578,30 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>31/05/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2176747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Sistema de disposicion de Riles Viña Falernia S.A. (e-seia)</t>
+          <t>DISPOSICION DE RILES VIÑA FALERNIA (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,7 +7639,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>02/04/2007</t>
+          <t>31/05/2007</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2078043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2176747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Sistema de disposicion de Riles Viña Falernia S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7674,20 +7674,20 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>02/04/2007</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2078043&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7727,15 +7727,15 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7745,7 +7745,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Bodega de Insumos, Fundo Huancara, Guillermo prohens Sommella S.A. (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7770,20 +7770,20 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Guillermo Prohens Sommella S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>22/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7793,7 +7793,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1934992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Bodega de Insumos Fundo Santa Bernardita, Guillermo Prohens Sommella S.A. (e-seia)</t>
+          <t>Bodega de Insumos, Fundo Huancara, Guillermo prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1935186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1934992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Bodega de Insumos Fundo Santa Bernardita, Guillermo Prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7866,30 +7866,30 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Guillermo Prohens Sommella S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>22/01/2007</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1935186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,17 +7927,17 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Bodega Insumos Fundo Huancara, Guillermo Prohens Sommella S.A. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7962,20 +7962,20 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Guillermo Prohens Sommella S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>21</v>
+        <v>200</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>27/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1884903&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Bodega Insumos Fundo Santa Bernardita, Guillermo Prohens Sommella S.A. (e-seia)</t>
+          <t>Bodega Insumos Fundo Huancara, Guillermo Prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8033,7 +8033,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1885130&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1884903&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Bodega Insumos Fundo Santa Bernardita, Guillermo Prohens Sommella S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8058,30 +8058,30 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Guillermo Prohens Sommella S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>27/12/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1885130&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8111,15 +8111,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8129,7 +8129,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8144,7 +8144,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,17 +8167,17 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8192,7 +8192,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8207,25 +8207,25 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8255,25 +8255,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8288,7 +8288,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Central Hidroelectrica Balalita (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8298,30 +8298,30 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Hidrobalalita S.A</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>17752</v>
+        <v>0</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>30/10/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1771727&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8336,7 +8336,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Central Hidroelectrica Balalita (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8346,30 +8346,30 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Hidrobalalita S.A</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>250</v>
+        <v>17752</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>30/10/2006</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1771727&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8384,7 +8384,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8399,25 +8399,25 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8432,7 +8432,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>IMPLEMENTACIÓN PLANTA DE SECADO DE JIBIA LEE, EN SECTOR VARILLAR, COMUNA DE VICUÑA (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8442,30 +8442,30 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Sang Baek Lee</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>850</v>
+        <v>20</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>21/06/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1510008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8480,7 +8480,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>IMPLEMENTACIÓN PLANTA DE SECADO DE JIBIA LEE, EN SECTOR VARILLAR, COMUNA DE VICUÑA (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8490,30 +8490,30 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Sang Baek Lee</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>72</v>
+        <v>850</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>21/06/2006</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1510008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8528,7 +8528,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELECTRICA PUCLARO (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8538,20 +8538,20 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>HIDROELECTRICA PUCLARO S.A.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>4800</v>
+        <v>72</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8561,7 +8561,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1180412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>CENTRAL HIDROELECTRICA PUCLARO (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8586,30 +8586,30 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>HIDROELECTRICA PUCLARO S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>72</v>
+        <v>4800</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1180412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8639,25 +8639,25 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8672,7 +8672,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8687,15 +8687,15 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8705,7 +8705,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8720,7 +8720,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Implementacion de una planta de Riles (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8730,30 +8730,30 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>12/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1013416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8768,7 +8768,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Implementacion de una planta de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8778,30 +8778,30 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>12/09/2005</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1013416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8831,11 +8831,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8864,7 +8864,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8879,11 +8879,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8912,7 +8912,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Manejo de RILES de la Bodega de Vinos , Viña Falernia (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8922,30 +8922,30 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>29/08/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=951200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8960,7 +8960,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ACTUALIZACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE COQUIMBO (e-seia)</t>
+          <t>Manejo de RILES de la Bodega de Vinos , Viña Falernia (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8975,25 +8975,25 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Coquimbo</t>
+          <t>VIÑA FALERNIA S.A. Viña Falernia</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>05/08/2005</t>
+          <t>29/08/2005</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=951200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9008,7 +9008,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>ACTUALIZACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE COQUIMBO (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9018,20 +9018,20 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Coquimbo</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>05/08/2005</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9041,7 +9041,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9056,7 +9056,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9071,15 +9071,15 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9089,7 +9089,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9104,7 +9104,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Tranque de Relaves Socorro Nº 6, Planta Talcuna (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9114,20 +9114,20 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>11/05/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9137,7 +9137,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=348710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9152,7 +9152,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Tranque de Relaves Socorro N° 6, Planta Talcuna (e-seia)</t>
+          <t>Modificación Proyecto de Tranque de Relaves Socorro Nº 6, Planta Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9171,21 +9171,21 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>04/05/2004</t>
+          <t>11/05/2004</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=341485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=348710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9200,7 +9200,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Tranque de Relaves YENNY 1-2 (e-seia)</t>
+          <t>Modificación Proyecto de Tranque de Relaves Socorro N° 6, Planta Talcuna (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9215,25 +9215,25 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Palo Negro</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>239</v>
+        <v>1</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>04/05/2004</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=218797&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=341485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9248,7 +9248,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Tranque de Relaves Yenny 1 - 2 (e-seia)</t>
+          <t>Tranque de Relaves YENNY 1-2 (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9267,21 +9267,21 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>27/11/2003</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=211049&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=218797&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9296,7 +9296,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Tranque de Relaves Las Mollacas (e-seia)</t>
+          <t>Tranque de Relaves Yenny 1 - 2 (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9315,21 +9315,21 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>09/10/2003</t>
+          <t>27/11/2003</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=172416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=211049&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9344,7 +9344,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Tranque de Relaves Las Mollacas (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9354,30 +9354,30 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Sociedad Contractual Minera Palo Negro</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>09/10/2003</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=172416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9392,7 +9392,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Reformulación Plan Regulador Comunal de Vicuña</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9402,20 +9402,20 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Vicuña</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>16/10/2002</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9425,7 +9425,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5922&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9440,7 +9440,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Bodega Viña Falernia (e-seia)</t>
+          <t>Reformulación Plan Regulador Comunal de Vicuña</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9455,25 +9455,25 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Alamo Ltda.</t>
+          <t>Ilustre Municipalidad de Vicuña</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>14/10/2002</t>
+          <t>16/10/2002</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5922&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9488,7 +9488,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Tranque (Depósito) de Relaves Mantos de Talcuna Nº4 Planta Don Arturo</t>
+          <t>Bodega Viña Falernia (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9503,25 +9503,25 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Compañía Minera Cobrex</t>
+          <t>Sociedad Agrícola El Alamo Ltda.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>2050</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>26/02/2002</t>
+          <t>14/10/2002</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=31271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9536,7 +9536,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Proyecto Tranque (Depósito) de Relaves Sector Los Infieles-Planta Talcuna</t>
+          <t>Tranque (Depósito) de Relaves Mantos de Talcuna Nº4 Planta Don Arturo</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9551,7 +9551,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Compañía Minera Cobrex</t>
         </is>
       </c>
       <c r="F192" t="n">
@@ -9559,7 +9559,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>03/12/2001</t>
+          <t>26/02/2002</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9569,7 +9569,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9584,7 +9584,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Proyecto Tranque (Depósito) de Relaves Sector Los Infieles-Planta Talcuna</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9594,30 +9594,30 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>03/12/2001</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9632,7 +9632,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Proyecto Tranque de Relaves Sector La Tococa - Planta Talcuna</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9642,30 +9642,30 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>08/06/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9680,30 +9680,30 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Proyecto Tranque de Relaves Sector La Tococa - Planta Talcuna</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>1230</v>
+        <v>0</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>08/06/2001</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9713,7 +9713,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9728,40 +9728,40 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Proyecto de Tranque de Relave Sector El Plomo-Planta Talcuna</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>19/02/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9776,7 +9776,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Proyecto Cabañas y Centro Recreacional Don Demetrio</t>
+          <t>Proyecto de Tranque de Relave Sector El Plomo-Planta Talcuna</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9791,25 +9791,25 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Gustavo Psijas Pizarro</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>01/02/2001</t>
+          <t>19/02/2001</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9824,7 +9824,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Proyecto Tranque de Relaves Sector La Higuera-Planta Talcuna</t>
+          <t>Proyecto Cabañas y Centro Recreacional Don Demetrio</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9839,15 +9839,15 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Gustavo Psijas Pizarro</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>15/01/2001</t>
+          <t>01/02/2001</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9872,7 +9872,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Subestación de Poder Eléctrica Sector La Compañía Vicuña IV Región</t>
+          <t>Proyecto Tranque de Relaves Sector La Higuera-Planta Talcuna</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9887,15 +9887,15 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>16/06/2000</t>
+          <t>15/01/2001</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9905,7 +9905,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9920,7 +9920,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Subestación de Poder Eléctrica Sector La Compañía Vicuña IV Región</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9930,20 +9930,20 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>110</v>
+        <v>700</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>16/06/2000</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9953,7 +9953,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9968,7 +9968,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento y Disposición Final de Residuos Industriales Líquidos CAPEL Planta Vicuña</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9978,20 +9978,20 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>270</v>
+        <v>110</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>07/02/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10001,7 +10001,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2662&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10016,7 +10016,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Proyecto de Tranque de Relaves Socorro Nº6 Planta Talcuna</t>
+          <t>Sistema de Tratamiento y Disposición Final de Residuos Industriales Líquidos CAPEL Planta Vicuña</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10031,15 +10031,15 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>17/12/1999</t>
+          <t>07/02/2000</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10049,7 +10049,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2662&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10064,7 +10064,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Sistema de Acumulación o Almacenaje de Residuos Sólidos Industriales Planta Minera San Gerónimo</t>
+          <t>Proyecto de Tranque de Relaves Socorro Nº6 Planta Talcuna</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10083,21 +10083,21 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>06/12/1999</t>
+          <t>17/12/1999</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10112,7 +10112,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento y Disposición Final de Aguas Servidas de la Localidad de Peralillo</t>
+          <t>Sistema de Acumulación o Almacenaje de Residuos Sólidos Industriales Planta Minera San Gerónimo</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10127,25 +10127,25 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Aguas del Valle S.A.</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>470</v>
+        <v>30</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>02/11/1999</t>
+          <t>06/12/1999</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2407&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10160,7 +10160,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Aguas Servidas de la Localidad de Gualliguaica</t>
+          <t>Planta de Tratamiento y Disposición Final de Aguas Servidas de la Localidad de Peralillo</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10179,11 +10179,11 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>190</v>
+        <v>470</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>13/09/1999</t>
+          <t>02/11/1999</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10193,7 +10193,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2407&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Aguas Servidas de la Localidad de Punta Azul</t>
+          <t>Sistema de Tratamiento de Aguas Servidas de la Localidad de Gualliguaica</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10227,7 +10227,7 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10241,7 +10241,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10256,7 +10256,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Complejo Agroturístico Valle de Elqui</t>
+          <t>Sistema de Tratamiento de Aguas Servidas de la Localidad de Punta Azul</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10271,15 +10271,15 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Tamblay Silva</t>
+          <t>Aguas del Valle S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>350</v>
+        <v>130</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>09/09/1999</t>
+          <t>13/09/1999</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10289,7 +10289,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10304,7 +10304,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Servicio de Agua Potable Rural Nueva Gualliguaica Comuna de Vicuña</t>
+          <t>Complejo Agroturístico Valle de Elqui</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10319,25 +10319,25 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Tamblay Silva</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>11/02/1999</t>
+          <t>09/09/1999</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10352,7 +10352,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Tranques de Relaves Transitorio Planta Don Arturo de Talcuna</t>
+          <t>Servicio de Agua Potable Rural Nueva Gualliguaica Comuna de Vicuña</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10367,15 +10367,15 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Compañía Minera Cobrex</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>15000</v>
+        <v>290</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>12/03/1998</t>
+          <t>11/02/1999</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10385,7 +10385,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=716&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10400,7 +10400,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Construcción Observatorio Astronómico Solar Telescopio</t>
+          <t>Tranques de Relaves Transitorio Planta Don Arturo de Talcuna</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10415,15 +10415,15 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Asociación de Universidades para Investigación en Astronomía (AURA, Inc)</t>
+          <t>Compañía Minera Cobrex</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>30/10/1997</t>
+          <t>12/03/1998</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10433,7 +10433,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=716&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10448,7 +10448,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Construcción Observatorio Astronómico Comunal II Etapa</t>
+          <t>Construcción Observatorio Astronómico Solar Telescopio</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10463,15 +10463,15 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Vicuña</t>
+          <t>Asociación de Universidades para Investigación en Astronomía (AURA, Inc)</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>260</v>
+        <v>28000</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>24/07/1997</t>
+          <t>30/10/1997</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10481,7 +10481,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10496,7 +10496,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Reposición Escuela Nueva Talcuna</t>
+          <t>Construcción Observatorio Astronómico Comunal II Etapa</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10515,7 +10515,7 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10544,7 +10544,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Reposición Escuela Viñita Alta</t>
+          <t>Reposición Escuela Nueva Talcuna</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10563,7 +10563,7 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10592,12 +10592,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Estudio Integral Tranques Relaves Pastos Largos</t>
+          <t>Reposición Escuela Viñita Alta</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -10607,25 +10607,25 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>CIA. MINERA BARRICK CHILE LTDA.</t>
+          <t>Ilustre Municipalidad de Vicuña</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>2810</v>
+        <v>350</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>14/08/1996</t>
+          <t>24/07/1997</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=80&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10640,7 +10640,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Caminos de Acceso y Líneas de Alta Tensión a los Proyectos Nevada y El Indio</t>
+          <t>Estudio Integral Tranques Relaves Pastos Largos</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10650,20 +10650,20 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Compañia Minera Nevada SpA</t>
+          <t>CIA. MINERA BARRICK CHILE LTDA.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>46000</v>
+        <v>2810</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>19/03/1996</t>
+          <t>14/08/1996</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10673,7 +10673,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=80&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10688,7 +10688,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Planta JIGG Quebrada de Marquesa</t>
+          <t>Caminos de Acceso y Líneas de Alta Tensión a los Proyectos Nevada y El Indio</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10698,20 +10698,20 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Manganesos Atacama S.A. Ltda.</t>
+          <t>Compañia Minera Nevada SpA</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>200</v>
+        <v>46000</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>17/10/1995</t>
+          <t>19/03/1996</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10721,7 +10721,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10736,43 +10736,91 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
+          <t>Planta JIGG Quebrada de Marquesa</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Cuarta</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Manganesos Atacama S.A. Ltda.</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>200</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>17/10/1995</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>Vicuña</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
           <t>Proyecto Minero Tambo</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>Cuarta</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Cuarta</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
         <is>
           <t>CIA. MINERA BARRICK CHILE LTDA.</t>
         </is>
       </c>
-      <c r="F217" t="n">
+      <c r="F218" t="n">
         <v>115000</v>
       </c>
-      <c r="G217" t="inlineStr">
+      <c r="G218" t="inlineStr">
         <is>
           <t>20/07/1994</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
+      <c r="H218" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I217" t="inlineStr">
+      <c r="I218" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=148&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J217" t="inlineStr">
+      <c r="J218" t="inlineStr">
         <is>
           <t>Vicuña</t>
         </is>

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificaciones Minera Linderos</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,16 +2738,16 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Modificaciones Minera Linderos</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,16 +2786,16 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Modificaciones Minera Linderos</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,16 +2738,16 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificaciones Minera Linderos</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,16 +2786,16 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>23/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificaciones Minera Linderos</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,16 +2738,16 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Compañía Minera Linderos</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Modificaciones Minera Linderos</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,16 +2786,16 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Compañía Minera Linderos</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">

--- a/data/Vicuña.xlsx
+++ b/data/Vicuña.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J218"/>
+  <dimension ref="A1:J219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,26 +424,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modificaciones Proyecto Minero Arqueros</t>
+          <t>Línea de Transmisión Eléctrica HVDC Kimal - Lo Aguirre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Compañía Minera Arqueros S.A.</t>
+          <t>Conexión Kimal Lo Aguirre S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3000</v>
+        <v>1.48</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -452,12 +452,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160243763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160211381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prospección Minera Campanario</t>
+          <t>Modificaciones Proyecto Minero Arqueros</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Inversiones Barrick Conosur SpA</t>
+          <t>Compañía Minera Arqueros S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>36000</v>
+        <v>3000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10/07/2023</t>
+          <t>23/10/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159521613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160243763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mina Yeso Corral</t>
+          <t>Prospección Minera Campanario</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Yesos Andinas SPA</t>
+          <t>Inversiones Barrick Conosur SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>36000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>14/04/2023</t>
+          <t>10/07/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158652957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159521613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Alto Solar</t>
+          <t>Mina Yeso Corral</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Alto Solar SPA</t>
+          <t>Yesos Andinas SPA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>61261</v>
+        <v>100</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/03/2023</t>
+          <t>14/04/2023</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158865055&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158652957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -635,11 +635,11 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>161261</v>
+        <v>61261</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>18/02/2023</t>
+          <t>22/03/2023</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158677332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158865055&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mina Yeso Corral</t>
+          <t>Parque Fotovoltaico Alto Solar</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Yesos Andinas SPA</t>
+          <t>Alto Solar SPA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>161261</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>25/01/2023</t>
+          <t>18/02/2023</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158513816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158677332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Alto Solar</t>
+          <t>Mina Yeso Corral</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Alto Solar SPA</t>
+          <t>Yesos Andinas SPA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>161261</v>
+        <v>100</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20/01/2023</t>
+          <t>25/01/2023</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158033795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158513816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mina Yeso Corral</t>
+          <t>Parque Fotovoltaico Alto Solar</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Yesos Andinos SPA</t>
+          <t>Alto Solar SPA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>161261</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>18/10/2022</t>
+          <t>20/01/2023</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157197696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158033795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Crecimiento Tranque de Relaves Panules</t>
+          <t>Mina Yeso Corral</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SOCIEDAD SERVICIOS A LA MINERIA OMINT SPA</t>
+          <t>Yesos Andinos SPA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>06/01/2022</t>
+          <t>18/10/2022</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154614776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157197696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>28/12/2021</t>
+          <t>06/01/2022</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154497249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154614776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Repotenciamiento PMGD Luna II</t>
+          <t>Crecimiento Tranque de Relaves Panules</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Parque Solar Luna del Norte SpA</t>
+          <t>SOCIEDAD SERVICIOS A LA MINERIA OMINT SPA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1900</v>
+        <v>250</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>23/07/2020</t>
+          <t>28/12/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147476824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154497249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Repotenciamiento PMGD SOL II</t>
+          <t>Repotenciamiento PMGD Luna II</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,11 +967,11 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Parque Solar Sol del Norte SpA</t>
+          <t>Parque Solar Luna del Norte SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3750</v>
+        <v>1900</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147482505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147476824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Proyecto Minero Arqueros</t>
+          <t>Repotenciamiento PMGD SOL II</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>COMPAÑÍA MINERA ARQUEROS S.A.</t>
+          <t>Parque Solar Sol del Norte SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>200000</v>
+        <v>3750</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>25/05/2020</t>
+          <t>23/07/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146624103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147482505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,12 +1048,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Fundo San Isidro</t>
+          <t>Proyecto Minero Arqueros</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FSI Solar SpA</t>
+          <t>COMPAÑÍA MINERA ARQUEROS S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>15000</v>
+        <v>200000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>23/04/2020</t>
+          <t>25/05/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146361278&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146624103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>LENERGIA CHILE SpA</t>
+          <t>FSI Solar SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>23/03/2020</t>
+          <t>23/04/2020</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146016174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146361278&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Planta Fotovoltaica Fundo San Isidro</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,30 +1154,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>LENERGIA CHILE SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>23/03/2020</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146016174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica Santa Francisca</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,20 +1202,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CVE Proyecto Diecisiete SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>7600</v>
+        <v>25000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>22/11/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144992691&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nuevo sistema de tratamiento de aguas servidas de Vicuña, región de Coquimbo</t>
+          <t>Nueva Central Solar Fotovoltaica Santa Francisca</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Aguas del Valle S.A.</t>
+          <t>CVE Proyecto Diecisiete SpA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>5200</v>
+        <v>7600</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>28/10/2019</t>
+          <t>22/11/2019</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144513629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144992691&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Central GLP Talcuna</t>
+          <t>Nuevo sistema de tratamiento de aguas servidas de Vicuña, región de Coquimbo</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MARQUESA GLP SpA</t>
+          <t>Aguas del Valle S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3500</v>
+        <v>5200</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>23/07/2019</t>
+          <t>28/10/2019</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143765092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144513629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Proyecto ?Faena Minera ?Mina San Antonio?, explotación a 40.000 ton/mes?</t>
+          <t>Central GLP Talcuna</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Compañía Minera San Gerónimo</t>
+          <t>MARQUESA GLP SpA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4200</v>
+        <v>3500</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>21/11/2018</t>
+          <t>23/07/2019</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141692561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143765092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
+          <t>Proyecto ?Faena Minera ?Mina San Antonio?, explotación a 40.000 ton/mes?</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,20 +1394,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
+          <t>Compañía Minera San Gerónimo</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>27/06/2018</t>
+          <t>21/11/2018</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141692561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Gabriela</t>
+          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Bronte SpA</t>
+          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>22/03/2018</t>
+          <t>27/06/2018</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138751214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Parque solar Llanos de Potroso</t>
+          <t>Parque Fotovoltaico Gabriela</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Llanos de Potroso SpA</t>
+          <t>Bronte SpA</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>23/11/2016</t>
+          <t>22/03/2018</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131950285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138751214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20/10/2016</t>
+          <t>23/11/2016</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131822429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131950285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Parque Solar Llanos de Potroso</t>
+          <t>Parque solar Llanos de Potroso</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>16/09/2016</t>
+          <t>20/10/2016</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131726680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131822429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PARQUE SOLAR CASA DE PIEDRA</t>
+          <t>Parque Solar Llanos de Potroso</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1643,11 +1643,11 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>62000</v>
+        <v>12000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>22/04/2016</t>
+          <t>16/09/2016<